--- a/php code libraries/Laravel DRY v1.xlsx
+++ b/php code libraries/Laravel DRY v1.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariaadelaida\Documents\Alejo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\github\SAS\php code libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Laravel" sheetId="1" r:id="rId1"/>
-    <sheet name="LaravelGenerate" sheetId="5" r:id="rId2"/>
+    <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="LaravelGenerate" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="AutoLaravel v1" sheetId="6" r:id="rId3"/>
-    <sheet name="Sentry&amp;laravel" sheetId="2" r:id="rId4"/>
+    <sheet name="laravelAuth v1" sheetId="7" r:id="rId4"/>
+    <sheet name="HTML template v1" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="223">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -222,94 +223,19 @@
     <t>Important! It must be started inside the project folder</t>
   </si>
   <si>
-    <t>Installing SENTRY</t>
-  </si>
-  <si>
-    <t>As I found some errors I cannot explain, this way was tested and works fine</t>
-  </si>
-  <si>
-    <t>1. Go inside folder which contains laravel project</t>
-  </si>
-  <si>
-    <t>2. Be sure composer is installed.  Install it again.</t>
-  </si>
-  <si>
-    <t>3. Open project with sublime text</t>
-  </si>
-  <si>
-    <t>4. Open "composer.json" file, located in the main root of the project</t>
-  </si>
-  <si>
-    <t>5. Add to the require property the sentry callout</t>
-  </si>
-  <si>
-    <t>require: {</t>
-  </si>
-  <si>
-    <t>laravel/framework: "4.0.*",</t>
-  </si>
-  <si>
-    <t>cartalyst/sentry: "2.0.*"</t>
-  </si>
-  <si>
     <t>},</t>
   </si>
   <si>
-    <t>Careful! Add a comma after adding each requirement</t>
-  </si>
-  <si>
-    <t>6. After this run composer update</t>
-  </si>
-  <si>
     <t>composer update</t>
   </si>
   <si>
-    <t>Wait some minuts while it does something that who cares</t>
-  </si>
-  <si>
-    <t>7. Add 'Cartalyst\Sentry\SentryServiceProvider' to the list of service providers in app/config/app.php</t>
-  </si>
-  <si>
-    <t>providers' =&gt; array(…</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
-    <t>'Illuminate\View\ViewServiceProvider',</t>
-  </si>
-  <si>
     <t>'Illuminate\Workbench\WorkbenchServiceProvider',</t>
   </si>
   <si>
-    <t>'Cartalyst\Sentry\SentryServiceProvider',</t>
-  </si>
-  <si>
     <t>),</t>
-  </si>
-  <si>
-    <t>aliases' =&gt; array(</t>
-  </si>
-  <si>
-    <t>8. Add 'Sentry' =&gt; 'Cartalyst\Sentry\Facades\Laravel\Sentry' to the list of class aliases in app/config/app.php</t>
-  </si>
-  <si>
-    <t>Sentry' =&gt; 'Cartalyst\Sentry\Facades\Laravel\Sentry',</t>
-  </si>
-  <si>
-    <t>View'            =&gt; 'Illuminate\Support\Facades\View',</t>
-  </si>
-  <si>
-    <t>Validator'       =&gt; 'Illuminate\Support\Facades\Validator',</t>
-  </si>
-  <si>
-    <t>9. Finally,  run php artisan migrate --package=cartalyst/sentry from the command line.</t>
-  </si>
-  <si>
-    <t>php artisan migrate --package=cartalyst/sentry</t>
-  </si>
-  <si>
-    <t>Sentry usage</t>
   </si>
   <si>
     <t>Laravel generate commands from command line</t>
@@ -571,9 +497,6 @@
     <t>Table name (use plural):</t>
   </si>
   <si>
-    <t>airplanes</t>
-  </si>
-  <si>
     <t>Field1</t>
   </si>
   <si>
@@ -734,9 +657,6 @@
     <t>Filename (no extension)</t>
   </si>
   <si>
-    <t>+ Extension</t>
-  </si>
-  <si>
     <t>Folder (default none)</t>
   </si>
   <si>
@@ -789,23 +709,260 @@
     <t>app/routes.php</t>
   </si>
   <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>firstattempt</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>1. Define users groups, at least one default group.</t>
+    <t>Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">composer create-project laravel/laravel </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --prefer-dist</t>
+  </si>
+  <si>
+    <r>
+      <t>Edit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> composer.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file, add "way/generators": "dev-master" inside </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> array:</t>
+    </r>
+  </si>
+  <si>
+    <t>Run composer update</t>
+  </si>
+  <si>
+    <t>When composer be finished, open "app/config/app.php" and add to "providers" array</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>php artisan generate:controller UserController</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laravel&gt;  </t>
+  </si>
+  <si>
+    <t>php artisan generate:migration create_users_table --fields="email:string,password:string"</t>
+  </si>
+  <si>
+    <t>LARAVEL HTML TEMPLATE V1</t>
+  </si>
+  <si>
+    <t>There is a templating system already done in folders located at same path of this file</t>
+  </si>
+  <si>
+    <t>So, copy - paste as mentioned below</t>
+  </si>
+  <si>
+    <t>folder 'assets' inside 'public'</t>
+  </si>
+  <si>
+    <t>folder 'templates' inside 'app/views'</t>
+  </si>
+  <si>
+    <t>Usage:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Name ALL FILES with extension </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.blade.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">     Example: sample.blade.php</t>
+  </si>
+  <si>
+    <t>2. File structure must contain following content</t>
+  </si>
+  <si>
+    <t>@extends('templates.base')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        @section('sidebar')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        @stop</t>
+  </si>
+  <si>
+    <t>(optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        @section('content')</t>
+  </si>
+  <si>
+    <t>MAIN CONTENT HERE, USING TWITTER BOOTSTRAP RULES</t>
+  </si>
+  <si>
+    <t>3.  Modify header and footer files as desired. These are inside templates folder.</t>
+  </si>
+  <si>
+    <t>newuser</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>Create:</t>
+  </si>
+  <si>
+    <t>LARAVEL AUTHENTICATION SYSTEM VERSION 1</t>
+  </si>
+  <si>
+    <t>1. Follow steps mentioned in AutoLaravel v1 up to the DB password line</t>
+  </si>
+  <si>
+    <t>Use the following standards</t>
+  </si>
+  <si>
+    <t>Table name</t>
+  </si>
+  <si>
+    <t>field names</t>
+  </si>
+  <si>
+    <t>Input id and name attributes (html form)</t>
+  </si>
+  <si>
+    <t>same of table field names</t>
+  </si>
+  <si>
+    <t>3. Create"user" controller</t>
+  </si>
+  <si>
+    <t>4. On text editor create folder "user", which contains creation, update, permissions and delete folders</t>
+  </si>
+  <si>
+    <t>5. Open UserController and edit create action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Return View::make('user.newuser');</t>
+  </si>
+  <si>
+    <t>public function create() {</t>
+  </si>
+  <si>
+    <t>public function login() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Return View::make('user.login');</t>
+  </si>
+  <si>
+    <t>bsample</t>
+  </si>
+  <si>
+    <t>6. Open routes and create as default "login" action.  Indeed the next codes have all needed routes</t>
+  </si>
+  <si>
+    <t>Route::get('/','UserController@login');</t>
+  </si>
+  <si>
+    <t>Route::get('subscribe','UserController@create');</t>
+  </si>
+  <si>
+    <t>…  add the login action</t>
+  </si>
+  <si>
+    <t>… And add a "succesful login" -success- action</t>
+  </si>
+  <si>
+    <t>public function success() {</t>
+  </si>
+  <si>
+    <t>Don't forget to create mentioned files (.blade.php extension) inside views/user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Return View::make('user.success');</t>
+  </si>
+  <si>
+    <t>(delete default route)</t>
+  </si>
+  <si>
+    <t>2.  Use next command for creating users table and model:</t>
+  </si>
+  <si>
+    <t>php artisan generate:model User</t>
+  </si>
+  <si>
+    <t>Route::get('login','UserController@login');</t>
+  </si>
+  <si>
+    <t>Route::get('success',array('before'=&gt;'auth','uses'=&gt;'UserController@success'));</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,6 +1090,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1005,7 +1169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1015,10 +1179,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1035,6 +1195,9 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,8 +1229,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF3B0731"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1346,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,205 +1858,205 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="B8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="B9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="B17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="E25" s="5"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>107</v>
+      <c r="B37" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1904,54 +2067,54 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
-        <v>107</v>
+      <c r="B39" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
-        <v>107</v>
+      <c r="B44" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
-        <v>107</v>
+      <c r="B48" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1959,7 +2122,7 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1970,1013 +2133,1205 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="14"/>
-    <col min="7" max="7" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="6" width="11.42578125" style="10"/>
+    <col min="7" max="7" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="1" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="23" t="str">
+        <f>A1&amp;C13&amp;A2</f>
+        <v>composer create-project laravel/laravel bsample --prefer-dist</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="23" t="str">
+        <f>"cd "&amp;C13</f>
+        <v>cd bsample</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="25"/>
+      <c r="C35" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="25"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="F39" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="F40" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="F41" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M41" s="16" t="str">
+        <f>IF(SUM(J46:K55)&gt;0,B2&amp;P55&amp;Q55&amp;B3,"")</f>
+        <v>--fields="email:string,password:string"</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="F10" s="14" t="s">
+      <c r="F44" s="16" t="str">
+        <f>LEFT(D44,LEN(D44)-1)</f>
+        <v>user</v>
+      </c>
+      <c r="G44" s="16" t="str">
+        <f>UPPER(LEFT(F44,1))&amp;RIGHT(F44,LEN(F44)-1)</f>
+        <v>User</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="F11" s="21" t="s">
+      <c r="D45" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="G45" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" s="16"/>
+      <c r="M45" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="N45" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="J46" s="16">
+        <f>IF(C46="",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K46" s="16">
+        <f>IF(G46="",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="N46" s="16" t="str">
+        <f>IF(AND(C46&lt;&gt;"",D46&lt;&gt;""),IF(N45="concatenator1","",",")&amp;C46&amp;":"&amp;D46,"")</f>
+        <v>email:string</v>
+      </c>
+      <c r="O46" s="16" t="str">
+        <f>IF(AND(G46&lt;&gt;"",H46&lt;&gt;""),","&amp;G46&amp;":"&amp;H46,"")</f>
+        <v/>
+      </c>
+      <c r="P46" s="16" t="str">
+        <f>P45&amp;N46</f>
+        <v>email:string</v>
+      </c>
+      <c r="Q46" s="16" t="str">
+        <f>Q45&amp;O46</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="F12" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="M12" s="20" t="str">
-        <f>IF(SUM(J17:K26)&gt;0,A5&amp;P26&amp;Q26&amp;A6,"")</f>
+      <c r="D47" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="J47" s="16">
+        <f t="shared" ref="J47:J55" si="0">IF(C47="",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K47" s="16">
+        <f t="shared" ref="K47:K55" si="1">IF(G47="",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="N47" s="16" t="str">
+        <f t="shared" ref="N47:N55" si="2">IF(AND(C47&lt;&gt;"",D47&lt;&gt;""),IF(N46="concatenator1","",",")&amp;C47&amp;":"&amp;D47,"")</f>
+        <v>,password:string</v>
+      </c>
+      <c r="O47" s="16" t="str">
+        <f t="shared" ref="O47:O55" si="3">IF(AND(G47&lt;&gt;"",H47&lt;&gt;""),","&amp;G47&amp;":"&amp;H47,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="20" t="str">
-        <f>LEFT(D15,LEN(D15)-1)</f>
-        <v>airplane</v>
-      </c>
-      <c r="G15" s="20" t="str">
-        <f>UPPER(LEFT(F15,1))&amp;RIGHT(F15,LEN(F15)-1)</f>
-        <v>Airplane</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="M16" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="F17" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="J17" s="20">
-        <f>IF(C17="",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="20">
-        <f>IF(G17="",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="N17" s="20" t="str">
-        <f>IF(AND(C17&lt;&gt;"",D17&lt;&gt;""),IF(N16="concatenator1","",",")&amp;C17&amp;":"&amp;D17,"")</f>
+      <c r="P47" s="16" t="str">
+        <f t="shared" ref="P47:P55" si="4">P46&amp;N47</f>
+        <v>email:string,password:string</v>
+      </c>
+      <c r="Q47" s="16" t="str">
+        <f t="shared" ref="Q47:Q55" si="5">Q46&amp;O47</f>
         <v/>
       </c>
-      <c r="O17" s="20" t="str">
-        <f>IF(AND(G17&lt;&gt;"",H17&lt;&gt;""),","&amp;G17&amp;":"&amp;H17,"")</f>
-        <v/>
-      </c>
-      <c r="P17" s="20" t="str">
-        <f>P16&amp;N17</f>
-        <v/>
-      </c>
-      <c r="Q17" s="20" t="str">
-        <f>Q16&amp;O17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="F18" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="J18" s="20">
-        <f t="shared" ref="J18:J26" si="0">IF(C18="",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="20">
-        <f t="shared" ref="K18:K26" si="1">IF(G18="",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="N18" s="20" t="str">
-        <f t="shared" ref="N18:N26" si="2">IF(AND(C18&lt;&gt;"",D18&lt;&gt;""),IF(N17="concatenator1","",",")&amp;C18&amp;":"&amp;D18,"")</f>
-        <v/>
-      </c>
-      <c r="O18" s="20" t="str">
-        <f t="shared" ref="O18:O26" si="3">IF(AND(G18&lt;&gt;"",H18&lt;&gt;""),","&amp;G18&amp;":"&amp;H18,"")</f>
-        <v/>
-      </c>
-      <c r="P18" s="20" t="str">
-        <f t="shared" ref="P18:P26" si="4">P17&amp;N18</f>
-        <v/>
-      </c>
-      <c r="Q18" s="20" t="str">
-        <f t="shared" ref="Q18:Q26" si="5">Q17&amp;O18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="F19" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="J19" s="20">
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="F48" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="J48" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K48" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="N19" s="20" t="str">
+      <c r="M48" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="N48" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O19" s="20" t="str">
+      <c r="O48" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P19" s="20" t="str">
+      <c r="P48" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q19" s="20" t="str">
+        <v>email:string,password:string</v>
+      </c>
+      <c r="Q48" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="F20" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="J20" s="20">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="F49" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="J49" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K49" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="N20" s="20" t="str">
+      <c r="M49" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="N49" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O20" s="20" t="str">
+      <c r="O49" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P20" s="20" t="str">
+      <c r="P49" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q20" s="20" t="str">
+        <v>email:string,password:string</v>
+      </c>
+      <c r="Q49" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="F21" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="J21" s="20">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="F50" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="J50" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K50" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="N21" s="20" t="str">
+      <c r="M50" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="N50" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O21" s="20" t="str">
+      <c r="O50" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P21" s="20" t="str">
+      <c r="P50" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q21" s="20" t="str">
+        <v>email:string,password:string</v>
+      </c>
+      <c r="Q50" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="F22" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="J22" s="20">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="F51" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="J51" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K51" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="N22" s="20" t="str">
+      <c r="M51" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="N51" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O22" s="20" t="str">
+      <c r="O51" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P22" s="20" t="str">
+      <c r="P51" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q22" s="20" t="str">
+        <v>email:string,password:string</v>
+      </c>
+      <c r="Q51" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="F23" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="J23" s="20">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="F52" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="J52" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K52" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="N23" s="20" t="str">
+      <c r="M52" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="N52" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O23" s="20" t="str">
+      <c r="O52" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P23" s="20" t="str">
+      <c r="P52" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q23" s="20" t="str">
+        <v>email:string,password:string</v>
+      </c>
+      <c r="Q52" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="F24" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="J24" s="20">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="F53" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="J53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K53" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="N24" s="20" t="str">
+      <c r="M53" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="N53" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O24" s="20" t="str">
+      <c r="O53" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P24" s="20" t="str">
+      <c r="P53" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q24" s="20" t="str">
+        <v>email:string,password:string</v>
+      </c>
+      <c r="Q53" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="F25" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="J25" s="20">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="F54" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="J54" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K54" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="N25" s="20" t="str">
+      <c r="M54" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N54" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O25" s="20" t="str">
+      <c r="O54" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P25" s="20" t="str">
+      <c r="P54" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q25" s="20" t="str">
+        <v>email:string,password:string</v>
+      </c>
+      <c r="Q54" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="F26" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="J26" s="20">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="F55" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="J55" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K55" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="N26" s="20" t="str">
+      <c r="M55" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="N55" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O26" s="20" t="str">
+      <c r="O55" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P26" s="20" t="str">
+      <c r="P55" s="16" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q26" s="20" t="str">
+        <v>email:string,password:string</v>
+      </c>
+      <c r="Q55" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="27" t="str">
-        <f>A1&amp;A2&amp;A3&amp;D15&amp;A4&amp;M12</f>
-        <v xml:space="preserve">php artisan generate:migration create_airplanes_table </v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="27" t="str">
-        <f>A1&amp;B1&amp;G15</f>
-        <v>php artisan generate:model Airplane</v>
-      </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="13" t="s">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="23" t="str">
+        <f>A4&amp;A5&amp;A6&amp;D44&amp;B1&amp;M41</f>
+        <v>php artisan generate:migration create_users_table --fields="email:string,password:string"</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="23" t="str">
+        <f>A4&amp;B4&amp;G44</f>
+        <v>php artisan generate:model User</v>
+      </c>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F40" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" s="26" t="str">
-        <f>D40&amp;".blade.php"</f>
-        <v>index.blade.php</v>
-      </c>
-      <c r="H40" s="26"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="G42" s="20" t="str">
-        <f>UPPER(LEFT(D42,1))&amp;RIGHT(D42,LEN(D42)-1)&amp;"Controller"</f>
-        <v>MaryController</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="27" t="str">
-        <f>A1&amp;B2&amp;G42</f>
-        <v>php artisan generate:controller MaryController</v>
-      </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D45" s="14" t="str">
-        <f>" app/Controllers/"&amp;G42&amp;".php"</f>
-        <v xml:space="preserve"> app/Controllers/MaryController.php</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="26" t="str">
-        <f>"public function "&amp;D44&amp;"() {"</f>
-        <v>public function firstattempt() {</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="26" t="str">
-        <f>"    Return View::make('"&amp;D41&amp;IF(D41&lt;&gt;"",".","")&amp;D40&amp;"'"&amp;");"</f>
-        <v xml:space="preserve">    Return View::make('index');</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="26" t="s">
+      <c r="F65" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G65" s="22" t="str">
+        <f>"app/views/"&amp;D66</f>
+        <v>app/views/user</v>
+      </c>
+      <c r="H65" s="22"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="22" t="str">
+        <f>D65&amp;".blade.php"</f>
+        <v>newuser.blade.php</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67" s="16" t="str">
+        <f>UPPER(LEFT(D67,1))&amp;RIGHT(D67,LEN(D67)-1)&amp;"Controller"</f>
+        <v>UserController</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="23" t="str">
+        <f>A4&amp;B5&amp;G67</f>
+        <v>php artisan generate:controller UserController</v>
+      </c>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="10" t="str">
+        <f>" app/Controllers/"&amp;G67&amp;".php"</f>
+        <v xml:space="preserve"> app/Controllers/UserController.php</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D71" s="22" t="str">
+        <f>"public function "&amp;D69&amp;"() {"</f>
+        <v>public function newuser() {</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D72" s="22" t="str">
+        <f>"    Return View::make('"&amp;D66&amp;IF(D66&lt;&gt;"",".","")&amp;D65&amp;"'"&amp;");"</f>
+        <v xml:space="preserve">    Return View::make('user.newuser');</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D73" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="26" t="str">
-        <f>"Route::get('"&amp;D40&amp;"','"&amp;G42&amp;"@"&amp;D44&amp;"');"</f>
-        <v>Route::get('index','MaryController@firstattempt');</v>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D75" s="22" t="str">
+        <f>"Route::get('"&amp;D65&amp;"','"&amp;G67&amp;"@"&amp;D69&amp;"');"</f>
+        <v>Route::get('newuser','UserController@newuser');</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D26 H17:H26">
-      <formula1>$M$17:$M$26</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D55 H46:H55">
+      <formula1>$M$46:$M$55</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G51"/>
+  <dimension ref="B3:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="B18" s="10" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="B19" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>66</v>
+      <c r="C24" s="25" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="2"/>
+      <c r="C25" s="22" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="C26" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>69</v>
+      <c r="C28" s="22" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="1"/>
+      <c r="C29" s="22" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="1"/>
+      <c r="B31" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>192</v>
+      <c r="C32" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="22"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/php code libraries/Laravel DRY v1.xlsx
+++ b/php code libraries/Laravel DRY v1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="248">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -898,12 +898,6 @@
     <t>3. Create"user" controller</t>
   </si>
   <si>
-    <t>4. On text editor create folder "user", which contains creation, update, permissions and delete folders</t>
-  </si>
-  <si>
-    <t>5. Open UserController and edit create action</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Return View::make('user.newuser');</t>
   </si>
   <si>
@@ -916,9 +910,6 @@
     <t xml:space="preserve">    Return View::make('user.login');</t>
   </si>
   <si>
-    <t>bsample</t>
-  </si>
-  <si>
     <t>6. Open routes and create as default "login" action.  Indeed the next codes have all needed routes</t>
   </si>
   <si>
@@ -928,18 +919,12 @@
     <t>Route::get('subscribe','UserController@create');</t>
   </si>
   <si>
-    <t>…  add the login action</t>
-  </si>
-  <si>
     <t>… And add a "succesful login" -success- action</t>
   </si>
   <si>
     <t>public function success() {</t>
   </si>
   <si>
-    <t>Don't forget to create mentioned files (.blade.php extension) inside views/user</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Return View::make('user.success');</t>
   </si>
   <si>
@@ -956,6 +941,96 @@
   </si>
   <si>
     <t>Route::get('success',array('before'=&gt;'auth','uses'=&gt;'UserController@success'));</t>
+  </si>
+  <si>
+    <t>Route::get('adminuser',array('before'=&gt;'auth','uses'=&gt;'UserController@adminuser'));</t>
+  </si>
+  <si>
+    <t>… the user administration -adminuser- action</t>
+  </si>
+  <si>
+    <t>public function adminuser() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Return View::make('user.adminuser');</t>
+  </si>
+  <si>
+    <t>Basic login template</t>
+  </si>
+  <si>
+    <t>Copy - paste following folders as indicated</t>
+  </si>
+  <si>
+    <t>folder 'user' inside 'app/views'</t>
+  </si>
+  <si>
+    <t>csample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "way/generators": "dev-master"</t>
+  </si>
+  <si>
+    <t>"laravel/framework": "4.0.*",</t>
+  </si>
+  <si>
+    <t>4. Open UserController and edit create action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -&gt;with('title','subscribe');</t>
+  </si>
+  <si>
+    <t>Route::post('subscribe','UserController@suscription');</t>
+  </si>
+  <si>
+    <t>…  the login action</t>
+  </si>
+  <si>
+    <t>…  add the suscription action</t>
+  </si>
+  <si>
+    <t>public function suscription() {</t>
+  </si>
+  <si>
+    <t>//find if user exists. Give option to reset password</t>
+  </si>
+  <si>
+    <t>$count = User::where('email', '=', Input::get('new_email'))-&gt;count();</t>
+  </si>
+  <si>
+    <t>if ($count==0) {</t>
+  </si>
+  <si>
+    <t>$user=new User;</t>
+  </si>
+  <si>
+    <t>$user-&gt;email=input::get('new_email');</t>
+  </si>
+  <si>
+    <t>$user-&gt;password=Hash::make(input::get('new_password'));</t>
+  </si>
+  <si>
+    <t>$user-&gt;save();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (Auth::attempt(array( 'email' =&gt; input::get('new_email'), </t>
+  </si>
+  <si>
+    <t>'password' =&gt; input::get('new_password') )))</t>
+  </si>
+  <si>
+    <t>{ return Redirect::to('success'); }</t>
+  </si>
+  <si>
+    <t>else { return View::make('user.login'); }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Return View::make('user.newuser')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -&gt;with('title','subscribe')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -&gt;with('message','User already exists');</t>
   </si>
 </sst>
 </file>
@@ -2135,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,7 +2286,7 @@
         <v>162</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -2221,7 +2296,7 @@
       </c>
       <c r="C14" s="23" t="str">
         <f>A1&amp;C13&amp;A2</f>
-        <v>composer create-project laravel/laravel bsample --prefer-dist</v>
+        <v>composer create-project laravel/laravel csample --prefer-dist</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -2234,7 +2309,7 @@
       </c>
       <c r="C15" s="23" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd bsample</v>
+        <v>cd csample</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -2276,15 +2351,14 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
-        <v>63</v>
+      <c r="C22" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="13" t="s">
+        <v>226</v>
+      </c>
       <c r="D23" s="22"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -3012,10 +3086,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I42"/>
+  <dimension ref="B3:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,7 +3145,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -3105,7 +3179,7 @@
         <v>127</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -3131,105 +3205,279 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="22" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="25" t="s">
-        <v>206</v>
+      <c r="C24" s="22" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="22" t="s">
-        <v>205</v>
+      <c r="C25" s="25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="B26" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="22" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="22" t="s">
-        <v>207</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" s="22" t="s">
-        <v>208</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="22"/>
+      <c r="E36" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C31" s="22"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="22" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="22"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="22"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="22"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="22"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="22" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="22"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="22" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="10" t="s">
-        <v>218</v>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +3489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/php code libraries/Laravel DRY v1.xlsx
+++ b/php code libraries/Laravel DRY v1.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="LaravelGenerate" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="AutoLaravel v1" sheetId="6" r:id="rId3"/>
     <sheet name="laravelAuth v1" sheetId="7" r:id="rId4"/>
-    <sheet name="HTML template v1" sheetId="8" r:id="rId5"/>
+    <sheet name="Laravel mail v1" sheetId="10" r:id="rId5"/>
+    <sheet name="HTML template v1" sheetId="8" r:id="rId6"/>
+    <sheet name="error ptscreen" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="321">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -788,9 +790,6 @@
     <t xml:space="preserve">laravel&gt;  </t>
   </si>
   <si>
-    <t>php artisan generate:migration create_users_table --fields="email:string,password:string"</t>
-  </si>
-  <si>
     <t>LARAVEL HTML TEMPLATE V1</t>
   </si>
   <si>
@@ -841,203 +840,447 @@
     <t>2. File structure must contain following content</t>
   </si>
   <si>
+    <t>(optional)</t>
+  </si>
+  <si>
+    <t>MAIN CONTENT HERE, USING TWITTER BOOTSTRAP RULES</t>
+  </si>
+  <si>
+    <t>3.  Modify header and footer files as desired. These are inside templates folder.</t>
+  </si>
+  <si>
+    <t>newuser</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>Create:</t>
+  </si>
+  <si>
+    <t>LARAVEL AUTHENTICATION SYSTEM VERSION 1</t>
+  </si>
+  <si>
+    <t>1. Follow steps mentioned in AutoLaravel v1 up to the DB password line</t>
+  </si>
+  <si>
+    <t>Use the following standards</t>
+  </si>
+  <si>
+    <t>Table name</t>
+  </si>
+  <si>
+    <t>field names</t>
+  </si>
+  <si>
+    <t>Input id and name attributes (html form)</t>
+  </si>
+  <si>
+    <t>same of table field names</t>
+  </si>
+  <si>
+    <t>3. Create"user" controller</t>
+  </si>
+  <si>
+    <t>public function create() {</t>
+  </si>
+  <si>
+    <t>public function login() {</t>
+  </si>
+  <si>
+    <t>6. Open routes and create as default "login" action.  Indeed the next codes have all needed routes</t>
+  </si>
+  <si>
+    <t>Route::get('/','UserController@login');</t>
+  </si>
+  <si>
+    <t>Route::get('subscribe','UserController@create');</t>
+  </si>
+  <si>
+    <t>public function success() {</t>
+  </si>
+  <si>
+    <t>(delete default route)</t>
+  </si>
+  <si>
+    <t>2.  Use next command for creating users table and model:</t>
+  </si>
+  <si>
+    <t>php artisan generate:model User</t>
+  </si>
+  <si>
+    <t>Route::get('login','UserController@login');</t>
+  </si>
+  <si>
+    <t>Route::get('success',array('before'=&gt;'auth','uses'=&gt;'UserController@success'));</t>
+  </si>
+  <si>
+    <t>Route::get('adminuser',array('before'=&gt;'auth','uses'=&gt;'UserController@adminuser'));</t>
+  </si>
+  <si>
+    <t>… the user administration -adminuser- action</t>
+  </si>
+  <si>
+    <t>public function adminuser() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Return View::make('user.adminuser');</t>
+  </si>
+  <si>
+    <t>Basic login template</t>
+  </si>
+  <si>
+    <t>Copy - paste following folders as indicated</t>
+  </si>
+  <si>
+    <t>folder 'user' inside 'app/views'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "way/generators": "dev-master"</t>
+  </si>
+  <si>
+    <t>"laravel/framework": "4.0.*",</t>
+  </si>
+  <si>
+    <t>4. Open UserController and edit create action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -&gt;with('title','subscribe');</t>
+  </si>
+  <si>
+    <t>Route::post('subscribe','UserController@suscription');</t>
+  </si>
+  <si>
+    <t>…  the login action</t>
+  </si>
+  <si>
+    <t>…  add the suscription action</t>
+  </si>
+  <si>
+    <t>public function suscription() {</t>
+  </si>
+  <si>
+    <t>//find if user exists. Give option to reset password</t>
+  </si>
+  <si>
+    <t>$count = User::where('email', '=', Input::get('new_email'))-&gt;count();</t>
+  </si>
+  <si>
+    <t>if ($count==0) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Return View::make('user.newuser')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -&gt;with('title','subscribe')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -&gt;with('message','User already exists');</t>
+  </si>
+  <si>
+    <t>public function logout() {</t>
+  </si>
+  <si>
+    <t>… Add a "succesful login" -success- action</t>
+  </si>
+  <si>
+    <t>… Add a "logout" -success- action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Auth::logout();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return View::make('user.logout')</t>
+  </si>
+  <si>
+    <t>Route::get('logout','UserController@logout');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -&gt;with('title','logged out');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Return View::make('user.success')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -&gt;with('title','test loggedin page');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Return View::make('user.login')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -&gt;with('title','Log in');</t>
+  </si>
+  <si>
+    <t>… verify login action</t>
+  </si>
+  <si>
+    <t>public function verifyuser(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        { return Redirect::to('success'); }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      return View::make('user.login')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      -&gt;with('title','login')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      -&gt;with('message','Wrong email or password'); }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   else { </t>
+  </si>
+  <si>
+    <t>esample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $user=new User;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $user-&gt;email=input::get('new_email');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $user-&gt;password=Hash::make(input::get('new_password'));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $user-&gt;save();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (Auth::attempt(array( 'email' =&gt; input::get('new_email'), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else { return View::make('user.login'); }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'password' =&gt; input::get('new_password') )))</t>
+  </si>
+  <si>
+    <t>Route::post('login','UserController@verifyuser');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (Auth::attempt(array( 'email' =&gt; Input::get('email'), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'password' =&gt; Input::get('password') )))</t>
+  </si>
+  <si>
+    <t>Next error is usual when POST route action (such as sending form) is not found</t>
+  </si>
+  <si>
+    <t>Solution: check if route::post('sameRouteDescribedOnPostURI'… and its controller action are properly set</t>
+  </si>
+  <si>
+    <t>Route::get('visible','UserController@visible');</t>
+  </si>
+  <si>
+    <t>…  add a 'any time visible' page, this is, regardless of logged in or out.</t>
+  </si>
+  <si>
+    <t>public function visible(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Return View::make('user.visible')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -&gt;with('title','Visible');</t>
+  </si>
+  <si>
     <t>@extends('templates.base')</t>
   </si>
   <si>
-    <t xml:space="preserve">        @section('sidebar')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        @stop</t>
-  </si>
-  <si>
-    <t>(optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        @section('content')</t>
-  </si>
-  <si>
-    <t>MAIN CONTENT HERE, USING TWITTER BOOTSTRAP RULES</t>
-  </si>
-  <si>
-    <t>3.  Modify header and footer files as desired. These are inside templates folder.</t>
-  </si>
-  <si>
-    <t>newuser</t>
-  </si>
-  <si>
-    <t>Filename</t>
-  </si>
-  <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>Create:</t>
-  </si>
-  <si>
-    <t>LARAVEL AUTHENTICATION SYSTEM VERSION 1</t>
-  </si>
-  <si>
-    <t>1. Follow steps mentioned in AutoLaravel v1 up to the DB password line</t>
-  </si>
-  <si>
-    <t>Use the following standards</t>
-  </si>
-  <si>
-    <t>Table name</t>
-  </si>
-  <si>
-    <t>field names</t>
-  </si>
-  <si>
-    <t>Input id and name attributes (html form)</t>
-  </si>
-  <si>
-    <t>same of table field names</t>
-  </si>
-  <si>
-    <t>3. Create"user" controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Return View::make('user.newuser');</t>
-  </si>
-  <si>
-    <t>public function create() {</t>
-  </si>
-  <si>
-    <t>public function login() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Return View::make('user.login');</t>
-  </si>
-  <si>
-    <t>6. Open routes and create as default "login" action.  Indeed the next codes have all needed routes</t>
-  </si>
-  <si>
-    <t>Route::get('/','UserController@login');</t>
-  </si>
-  <si>
-    <t>Route::get('subscribe','UserController@create');</t>
-  </si>
-  <si>
-    <t>… And add a "succesful login" -success- action</t>
-  </si>
-  <si>
-    <t>public function success() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Return View::make('user.success');</t>
-  </si>
-  <si>
-    <t>(delete default route)</t>
-  </si>
-  <si>
-    <t>2.  Use next command for creating users table and model:</t>
-  </si>
-  <si>
-    <t>php artisan generate:model User</t>
-  </si>
-  <si>
-    <t>Route::get('login','UserController@login');</t>
-  </si>
-  <si>
-    <t>Route::get('success',array('before'=&gt;'auth','uses'=&gt;'UserController@success'));</t>
-  </si>
-  <si>
-    <t>Route::get('adminuser',array('before'=&gt;'auth','uses'=&gt;'UserController@adminuser'));</t>
-  </si>
-  <si>
-    <t>… the user administration -adminuser- action</t>
-  </si>
-  <si>
-    <t>public function adminuser() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Return View::make('user.adminuser');</t>
-  </si>
-  <si>
-    <t>Basic login template</t>
-  </si>
-  <si>
-    <t>Copy - paste following folders as indicated</t>
-  </si>
-  <si>
-    <t>folder 'user' inside 'app/views'</t>
-  </si>
-  <si>
-    <t>csample</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "way/generators": "dev-master"</t>
-  </si>
-  <si>
-    <t>"laravel/framework": "4.0.*",</t>
-  </si>
-  <si>
-    <t>4. Open UserController and edit create action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -&gt;with('title','subscribe');</t>
-  </si>
-  <si>
-    <t>Route::post('subscribe','UserController@suscription');</t>
-  </si>
-  <si>
-    <t>…  the login action</t>
-  </si>
-  <si>
-    <t>…  add the suscription action</t>
-  </si>
-  <si>
-    <t>public function suscription() {</t>
-  </si>
-  <si>
-    <t>//find if user exists. Give option to reset password</t>
-  </si>
-  <si>
-    <t>$count = User::where('email', '=', Input::get('new_email'))-&gt;count();</t>
-  </si>
-  <si>
-    <t>if ($count==0) {</t>
-  </si>
-  <si>
-    <t>$user=new User;</t>
-  </si>
-  <si>
-    <t>$user-&gt;email=input::get('new_email');</t>
-  </si>
-  <si>
-    <t>$user-&gt;password=Hash::make(input::get('new_password'));</t>
-  </si>
-  <si>
-    <t>$user-&gt;save();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (Auth::attempt(array( 'email' =&gt; input::get('new_email'), </t>
-  </si>
-  <si>
-    <t>'password' =&gt; input::get('new_password') )))</t>
-  </si>
-  <si>
-    <t>{ return Redirect::to('success'); }</t>
-  </si>
-  <si>
-    <t>else { return View::make('user.login'); }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Return View::make('user.newuser')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -&gt;with('title','subscribe')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -&gt;with('message','User already exists');</t>
+    <t xml:space="preserve"> @section('sidebar')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @section('content')</t>
+  </si>
+  <si>
+    <t>from' =&gt; array('address' =&gt; 'no_reply@healmydisease.com', 'name' =&gt; 'Support'),</t>
+  </si>
+  <si>
+    <t>app/config/mail.php</t>
+  </si>
+  <si>
+    <t>'pretend' =&gt; true,</t>
+  </si>
+  <si>
+    <t>BE SURE TO SET FALSE WHEN WORKING ON REAL SERVER</t>
+  </si>
+  <si>
+    <t>host' =&gt; 'localhost',</t>
+  </si>
+  <si>
+    <t>resetkey</t>
+  </si>
+  <si>
+    <t>php artisan generate:migration create_users_table --fields="email:string,password:string,resetkey:string"</t>
+  </si>
+  <si>
+    <t>Since it was very traumatic, I will expose step by step mail function included in Laravel4</t>
+  </si>
+  <si>
+    <t>The first hard thing is to configurate email.php which is located at app/config/mail.php</t>
+  </si>
+  <si>
+    <t>'driver' =&gt; 'smtp',</t>
+  </si>
+  <si>
+    <t>'host' =&gt; 'whub32.webhostinghub.com',</t>
+  </si>
+  <si>
+    <t>'port' =&gt; 25,</t>
+  </si>
+  <si>
+    <t>'from' =&gt; array('address' =&gt; 'projectmanager@healmydisease.com', 'name' =&gt; 'Support'),</t>
+  </si>
+  <si>
+    <t>'encryption' =&gt; 'tls',</t>
+  </si>
+  <si>
+    <t>'username' =&gt; 'projectmanager@healmydisease.com',</t>
+  </si>
+  <si>
+    <t>'password' =&gt; 'laravel',</t>
+  </si>
+  <si>
+    <t>'sendmail' =&gt; '/usr/sbin/sendmail -bs',</t>
+  </si>
+  <si>
+    <t>'pretend' =&gt; false,</t>
+  </si>
+  <si>
+    <t>THE PREVIOUS PART IS MAYBE THE HARDEST COMPONENT OF LARAVEL MAIL.</t>
+  </si>
+  <si>
+    <t>The rest is relatively easy.</t>
+  </si>
+  <si>
+    <t>The previous code can be copy-pasted replacing all content of mail.php</t>
+  </si>
+  <si>
+    <t>Email syntax</t>
+  </si>
+  <si>
+    <t>Mail::send('view','data array','email recipient and subject closure');</t>
+  </si>
+  <si>
+    <t>View: works equal to View::make('xyz.abc') inside Views folder</t>
+  </si>
+  <si>
+    <t>$data (as data array): paired data array that can be called from email view as $variable</t>
+  </si>
+  <si>
+    <t>Email closure ($callback): closure that contains basic data, as recipient email, recipient</t>
+  </si>
+  <si>
+    <t>name and subject.</t>
+  </si>
+  <si>
+    <t>Mail::prepend();</t>
+  </si>
+  <si>
+    <t>Put this code above Mail::send to avoid sending from local host (and avoiding error messages).</t>
+  </si>
+  <si>
+    <t>On server comment this line.</t>
+  </si>
+  <si>
+    <t>When using "Mail::prepend" the log file generated at app/storage/logs (txt files)</t>
+  </si>
+  <si>
+    <t>informs each time a "send email" attempt is performed, with following syntax:</t>
+  </si>
+  <si>
+    <t>[2013-08-25 08:53:45] log.INFO: Pretending to mail message to: joaleto@yahoo.com [] []</t>
+  </si>
+  <si>
+    <t>Send email to an address entered to mail input field</t>
+  </si>
+  <si>
+    <t>As Input::get('field_x') can be stored in a $variable ($variable=Input::get('field'):</t>
+  </si>
+  <si>
+    <t>for unknown reasons it was not a good practice to send parameters with variable</t>
+  </si>
+  <si>
+    <t>instead of using the Input class itself.</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>//Mail::prepend()  /*uncomment on local, comment on hosted website*/</t>
+  </si>
+  <si>
+    <t>Template file: be aware that mail templates DO NOT LOAD EXTERNAL CSS FILES</t>
+  </si>
+  <si>
+    <t>Create a small &lt;style&gt;  …. &lt;/style&gt; segment inside the template in order to set</t>
+  </si>
+  <si>
+    <t>stylesheet.</t>
+  </si>
+  <si>
+    <t>Mail::send('templates.mail',array('User'=&gt;'Mr Someone'),function($message){</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Save email template as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>somefile.blade.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and in the correct location use </t>
+    </r>
+  </si>
+  <si>
+    <t>{{$User}} (or any other variable) corresponding to the data array key.  It is obvious</t>
+  </si>
+  <si>
+    <t>to mention that the displayed information will be the value, not the key array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $message-&gt;to(Input::get('email'),'Mr. Someone')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '-&gt;subject('Requesting your portfolio');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAT IS ALL.  MORE ATTRIBUTES CAN BE ADDED, SUCH AS CC AND CCO.  </t>
+  </si>
+  <si>
+    <t>Search at http://laravel.com/docs/mail for more information, as displayed instructions</t>
+  </si>
+  <si>
+    <t>on this spreadsheet are the basics for starting and resolving main needings.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1172,6 +1415,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1244,7 +1495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1273,6 +1524,9 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1317,6 +1571,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="685801"/>
+          <a:ext cx="6972300" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2210,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,7 +2588,7 @@
         <v>162</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -2296,7 +2598,7 @@
       </c>
       <c r="C14" s="23" t="str">
         <f>A1&amp;C13&amp;A2</f>
-        <v>composer create-project laravel/laravel csample --prefer-dist</v>
+        <v>composer create-project laravel/laravel esample --prefer-dist</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -2309,7 +2611,7 @@
       </c>
       <c r="C15" s="23" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd csample</v>
+        <v>cd esample</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -2352,12 +2654,12 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="25" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="13" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D23" s="22"/>
     </row>
@@ -2419,7 +2721,7 @@
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="25"/>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="28" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2469,7 +2771,7 @@
       </c>
       <c r="M41" s="16" t="str">
         <f>IF(SUM(J46:K55)&gt;0,B2&amp;P55&amp;Q55&amp;B3,"")</f>
-        <v>--fields="email:string,password:string"</v>
+        <v>--fields="email:string,password:string,resetkey:string"</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
@@ -2607,8 +2909,12 @@
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="C48" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="F48" s="10" t="s">
         <v>116</v>
       </c>
@@ -2616,7 +2922,7 @@
       <c r="H48" s="9"/>
       <c r="J48" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="16">
         <f t="shared" si="1"/>
@@ -2627,7 +2933,7 @@
       </c>
       <c r="N48" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,resetkey:string</v>
       </c>
       <c r="O48" s="16" t="str">
         <f t="shared" si="3"/>
@@ -2635,7 +2941,7 @@
       </c>
       <c r="P48" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string</v>
+        <v>email:string,password:string,resetkey:string</v>
       </c>
       <c r="Q48" s="16" t="str">
         <f t="shared" si="5"/>
@@ -2674,7 +2980,7 @@
       </c>
       <c r="P49" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string</v>
+        <v>email:string,password:string,resetkey:string</v>
       </c>
       <c r="Q49" s="16" t="str">
         <f t="shared" si="5"/>
@@ -2713,7 +3019,7 @@
       </c>
       <c r="P50" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string</v>
+        <v>email:string,password:string,resetkey:string</v>
       </c>
       <c r="Q50" s="16" t="str">
         <f t="shared" si="5"/>
@@ -2752,7 +3058,7 @@
       </c>
       <c r="P51" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string</v>
+        <v>email:string,password:string,resetkey:string</v>
       </c>
       <c r="Q51" s="16" t="str">
         <f t="shared" si="5"/>
@@ -2791,7 +3097,7 @@
       </c>
       <c r="P52" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string</v>
+        <v>email:string,password:string,resetkey:string</v>
       </c>
       <c r="Q52" s="16" t="str">
         <f t="shared" si="5"/>
@@ -2830,7 +3136,7 @@
       </c>
       <c r="P53" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string</v>
+        <v>email:string,password:string,resetkey:string</v>
       </c>
       <c r="Q53" s="16" t="str">
         <f t="shared" si="5"/>
@@ -2869,7 +3175,7 @@
       </c>
       <c r="P54" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string</v>
+        <v>email:string,password:string,resetkey:string</v>
       </c>
       <c r="Q54" s="16" t="str">
         <f t="shared" si="5"/>
@@ -2908,7 +3214,7 @@
       </c>
       <c r="P55" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string</v>
+        <v>email:string,password:string,resetkey:string</v>
       </c>
       <c r="Q55" s="16" t="str">
         <f t="shared" si="5"/>
@@ -2926,7 +3232,7 @@
       </c>
       <c r="C59" s="23" t="str">
         <f>A4&amp;A5&amp;A6&amp;D44&amp;B1&amp;M41</f>
-        <v>php artisan generate:migration create_users_table --fields="email:string,password:string"</v>
+        <v>php artisan generate:migration create_users_table --fields="email:string,password:string,resetkey:string"</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
@@ -2963,7 +3269,7 @@
         <v>149</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
@@ -2971,10 +3277,10 @@
         <v>150</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G65" s="22" t="str">
         <f>"app/views/"&amp;D66</f>
@@ -2990,7 +3296,7 @@
         <v>168</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G66" s="22" t="str">
         <f>D65&amp;".blade.php"</f>
@@ -3030,7 +3336,7 @@
         <v>160</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
@@ -3086,10 +3392,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I71"/>
+  <dimension ref="B3:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3097,63 +3403,63 @@
     <col min="1" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D9" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D11" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -3161,8 +3467,10 @@
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
         <v>127</v>
       </c>
@@ -3174,12 +3482,12 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
         <v>127</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -3188,7 +3496,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -3205,22 +3513,22 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="25" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="22" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="22" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -3230,254 +3538,415 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" s="22" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="22" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D28" s="22"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" s="22" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="22"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D43" s="22"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="22"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="22"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="22"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" s="22"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="22"/>
+      <c r="C71" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="22"/>
+      <c r="C72" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="22"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="22"/>
-      <c r="D34" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="22"/>
-      <c r="E36" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="22"/>
-      <c r="E37" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="22" t="s">
+      <c r="F78" s="30"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C79" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="22"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="22"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="22" t="s">
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C80" s="22"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C52" s="22"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="22"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="22" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="22" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="22" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="10" t="s">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="10" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="10" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C98" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C100" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C104" s="10" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3487,10 +3956,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D22"/>
+  <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3498,90 +3967,363 @@
     <col min="1" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>190</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/php code libraries/Laravel DRY v1.xlsx
+++ b/php code libraries/Laravel DRY v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="271">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -467,9 +467,6 @@
   </si>
   <si>
     <t>Database:</t>
-  </si>
-  <si>
-    <t>healmy5_something</t>
   </si>
   <si>
     <t>User:</t>
@@ -775,9 +772,6 @@
     <t>user</t>
   </si>
   <si>
-    <t>php artisan generate:controller UserController</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -882,27 +876,12 @@
     <t>same of table field names</t>
   </si>
   <si>
-    <t>3. Create"user" controller</t>
-  </si>
-  <si>
-    <t>public function create() {</t>
-  </si>
-  <si>
-    <t>public function login() {</t>
-  </si>
-  <si>
-    <t>6. Open routes and create as default "login" action.  Indeed the next codes have all needed routes</t>
-  </si>
-  <si>
     <t>Route::get('/','UserController@login');</t>
   </si>
   <si>
     <t>Route::get('subscribe','UserController@create');</t>
   </si>
   <si>
-    <t>public function success() {</t>
-  </si>
-  <si>
     <t>(delete default route)</t>
   </si>
   <si>
@@ -921,21 +900,6 @@
     <t>Route::get('adminuser',array('before'=&gt;'auth','uses'=&gt;'UserController@adminuser'));</t>
   </si>
   <si>
-    <t>… the user administration -adminuser- action</t>
-  </si>
-  <si>
-    <t>public function adminuser() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Return View::make('user.adminuser');</t>
-  </si>
-  <si>
-    <t>Basic login template</t>
-  </si>
-  <si>
-    <t>Copy - paste following folders as indicated</t>
-  </si>
-  <si>
     <t>folder 'user' inside 'app/views'</t>
   </si>
   <si>
@@ -945,129 +909,15 @@
     <t>"laravel/framework": "4.0.*",</t>
   </si>
   <si>
-    <t>4. Open UserController and edit create action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -&gt;with('title','subscribe');</t>
-  </si>
-  <si>
     <t>Route::post('subscribe','UserController@suscription');</t>
   </si>
   <si>
-    <t>…  the login action</t>
-  </si>
-  <si>
-    <t>…  add the suscription action</t>
-  </si>
-  <si>
-    <t>public function suscription() {</t>
-  </si>
-  <si>
-    <t>//find if user exists. Give option to reset password</t>
-  </si>
-  <si>
-    <t>$count = User::where('email', '=', Input::get('new_email'))-&gt;count();</t>
-  </si>
-  <si>
-    <t>if ($count==0) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Return View::make('user.newuser')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -&gt;with('title','subscribe')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -&gt;with('message','User already exists');</t>
-  </si>
-  <si>
-    <t>public function logout() {</t>
-  </si>
-  <si>
-    <t>… Add a "succesful login" -success- action</t>
-  </si>
-  <si>
-    <t>… Add a "logout" -success- action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Auth::logout();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return View::make('user.logout')</t>
-  </si>
-  <si>
     <t>Route::get('logout','UserController@logout');</t>
   </si>
   <si>
-    <t xml:space="preserve">   -&gt;with('title','logged out');</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Return View::make('user.success')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -&gt;with('title','test loggedin page');</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Return View::make('user.login')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -&gt;with('title','Log in');</t>
-  </si>
-  <si>
-    <t>… verify login action</t>
-  </si>
-  <si>
-    <t>public function verifyuser(){</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        { return Redirect::to('success'); }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      return View::make('user.login')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      -&gt;with('title','login')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      -&gt;with('message','Wrong email or password'); }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   else { </t>
-  </si>
-  <si>
-    <t>esample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    $user=new User;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    $user-&gt;email=input::get('new_email');</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    $user-&gt;password=Hash::make(input::get('new_password'));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    $user-&gt;save();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (Auth::attempt(array( 'email' =&gt; input::get('new_email'), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    else { return View::make('user.login'); }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        'password' =&gt; input::get('new_password') )))</t>
-  </si>
-  <si>
     <t>Route::post('login','UserController@verifyuser');</t>
   </si>
   <si>
-    <t xml:space="preserve">    if (Auth::attempt(array( 'email' =&gt; Input::get('email'), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        'password' =&gt; Input::get('password') )))</t>
-  </si>
-  <si>
     <t>Next error is usual when POST route action (such as sending form) is not found</t>
   </si>
   <si>
@@ -1077,18 +927,6 @@
     <t>Route::get('visible','UserController@visible');</t>
   </si>
   <si>
-    <t>…  add a 'any time visible' page, this is, regardless of logged in or out.</t>
-  </si>
-  <si>
-    <t>public function visible(){</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Return View::make('user.visible')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -&gt;with('title','Visible');</t>
-  </si>
-  <si>
     <t>@extends('templates.base')</t>
   </si>
   <si>
@@ -1099,21 +937,6 @@
   </si>
   <si>
     <t xml:space="preserve"> @section('content')</t>
-  </si>
-  <si>
-    <t>from' =&gt; array('address' =&gt; 'no_reply@healmydisease.com', 'name' =&gt; 'Support'),</t>
-  </si>
-  <si>
-    <t>app/config/mail.php</t>
-  </si>
-  <si>
-    <t>'pretend' =&gt; true,</t>
-  </si>
-  <si>
-    <t>BE SURE TO SET FALSE WHEN WORKING ON REAL SERVER</t>
-  </si>
-  <si>
-    <t>host' =&gt; 'localhost',</t>
   </si>
   <si>
     <t>resetkey</t>
@@ -1275,12 +1098,39 @@
   <si>
     <t>on this spreadsheet are the basics for starting and resolving main needings.</t>
   </si>
+  <si>
+    <t>healmy5_market2</t>
+  </si>
+  <si>
+    <t>Route::post('reset','UserController@reset');</t>
+  </si>
+  <si>
+    <t>Route::post('changepassword','UserController@changepassword');</t>
+  </si>
+  <si>
+    <t>Route::get('reset','UserController@newpwd');</t>
+  </si>
+  <si>
+    <t>fsample</t>
+  </si>
+  <si>
+    <t>CONFIG LARAVEL EMAIL AS MENTIONED IN NEXT SPREADSHEET</t>
+  </si>
+  <si>
+    <t>3. Copy / paste UserController.php file inside app/controllers</t>
+  </si>
+  <si>
+    <t>4. Open routes and create as default "login" action.  Indeed the next codes have all needed routes</t>
+  </si>
+  <si>
+    <t>5. Copy - paste following folders as indicated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1415,14 +1265,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1495,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1525,7 +1367,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2512,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,54 +2366,54 @@
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -2580,25 +2421,25 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="23" t="str">
         <f>A1&amp;C13&amp;A2</f>
-        <v>composer create-project laravel/laravel esample --prefer-dist</v>
+        <v>composer create-project laravel/laravel fsample --prefer-dist</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -2607,11 +2448,11 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="23" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd esample</v>
+        <v>cd fsample</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -2620,7 +2461,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>8</v>
@@ -2632,7 +2473,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>9</v>
@@ -2644,7 +2485,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -2654,12 +2495,12 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="25" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="13" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D23" s="22"/>
     </row>
@@ -2675,12 +2516,12 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>55</v>
@@ -2692,7 +2533,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -2736,38 +2577,38 @@
         <v>93</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="D39" s="9"/>
       <c r="F39" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="D40" s="9"/>
       <c r="F40" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="D41" s="9"/>
       <c r="F41" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M41" s="16" t="str">
         <f>IF(SUM(J46:K55)&gt;0,B2&amp;P55&amp;Q55&amp;B3,"")</f>
@@ -2776,15 +2617,15 @@
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F44" s="16" t="str">
         <f>LEFT(D44,LEN(D44)-1)</f>
@@ -2797,40 +2638,40 @@
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C45" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>125</v>
-      </c>
       <c r="G45" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>125</v>
-      </c>
       <c r="J45" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K45" s="16"/>
       <c r="M45" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -2843,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N46" s="16" t="str">
         <f>IF(AND(C46&lt;&gt;"",D46&lt;&gt;""),IF(N45="concatenator1","",",")&amp;C46&amp;":"&amp;D46,"")</f>
@@ -2864,16 +2705,16 @@
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -2886,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N47" s="16" t="str">
         <f t="shared" ref="N47:N55" si="2">IF(AND(C47&lt;&gt;"",D47&lt;&gt;""),IF(N46="concatenator1","",",")&amp;C47&amp;":"&amp;D47,"")</f>
@@ -2907,16 +2748,16 @@
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -2929,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N48" s="16" t="str">
         <f t="shared" si="2"/>
@@ -2950,12 +2791,12 @@
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="F49" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -2968,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N49" s="16" t="str">
         <f t="shared" si="2"/>
@@ -2989,12 +2830,12 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="F50" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -3007,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N50" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3028,12 +2869,12 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="F51" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -3046,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N51" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3067,12 +2908,12 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="F52" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -3085,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N52" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3106,12 +2947,12 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="F53" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -3124,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N53" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3145,12 +2986,12 @@
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="F54" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -3163,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N54" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3184,12 +3025,12 @@
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="F55" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -3202,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N55" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3223,12 +3064,12 @@
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C59" s="23" t="str">
         <f>A4&amp;A5&amp;A6&amp;D44&amp;B1&amp;M41</f>
@@ -3241,7 +3082,7 @@
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>84</v>
@@ -3253,7 +3094,7 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" s="23" t="str">
         <f>A4&amp;B4&amp;G44</f>
@@ -3266,21 +3107,21 @@
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D65" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="20" t="s">
         <v>186</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>188</v>
       </c>
       <c r="G65" s="22" t="str">
         <f>"app/views/"&amp;D66</f>
@@ -3290,13 +3131,13 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G66" s="22" t="str">
         <f>D65&amp;".blade.php"</f>
@@ -3305,13 +3146,13 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F67" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>157</v>
       </c>
       <c r="G67" s="16" t="str">
         <f>UPPER(LEFT(D67,1))&amp;RIGHT(D67,LEN(D67)-1)&amp;"Controller"</f>
@@ -3320,7 +3161,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="23" t="str">
         <f>A4&amp;B5&amp;G67</f>
@@ -3333,15 +3174,15 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C70" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D70" s="10" t="str">
         <f>" app/Controllers/"&amp;G67&amp;".php"</f>
@@ -3367,10 +3208,10 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
@@ -3392,74 +3233,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K104"/>
+  <dimension ref="B3:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="9" width="11.42578125" style="10"/>
+    <col min="10" max="10" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D9" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D11" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -3472,7 +3315,7 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>84</v>
@@ -3484,470 +3327,122 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="25"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C32" s="22"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D36" s="22"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="D43" s="22"/>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="22"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C55" s="22"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="D57" s="22"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="22" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C62" s="22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C65" s="22"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C69" s="22"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="22" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="22"/>
-      <c r="C71" s="22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="22"/>
-      <c r="C72" s="27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="22"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="F78" s="30"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="22"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="22" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C98" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C100" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C101" s="30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C103" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C104" s="10" t="s">
-        <v>273</v>
-      </c>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="29"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3958,8 +3453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3969,132 +3464,132 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="27" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="27" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="27" t="s">
-        <v>283</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="27" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="27" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="27" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
-        <v>295</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
-        <v>301</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -4105,92 +3600,92 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>303</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" s="10" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C38" s="25" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C39" s="22" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C40" s="22" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C41" s="27" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C42" s="22" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>313</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4213,85 +3708,85 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" s="27" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" s="25" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" s="25" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" s="22" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D19" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="22" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4314,12 +3809,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/php code libraries/Laravel DRY v1.xlsx
+++ b/php code libraries/Laravel DRY v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="267">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -876,12 +876,6 @@
     <t>same of table field names</t>
   </si>
   <si>
-    <t>Route::get('/','UserController@login');</t>
-  </si>
-  <si>
-    <t>Route::get('subscribe','UserController@create');</t>
-  </si>
-  <si>
     <t>(delete default route)</t>
   </si>
   <si>
@@ -891,15 +885,6 @@
     <t>php artisan generate:model User</t>
   </si>
   <si>
-    <t>Route::get('login','UserController@login');</t>
-  </si>
-  <si>
-    <t>Route::get('success',array('before'=&gt;'auth','uses'=&gt;'UserController@success'));</t>
-  </si>
-  <si>
-    <t>Route::get('adminuser',array('before'=&gt;'auth','uses'=&gt;'UserController@adminuser'));</t>
-  </si>
-  <si>
     <t>folder 'user' inside 'app/views'</t>
   </si>
   <si>
@@ -909,22 +894,10 @@
     <t>"laravel/framework": "4.0.*",</t>
   </si>
   <si>
-    <t>Route::post('subscribe','UserController@suscription');</t>
-  </si>
-  <si>
-    <t>Route::get('logout','UserController@logout');</t>
-  </si>
-  <si>
-    <t>Route::post('login','UserController@verifyuser');</t>
-  </si>
-  <si>
     <t>Next error is usual when POST route action (such as sending form) is not found</t>
   </si>
   <si>
     <t>Solution: check if route::post('sameRouteDescribedOnPostURI'… and its controller action are properly set</t>
-  </si>
-  <si>
-    <t>Route::get('visible','UserController@visible');</t>
   </si>
   <si>
     <t>@extends('templates.base')</t>
@@ -1099,38 +1072,53 @@
     <t>on this spreadsheet are the basics for starting and resolving main needings.</t>
   </si>
   <si>
-    <t>healmy5_market2</t>
-  </si>
-  <si>
-    <t>Route::post('reset','UserController@reset');</t>
-  </si>
-  <si>
-    <t>Route::post('changepassword','UserController@changepassword');</t>
-  </si>
-  <si>
-    <t>Route::get('reset','UserController@newpwd');</t>
-  </si>
-  <si>
     <t>fsample</t>
   </si>
   <si>
     <t>CONFIG LARAVEL EMAIL AS MENTIONED IN NEXT SPREADSHEET</t>
   </si>
   <si>
-    <t>3. Copy / paste UserController.php file inside app/controllers</t>
-  </si>
-  <si>
     <t>4. Open routes and create as default "login" action.  Indeed the next codes have all needed routes</t>
   </si>
   <si>
     <t>5. Copy - paste following folders as indicated</t>
+  </si>
+  <si>
+    <t>healmy5_tasks2</t>
+  </si>
+  <si>
+    <t>logged</t>
+  </si>
+  <si>
+    <t>3. Copy / paste  file inside app/controllers</t>
+  </si>
+  <si>
+    <t>UserController.php</t>
+  </si>
+  <si>
+    <t>LoggedController.php</t>
+  </si>
+  <si>
+    <t>Route::get('/',function() {</t>
+  </si>
+  <si>
+    <t>Route::controller('user','UserController');</t>
+  </si>
+  <si>
+    <t>Route::controller('logged','LoggedController');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return View::make('user.login')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -&gt;with('title','Wellcome');</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,6 +1253,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1337,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1368,6 +1363,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2353,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,7 +2425,7 @@
         <v>161</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -2495,12 +2491,12 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="25" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D23" s="22"/>
     </row>
@@ -2577,7 +2573,7 @@
         <v>93</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D39" s="9"/>
       <c r="F39" s="10" t="s">
@@ -2751,7 +2747,7 @@
         <v>105</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>134</v>
@@ -3149,14 +3145,14 @@
         <v>155</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="F67" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G67" s="16" t="str">
         <f>UPPER(LEFT(D67,1))&amp;RIGHT(D67,LEN(D67)-1)&amp;"Controller"</f>
-        <v>UserController</v>
+        <v>LoggedController</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -3165,7 +3161,7 @@
       </c>
       <c r="C68" s="23" t="str">
         <f>A4&amp;B5&amp;G67</f>
-        <v>php artisan generate:controller UserController</v>
+        <v>php artisan generate:controller LoggedController</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
@@ -3186,7 +3182,7 @@
       </c>
       <c r="D70" s="10" t="str">
         <f>" app/Controllers/"&amp;G67&amp;".php"</f>
-        <v xml:space="preserve"> app/Controllers/UserController.php</v>
+        <v xml:space="preserve"> app/Controllers/LoggedController.php</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -3217,7 +3213,7 @@
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D75" s="22" t="str">
         <f>"Route::get('"&amp;D65&amp;"','"&amp;G67&amp;"@"&amp;D69&amp;"');"</f>
-        <v>Route::get('newuser','UserController@newuser');</v>
+        <v>Route::get('newuser','LoggedController@newuser');</v>
       </c>
     </row>
   </sheetData>
@@ -3233,10 +3229,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K43"/>
+  <dimension ref="B3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,7 +3290,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -3302,7 +3298,7 @@
         <v>171</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -3330,119 +3326,100 @@
         <v>126</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="22" t="s">
-        <v>265</v>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="30" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>270</v>
+      <c r="C33" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="30" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="10" t="s">
-        <v>176</v>
-      </c>
+      <c r="B36" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="F40" s="29"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="29"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="29"/>
+      <c r="C37" s="29"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3464,132 +3441,132 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="27" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="27" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="27" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="27" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="27" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="27" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -3600,92 +3577,92 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" s="10" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C38" s="25" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C39" s="22" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C40" s="22" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C41" s="27" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C42" s="22" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3753,12 +3730,12 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" s="27" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" s="25" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>181</v>
@@ -3766,12 +3743,12 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" s="25" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" s="22" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -3781,7 +3758,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -3809,12 +3786,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/php code libraries/Laravel DRY v1.xlsx
+++ b/php code libraries/Laravel DRY v1.xlsx
@@ -14,11 +14,14 @@
   <sheets>
     <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="LaravelGenerate" sheetId="5" state="hidden" r:id="rId2"/>
-    <sheet name="AutoLaravel v1" sheetId="6" r:id="rId3"/>
-    <sheet name="laravelAuth v1" sheetId="7" r:id="rId4"/>
-    <sheet name="Laravel mail v1" sheetId="10" r:id="rId5"/>
-    <sheet name="HTML template v1" sheetId="8" r:id="rId6"/>
-    <sheet name="error ptscreen" sheetId="9" r:id="rId7"/>
+    <sheet name="FormGeneratorV1" sheetId="12" r:id="rId3"/>
+    <sheet name="AutoLaravel v1" sheetId="6" r:id="rId4"/>
+    <sheet name="laravelAuth v1" sheetId="7" r:id="rId5"/>
+    <sheet name="Laravel mail v1" sheetId="10" r:id="rId6"/>
+    <sheet name="HTML template v1" sheetId="8" r:id="rId7"/>
+    <sheet name="Controller generator" sheetId="11" r:id="rId8"/>
+    <sheet name="error ptscreen" sheetId="9" r:id="rId9"/>
+    <sheet name="table relations v1" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="393">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -912,9 +915,6 @@
     <t xml:space="preserve"> @section('content')</t>
   </si>
   <si>
-    <t>resetkey</t>
-  </si>
-  <si>
     <t>php artisan generate:migration create_users_table --fields="email:string,password:string,resetkey:string"</t>
   </si>
   <si>
@@ -1113,12 +1113,393 @@
   <si>
     <t xml:space="preserve">    -&gt;with('title','Wellcome');</t>
   </si>
+  <si>
+    <t>CONTROLLER - ROUTE GENERATOR VERSION 1</t>
+  </si>
+  <si>
+    <t>URI prefix</t>
+  </si>
+  <si>
+    <t>alejo</t>
+  </si>
+  <si>
+    <t>Controller name</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Route::('</t>
+  </si>
+  <si>
+    <t>','</t>
+  </si>
+  <si>
+    <t>');</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>Syntax</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>link_to</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>addtask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public function </t>
+  </si>
+  <si>
+    <t>() {}</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>LARAVEL FORM GENERATOR V1</t>
+  </si>
+  <si>
+    <t>Note: many cells are concatenated with "HTML template v1" spreadsheet that belongs to this Excel book</t>
+  </si>
+  <si>
+    <t>Syntax rules</t>
+  </si>
+  <si>
+    <t>1. In order to avoid id conflicts all id and names are prefixed with table name</t>
+  </si>
+  <si>
+    <t>2. All fields have an "error message" tag.</t>
+  </si>
+  <si>
+    <t>3. All error message tags have the same field id, appended with "_mssg"</t>
+  </si>
+  <si>
+    <t>Namefield</t>
+  </si>
+  <si>
+    <t>id=</t>
+  </si>
+  <si>
+    <t>mssg</t>
+  </si>
+  <si>
+    <t>AJAX form</t>
+  </si>
+  <si>
+    <t>.js</t>
+  </si>
+  <si>
+    <t>_mssg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var </t>
+  </si>
+  <si>
+    <t>$('#</t>
+  </si>
+  <si>
+    <t>=$('#</t>
+  </si>
+  <si>
+    <t>').val();</t>
+  </si>
+  <si>
+    <t>Button id</t>
+  </si>
+  <si>
+    <t>').click(function() {</t>
+  </si>
+  <si>
+    <t>p_owner</t>
+  </si>
+  <si>
+    <t>projects</t>
+  </si>
+  <si>
+    <t>var data={</t>
+  </si>
+  <si>
+    <t>AJAX object</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>var route='</t>
+  </si>
+  <si>
+    <t>';</t>
+  </si>
+  <si>
+    <t>$.post(route,data,function(result){     });</t>
+  </si>
+  <si>
+    <t>controller (no suffix)</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>newproject</t>
+  </si>
+  <si>
+    <t>add_new_project</t>
+  </si>
+  <si>
+    <t>new_prj_name</t>
+  </si>
+  <si>
+    <t>new_prj_goal</t>
+  </si>
+  <si>
+    <t>project_score</t>
+  </si>
+  <si>
+    <t>TABLE RELATIONS METHODS V1</t>
+  </si>
+  <si>
+    <t>Table relations are indeed very sensible to mistakes.</t>
+  </si>
+  <si>
+    <t>This sheet contains some automated code generators that have been tested</t>
+  </si>
+  <si>
+    <t>without returning an error.</t>
+  </si>
+  <si>
+    <t>Email active user can be retrieved with Auth class</t>
+  </si>
+  <si>
+    <t>$user=Auth::user()-&gt;email;</t>
+  </si>
+  <si>
+    <t>Table that associates data with user email</t>
+  </si>
+  <si>
+    <t>Field tha contains email</t>
+  </si>
+  <si>
+    <t>$id=</t>
+  </si>
+  <si>
+    <t>::where('</t>
+  </si>
+  <si>
+    <t>','=',$user)-&gt;get(['id']);</t>
+  </si>
+  <si>
+    <t>foreach ($id as $value) {</t>
+  </si>
+  <si>
+    <t>::find($id);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //retrieve any element as object $var-&gt;age</t>
+  </si>
+  <si>
+    <t>SOMETIMES AJAX DOES NOT WORK WELL INSIDE LARAVEL</t>
+  </si>
+  <si>
+    <t>IF, CHECKING RIGHT SYNTAX, AJAX DOES NOT WORK, USE {{form::open}}</t>
+  </si>
+  <si>
+    <t>WARNING: FOR UNKNOWN REASONS AT THE DATE I WROTE THIS CODE</t>
+  </si>
+  <si>
+    <t>METHOD (30 august 2013)</t>
+  </si>
+  <si>
+    <t>{{link_to('</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>'}}</t>
+  </si>
+  <si>
+    <t>INFO: ONE OF THE EASIEST WAY OF MANIPULATING LARAVEL ORM MODELS</t>
+  </si>
+  <si>
+    <t>IS WITH "Model::find($id)". TRY TO USE IT AS STANDARD METHOD.</t>
+  </si>
+  <si>
+    <t>1. Method for retrieving some table with email filtering and WITHOUT TABLE RELATIONSHIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method for retrieving information when user belongs to </t>
+  </si>
+  <si>
+    <t>main table of allowance table</t>
+  </si>
+  <si>
+    <t>Main (displayable) table:</t>
+  </si>
+  <si>
+    <t>Allowance table</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>projectpermissions</t>
+  </si>
+  <si>
+    <t>Relational id</t>
+  </si>
+  <si>
+    <t>THIS IS A MUST AS IS A LARAVEL STANDARD</t>
+  </si>
+  <si>
+    <t>=Project::all();</t>
+  </si>
+  <si>
+    <t>foreach (</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> as $value){</t>
+  </si>
+  <si>
+    <t>::find($value-&gt;id);</t>
+  </si>
+  <si>
+    <t>Field with user email</t>
+  </si>
+  <si>
+    <t>$owner=$value-&gt;</t>
+  </si>
+  <si>
+    <t>TABLE RELATIONS</t>
+  </si>
+  <si>
+    <t>Required model configurations</t>
+  </si>
+  <si>
+    <t>Open models and stablish relations</t>
+  </si>
+  <si>
+    <t>1. Check that allowance table has this field</t>
+  </si>
+  <si>
+    <t>2. Open main table model and set relation type "has many"</t>
+  </si>
+  <si>
+    <t>//app/models/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> () {</t>
+  </si>
+  <si>
+    <t>return $this-&gt;hasMany('</t>
+  </si>
+  <si>
+    <t>3. Open allowance table model and set "belongsTo" relation type</t>
+  </si>
+  <si>
+    <t>return $this-&gt;belongsTo('</t>
+  </si>
+  <si>
+    <t>//Nothing new here</t>
+  </si>
+  <si>
+    <t>//Just retrieving all data from table</t>
+  </si>
+  <si>
+    <t>//Iteration all over table data</t>
+  </si>
+  <si>
+    <t>//selection of primary id (remember that is an iteration)</t>
+  </si>
+  <si>
+    <t>//selection of email field</t>
+  </si>
+  <si>
+    <t>//selection of extended relation 'has many'</t>
+  </si>
+  <si>
+    <t>&lt;?php</t>
+  </si>
+  <si>
+    <t>THE TRICK IS HERE INDEED (CODE IS STILL INSIDE ITERATION LOOP)</t>
+  </si>
+  <si>
+    <t>This code does not work inside controller as it contains an iteration</t>
+  </si>
+  <si>
+    <t>with html code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ?&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     @if(isset($allowed[0]))</t>
+  </si>
+  <si>
+    <t>Allowance email field</t>
+  </si>
+  <si>
+    <t>@if($allowed[0]['</t>
+  </si>
+  <si>
+    <t>']==$user)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          COPY ALL HTML CODE HERE, DIVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          RETRIEVE DESIRED TABLE DATA WITH</t>
+  </si>
+  <si>
+    <t>$row=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {{$row-&gt;field_1}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {{$row-&gt;field_n}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {{$row-&gt;field_2}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          @endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     @elseif ($user==$owner)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     @endif</t>
+  </si>
+  <si>
+    <t>$allowed=$row-&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?php }  ?&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,8 +1641,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1304,8 +1715,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1328,11 +1757,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1364,6 +1946,31 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,8 +2002,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF3B0731"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF3B0731"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2057,6 +2664,546 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="16" t="str">
+        <f>UPPER(LEFT(B19,1))&amp;RIGHT(B19,LEN(B19)-1)</f>
+        <v>Projects</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="50" t="str">
+        <f>A1&amp;D192&amp;A2&amp;B21&amp;A3</f>
+        <v>$id=::where('p_owner','=',$user)-&gt;get(['id']);</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="50" t="str">
+        <f>"$"&amp;LEFT(B19,LEN(B19)-1)&amp;"="&amp;LEFT(D19,LEN(D19)-1)&amp;A4</f>
+        <v>$project=Project::find($id);</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="16" t="str">
+        <f>LEFT(D34,LEN(D34)-1)</f>
+        <v>project</v>
+      </c>
+      <c r="G34" s="16" t="str">
+        <f>UPPER(LEFT(F34,1))&amp;RIGHT(F34,LEN(F34)-1)</f>
+        <v>Project</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="16" t="str">
+        <f>LEFT(D36,LEN(D36)-1)</f>
+        <v>projectpermission</v>
+      </c>
+      <c r="G36" s="16" t="str">
+        <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
+        <v>Projectpermission</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D42" s="22" t="str">
+        <f>F34&amp;"_id"</f>
+        <v>project_id</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="55" t="str">
+        <f>C2&amp;G34&amp;".php"</f>
+        <v>//app/models/Project.php</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D46" s="22" t="str">
+        <f>C3&amp;F36&amp;C4</f>
+        <v>public function projectpermission () {</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D47" s="22" t="str">
+        <f>C5&amp;G36&amp;"');"</f>
+        <v>return $this-&gt;hasMany('Projectpermission');</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D48" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="55" t="str">
+        <f>C2&amp;G36&amp;".php"</f>
+        <v>//app/models/Projectpermission.php</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="22" t="str">
+        <f>C3&amp;F34&amp;C4</f>
+        <v>public function project () {</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="22" t="str">
+        <f>D1&amp;G34&amp;"');"</f>
+        <v>return $this-&gt;belongsTo('Project');</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D60" s="22" t="str">
+        <f>"$"&amp;F34&amp;A5</f>
+        <v>$project=Project::all();</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="22" t="str">
+        <f>B1&amp;"$"&amp;F34&amp;B2</f>
+        <v>foreach ($project as $value){</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="22" t="str">
+        <f>"     "&amp;B3&amp;G34&amp;B4</f>
+        <v xml:space="preserve">     $row=Project::find($value-&gt;id);</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="22" t="str">
+        <f>"     "&amp;B5&amp;D35&amp;";"</f>
+        <v xml:space="preserve">     $owner=$value-&gt;p_owner;</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="22" t="str">
+        <f>"     "&amp;C1&amp;F36&amp;";"</f>
+        <v xml:space="preserve">     $allowed=$row-&gt;projectpermission;</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="22" t="str">
+        <f>"          "&amp;D2&amp;D37&amp;D3</f>
+        <v xml:space="preserve">          @if($allowed[0]['email']==$user)</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="22" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I49"/>
@@ -2347,10 +3494,804 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="19"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="str">
+        <f>IF('AutoLaravel v1'!C46&lt;&gt;"",'AutoLaravel v1'!C46,"")</f>
+        <v>new_prj_name</v>
+      </c>
+      <c r="C17" s="35" t="str">
+        <f>IF(B17="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B17)</f>
+        <v>projects_new_prj_name</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35" t="str">
+        <f>IF(B17="","",C17&amp;$A$1)</f>
+        <v>projects_new_prj_name_mssg</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="H17" s="34" t="str">
+        <f>IF('AutoLaravel v1'!G46&lt;&gt;"",'AutoLaravel v1'!G46,"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="35" t="str">
+        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H17</f>
+        <v>projects_</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35" t="str">
+        <f t="shared" ref="K17:K26" si="0">I17&amp;$A$1</f>
+        <v>projects__mssg</v>
+      </c>
+      <c r="L17" s="36"/>
+      <c r="N17" s="42" t="str">
+        <f>B17</f>
+        <v>new_prj_name</v>
+      </c>
+      <c r="O17" s="43" t="str">
+        <f>IF(H17&lt;&gt;"",",","")&amp;H17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="str">
+        <f>IF('AutoLaravel v1'!C47&lt;&gt;"",'AutoLaravel v1'!C47,"")</f>
+        <v>new_prj_goal</v>
+      </c>
+      <c r="C18" s="33" t="str">
+        <f>IF(B18="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B18)</f>
+        <v>projects_new_prj_goal</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33" t="str">
+        <f t="shared" ref="E18:E26" si="1">IF(B18="","",C18&amp;$A$1)</f>
+        <v>projects_new_prj_goal_mssg</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="H18" s="37" t="str">
+        <f>IF('AutoLaravel v1'!G47&lt;&gt;"",'AutoLaravel v1'!G47,"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="33" t="str">
+        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H18</f>
+        <v>projects_</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>projects__mssg</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="N18" s="44" t="str">
+        <f>IF(B18&lt;&gt;"",",","")&amp;B18</f>
+        <v>,new_prj_goal</v>
+      </c>
+      <c r="O18" s="45" t="str">
+        <f t="shared" ref="O18:O26" si="2">IF(H18&lt;&gt;"",",","")&amp;H18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="37" t="str">
+        <f>IF('AutoLaravel v1'!C48&lt;&gt;"",'AutoLaravel v1'!C48,"")</f>
+        <v>project_score</v>
+      </c>
+      <c r="C19" s="33" t="str">
+        <f>IF(B19="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B19)</f>
+        <v>projects_project_score</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>projects_project_score_mssg</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="H19" s="37" t="str">
+        <f>IF('AutoLaravel v1'!G48&lt;&gt;"",'AutoLaravel v1'!G48,"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="33" t="str">
+        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H19</f>
+        <v>projects_</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>projects__mssg</v>
+      </c>
+      <c r="L19" s="38"/>
+      <c r="N19" s="44" t="str">
+        <f t="shared" ref="N19:N26" si="3">IF(B19&lt;&gt;"",",","")&amp;B19</f>
+        <v>,project_score</v>
+      </c>
+      <c r="O19" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="str">
+        <f>IF('AutoLaravel v1'!C49&lt;&gt;"",'AutoLaravel v1'!C49,"")</f>
+        <v/>
+      </c>
+      <c r="C20" s="33" t="str">
+        <f>IF(B20="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B20)</f>
+        <v/>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="H20" s="37" t="str">
+        <f>IF('AutoLaravel v1'!G49&lt;&gt;"",'AutoLaravel v1'!G49,"")</f>
+        <v/>
+      </c>
+      <c r="I20" s="33" t="str">
+        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H20</f>
+        <v>projects_</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>projects__mssg</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="N20" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O20" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="str">
+        <f>IF('AutoLaravel v1'!C50&lt;&gt;"",'AutoLaravel v1'!C50,"")</f>
+        <v/>
+      </c>
+      <c r="C21" s="33" t="str">
+        <f>IF(B21="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B21)</f>
+        <v/>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="H21" s="37" t="str">
+        <f>IF('AutoLaravel v1'!G50&lt;&gt;"",'AutoLaravel v1'!G50,"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="33" t="str">
+        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H21</f>
+        <v>projects_</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>projects__mssg</v>
+      </c>
+      <c r="L21" s="38"/>
+      <c r="N21" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O21" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="37" t="str">
+        <f>IF('AutoLaravel v1'!C51&lt;&gt;"",'AutoLaravel v1'!C51,"")</f>
+        <v/>
+      </c>
+      <c r="C22" s="33" t="str">
+        <f>IF(B22="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B22)</f>
+        <v/>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="H22" s="37" t="str">
+        <f>IF('AutoLaravel v1'!G51&lt;&gt;"",'AutoLaravel v1'!G51,"")</f>
+        <v/>
+      </c>
+      <c r="I22" s="33" t="str">
+        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H22</f>
+        <v>projects_</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>projects__mssg</v>
+      </c>
+      <c r="L22" s="38"/>
+      <c r="N22" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O22" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="37" t="str">
+        <f>IF('AutoLaravel v1'!C52&lt;&gt;"",'AutoLaravel v1'!C52,"")</f>
+        <v/>
+      </c>
+      <c r="C23" s="33" t="str">
+        <f>IF(B23="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B23)</f>
+        <v/>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="H23" s="37" t="str">
+        <f>IF('AutoLaravel v1'!G52&lt;&gt;"",'AutoLaravel v1'!G52,"")</f>
+        <v/>
+      </c>
+      <c r="I23" s="33" t="str">
+        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H23</f>
+        <v>projects_</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>projects__mssg</v>
+      </c>
+      <c r="L23" s="38"/>
+      <c r="N23" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O23" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="37" t="str">
+        <f>IF('AutoLaravel v1'!C53&lt;&gt;"",'AutoLaravel v1'!C53,"")</f>
+        <v/>
+      </c>
+      <c r="C24" s="33" t="str">
+        <f>IF(B24="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B24)</f>
+        <v/>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="H24" s="37" t="str">
+        <f>IF('AutoLaravel v1'!G53&lt;&gt;"",'AutoLaravel v1'!G53,"")</f>
+        <v/>
+      </c>
+      <c r="I24" s="33" t="str">
+        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H24</f>
+        <v>projects_</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>projects__mssg</v>
+      </c>
+      <c r="L24" s="38"/>
+      <c r="N24" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O24" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="37" t="str">
+        <f>IF('AutoLaravel v1'!C54&lt;&gt;"",'AutoLaravel v1'!C54,"")</f>
+        <v/>
+      </c>
+      <c r="C25" s="33" t="str">
+        <f>IF(B25="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B25)</f>
+        <v/>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="H25" s="37" t="str">
+        <f>IF('AutoLaravel v1'!G54&lt;&gt;"",'AutoLaravel v1'!G54,"")</f>
+        <v/>
+      </c>
+      <c r="I25" s="33" t="str">
+        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H25</f>
+        <v>projects_</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>projects__mssg</v>
+      </c>
+      <c r="L25" s="38"/>
+      <c r="N25" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O25" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="39" t="str">
+        <f>IF('AutoLaravel v1'!C55&lt;&gt;"",'AutoLaravel v1'!C55,"")</f>
+        <v/>
+      </c>
+      <c r="C26" s="40" t="str">
+        <f>IF(B26="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B26)</f>
+        <v/>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="H26" s="39" t="str">
+        <f>IF('AutoLaravel v1'!G55&lt;&gt;"",'AutoLaravel v1'!G55,"")</f>
+        <v/>
+      </c>
+      <c r="I26" s="40" t="str">
+        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H26</f>
+        <v>projects_</v>
+      </c>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>projects__mssg</v>
+      </c>
+      <c r="L26" s="41"/>
+      <c r="N26" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O26" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E35" s="16" t="str">
+        <f>UPPER(LEFT(D35,1))&amp;RIGHT(D35,LEN(D35)-1)</f>
+        <v>Newproject</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E36" s="16" t="str">
+        <f>UPPER(LEFT(D36,1))&amp;RIGHT(D36,LEN(D36)-1)</f>
+        <v>Logged</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="32" t="str">
+        <f>D36&amp;"/"&amp;D35</f>
+        <v>logged/newproject</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="str">
+        <f>$A$5&amp;D37&amp;A6</f>
+        <v>$('#add_new_project').click(function() {</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="32" t="str">
+        <f>IF(B17="","",$A$2&amp;B17&amp;$A$3&amp;B17&amp;$A$4)&amp;IF(B18="","",$A$2&amp;B18&amp;$A$3&amp;B18&amp;$A$4)</f>
+        <v>var new_prj_name=$('#new_prj_name').val();var new_prj_goal=$('#new_prj_goal').val();</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="32" t="str">
+        <f>IF(B19="","",$A$2&amp;B19&amp;$A$3&amp;B19&amp;$A$4)&amp;IF(B20="","",$A$2&amp;B20&amp;$A$3&amp;B20&amp;$A$4)</f>
+        <v>var project_score=$('#project_score').val();</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="32" t="str">
+        <f>IF(B21="","",$A$2&amp;B21&amp;$A$3&amp;B21&amp;$A$4)&amp;IF(B22="","",$A$2&amp;B22&amp;$A$3&amp;B22&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="32" t="str">
+        <f>IF(B23="","",$A$2&amp;B23&amp;$A$3&amp;B23&amp;$A$4)&amp;IF(B24="","",$A$2&amp;B24&amp;$A$3&amp;B24&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="32" t="str">
+        <f>IF(B25="","",$A$2&amp;B25&amp;$A$3&amp;B25&amp;$A$4)&amp;IF(B26="","",$A$2&amp;B26&amp;$A$3&amp;B26&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="str">
+        <f>IF(H17="","",$A$2&amp;H17&amp;$A$3&amp;H17&amp;$A$4)&amp;IF(H18="","",$A$2&amp;H18&amp;$A$3&amp;H18&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="str">
+        <f>IF(H19="","",$A$2&amp;H19&amp;$A$3&amp;H19&amp;$A$4)&amp;IF(H20="","",$A$2&amp;H20&amp;$A$3&amp;H20&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="23" t="str">
+        <f>IF(H21="","",$A$2&amp;H21&amp;$A$3&amp;H21&amp;$A$4)&amp;IF(H22="","",$A$2&amp;H22&amp;$A$3&amp;H22&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="23" t="str">
+        <f>IF(H23="","",$A$2&amp;H23&amp;$A$3&amp;H23&amp;$A$4)&amp;IF(H24="","",$A$2&amp;H24&amp;$A$3&amp;H24&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="23" t="str">
+        <f>IF(H25="","",$A$2&amp;H25&amp;$A$3&amp;H25&amp;$A$4)&amp;IF(H26="","",$A$2&amp;H26&amp;$A$3&amp;H26&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="23" t="str">
+        <f>N17&amp;IF(B17&lt;&gt;"",":","")&amp;B17&amp;N18&amp;IF(B18&lt;&gt;"",":","")&amp;B18&amp;N19&amp;IF(B19&lt;&gt;"",":","")&amp;B19&amp;N20&amp;IF(B20&lt;&gt;"",":","")&amp;B20</f>
+        <v>new_prj_name:new_prj_name,new_prj_goal:new_prj_goal,project_score:project_score</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="23" t="str">
+        <f>N21&amp;IF(B21&lt;&gt;"",":","")&amp;B21&amp;N22&amp;IF(B22&lt;&gt;"",":","")&amp;B22&amp;N23&amp;IF(B23&lt;&gt;"",":","")&amp;B23&amp;N24&amp;IF(B24&lt;&gt;"",":","")&amp;B24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="23" t="str">
+        <f t="shared" ref="B54" si="4">N25&amp;IF(B25&lt;&gt;"",":","")&amp;B25&amp;N26&amp;IF(B26&lt;&gt;"",":","")&amp;B26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="32" t="str">
+        <f>O17&amp;IF(H17&lt;&gt;"",":","")&amp;H17&amp;O18&amp;IF(H18&lt;&gt;"",":","")&amp;H18&amp;O19&amp;IF(H19&lt;&gt;"",":","")&amp;H19&amp;O20&amp;IF(H20&lt;&gt;"",":","")&amp;H20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="32" t="str">
+        <f>O21&amp;IF(H21&lt;&gt;"",":","")&amp;H21&amp;O22&amp;IF(H22&lt;&gt;"",":","")&amp;H22&amp;O23&amp;IF(H23&lt;&gt;"",":","")&amp;H23&amp;O24&amp;IF(H24&lt;&gt;"",":","")&amp;H24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="32" t="str">
+        <f t="shared" ref="B57" si="5">O25&amp;IF(H25&lt;&gt;"",":","")&amp;H25&amp;O26&amp;IF(H26&lt;&gt;"",":","")&amp;H26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="str">
+        <f>B1&amp;D38&amp;B2</f>
+        <v>var route='logged/newproject';</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="32" t="str">
+        <f>E36&amp;"Controller"</f>
+        <v>LoggedController</v>
+      </c>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D65" s="32" t="str">
+        <f>"public function post"&amp;E35&amp;"() {}"</f>
+        <v>public function postNewproject() {}</v>
+      </c>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="str">
+        <f>"$"&amp;B17&amp;"=Input::get('"&amp;B17&amp;"');"</f>
+        <v>$new_prj_name=Input::get('new_prj_name');</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="str">
+        <f t="shared" ref="B67:B68" si="6">"$"&amp;B18&amp;"=Input::get('"&amp;B18&amp;"');"</f>
+        <v>$new_prj_goal=Input::get('new_prj_goal');</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>$project_score=Input::get('project_score');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,7 +4366,7 @@
         <v>161</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -2573,7 +4514,7 @@
         <v>93</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D39" s="9"/>
       <c r="F39" s="10" t="s">
@@ -2608,7 +4549,7 @@
       </c>
       <c r="M41" s="16" t="str">
         <f>IF(SUM(J46:K55)&gt;0,B2&amp;P55&amp;Q55&amp;B3,"")</f>
-        <v>--fields="email:string,password:string,resetkey:string"</v>
+        <v>--fields="new_prj_name:string,new_prj_goal:string"</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
@@ -2621,15 +4562,15 @@
         <v>102</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>170</v>
+        <v>304</v>
       </c>
       <c r="F44" s="16" t="str">
         <f>LEFT(D44,LEN(D44)-1)</f>
-        <v>user</v>
+        <v>project</v>
       </c>
       <c r="G44" s="16" t="str">
         <f>UPPER(LEFT(F44,1))&amp;RIGHT(F44,LEN(F44)-1)</f>
-        <v>User</v>
+        <v>Project</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
@@ -2661,7 +4602,7 @@
         <v>103</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>134</v>
@@ -2684,7 +4625,7 @@
       </c>
       <c r="N46" s="16" t="str">
         <f>IF(AND(C46&lt;&gt;"",D46&lt;&gt;""),IF(N45="concatenator1","",",")&amp;C46&amp;":"&amp;D46,"")</f>
-        <v>email:string</v>
+        <v>new_prj_name:string</v>
       </c>
       <c r="O46" s="16" t="str">
         <f>IF(AND(G46&lt;&gt;"",H46&lt;&gt;""),","&amp;G46&amp;":"&amp;H46,"")</f>
@@ -2692,7 +4633,7 @@
       </c>
       <c r="P46" s="16" t="str">
         <f>P45&amp;N46</f>
-        <v>email:string</v>
+        <v>new_prj_name:string</v>
       </c>
       <c r="Q46" s="16" t="str">
         <f>Q45&amp;O46</f>
@@ -2704,7 +4645,7 @@
         <v>104</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>169</v>
+        <v>316</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>134</v>
@@ -2727,7 +4668,7 @@
       </c>
       <c r="N47" s="16" t="str">
         <f t="shared" ref="N47:N55" si="2">IF(AND(C47&lt;&gt;"",D47&lt;&gt;""),IF(N46="concatenator1","",",")&amp;C47&amp;":"&amp;D47,"")</f>
-        <v>,password:string</v>
+        <v>,new_prj_goal:string</v>
       </c>
       <c r="O47" s="16" t="str">
         <f t="shared" ref="O47:O55" si="3">IF(AND(G47&lt;&gt;"",H47&lt;&gt;""),","&amp;G47&amp;":"&amp;H47,"")</f>
@@ -2735,7 +4676,7 @@
       </c>
       <c r="P47" s="16" t="str">
         <f t="shared" ref="P47:P55" si="4">P46&amp;N47</f>
-        <v>email:string,password:string</v>
+        <v>new_prj_name:string,new_prj_goal:string</v>
       </c>
       <c r="Q47" s="16" t="str">
         <f t="shared" ref="Q47:Q55" si="5">Q46&amp;O47</f>
@@ -2747,11 +4688,9 @@
         <v>105</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>134</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D48" s="9"/>
       <c r="F48" s="10" t="s">
         <v>115</v>
       </c>
@@ -2770,7 +4709,7 @@
       </c>
       <c r="N48" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>,resetkey:string</v>
+        <v/>
       </c>
       <c r="O48" s="16" t="str">
         <f t="shared" si="3"/>
@@ -2778,7 +4717,7 @@
       </c>
       <c r="P48" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string,resetkey:string</v>
+        <v>new_prj_name:string,new_prj_goal:string</v>
       </c>
       <c r="Q48" s="16" t="str">
         <f t="shared" si="5"/>
@@ -2817,7 +4756,7 @@
       </c>
       <c r="P49" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string,resetkey:string</v>
+        <v>new_prj_name:string,new_prj_goal:string</v>
       </c>
       <c r="Q49" s="16" t="str">
         <f t="shared" si="5"/>
@@ -2856,7 +4795,7 @@
       </c>
       <c r="P50" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string,resetkey:string</v>
+        <v>new_prj_name:string,new_prj_goal:string</v>
       </c>
       <c r="Q50" s="16" t="str">
         <f t="shared" si="5"/>
@@ -2895,7 +4834,7 @@
       </c>
       <c r="P51" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string,resetkey:string</v>
+        <v>new_prj_name:string,new_prj_goal:string</v>
       </c>
       <c r="Q51" s="16" t="str">
         <f t="shared" si="5"/>
@@ -2934,7 +4873,7 @@
       </c>
       <c r="P52" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string,resetkey:string</v>
+        <v>new_prj_name:string,new_prj_goal:string</v>
       </c>
       <c r="Q52" s="16" t="str">
         <f t="shared" si="5"/>
@@ -2973,7 +4912,7 @@
       </c>
       <c r="P53" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string,resetkey:string</v>
+        <v>new_prj_name:string,new_prj_goal:string</v>
       </c>
       <c r="Q53" s="16" t="str">
         <f t="shared" si="5"/>
@@ -3012,7 +4951,7 @@
       </c>
       <c r="P54" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string,resetkey:string</v>
+        <v>new_prj_name:string,new_prj_goal:string</v>
       </c>
       <c r="Q54" s="16" t="str">
         <f t="shared" si="5"/>
@@ -3051,7 +4990,7 @@
       </c>
       <c r="P55" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>email:string,password:string,resetkey:string</v>
+        <v>new_prj_name:string,new_prj_goal:string</v>
       </c>
       <c r="Q55" s="16" t="str">
         <f t="shared" si="5"/>
@@ -3069,7 +5008,7 @@
       </c>
       <c r="C59" s="23" t="str">
         <f>A4&amp;A5&amp;A6&amp;D44&amp;B1&amp;M41</f>
-        <v>php artisan generate:migration create_users_table --fields="email:string,password:string,resetkey:string"</v>
+        <v>php artisan generate:migration create_projects_table --fields="new_prj_name:string,new_prj_goal:string"</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
@@ -3094,7 +5033,7 @@
       </c>
       <c r="C61" s="23" t="str">
         <f>A4&amp;B4&amp;G44</f>
-        <v>php artisan generate:model User</v>
+        <v>php artisan generate:model Project</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
@@ -3145,7 +5084,7 @@
         <v>155</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F67" s="24" t="s">
         <v>156</v>
@@ -3227,13 +5166,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3298,7 +5235,7 @@
         <v>171</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -3335,53 +5272,53 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D23" s="22"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -3391,7 +5328,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -3411,7 +5348,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -3426,13 +5363,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3441,132 +5376,132 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -3577,92 +5512,92 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C38" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C39" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C40" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C41" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C42" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3670,12 +5605,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C15" sqref="C15:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3771,7 +5706,148 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11.42578125" style="10"/>
+    <col min="4" max="4" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="22" t="str">
+        <f>A1&amp;D7&amp;A2&amp;D9&amp;A3</f>
+        <v>Route::('alejo','alex');</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="22" t="str">
+        <f>$B$1&amp;B15&amp;UPPER(LEFT(C15,1))&amp;RIGHT(C15,LEN(C15)-1)&amp;$B$2</f>
+        <v>public function getAddtask() {}</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f>$D$7&amp;"/"&amp;C15</f>
+        <v>alejo/addtask</v>
+      </c>
+      <c r="I15" s="22" t="str">
+        <f>$B$3&amp;G15&amp;$C$1&amp;C15&amp;$C$2</f>
+        <v>{{link_to('alejo/addtask','addtask'}}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="22" t="str">
+        <f>$B$1&amp;B16&amp;UPPER(LEFT(C16,1))&amp;RIGHT(C16,LEN(C16)-1)&amp;$B$2</f>
+        <v>public function postAddtask() {}</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f>$D$7&amp;"/"&amp;C16</f>
+        <v>alejo/addtask</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A15"/>
   <sheetViews>

--- a/php code libraries/Laravel DRY v1.xlsx
+++ b/php code libraries/Laravel DRY v1.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="LaravelGenerate" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="LaravelGenerate" sheetId="5" r:id="rId2"/>
     <sheet name="FormGeneratorV1" sheetId="12" r:id="rId3"/>
     <sheet name="AutoLaravel v1" sheetId="6" r:id="rId4"/>
     <sheet name="laravelAuth v1" sheetId="7" r:id="rId5"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="400">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -1255,21 +1255,6 @@
     <t>Action</t>
   </si>
   <si>
-    <t>newproject</t>
-  </si>
-  <si>
-    <t>add_new_project</t>
-  </si>
-  <si>
-    <t>new_prj_name</t>
-  </si>
-  <si>
-    <t>new_prj_goal</t>
-  </si>
-  <si>
-    <t>project_score</t>
-  </si>
-  <si>
     <t>TABLE RELATIONS METHODS V1</t>
   </si>
   <si>
@@ -1493,6 +1478,42 @@
   </si>
   <si>
     <t>&lt;?php }  ?&gt;</t>
+  </si>
+  <si>
+    <t>submit_task</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>4. Add column to table</t>
+  </si>
+  <si>
+    <t>ADDING COLUMNS TO TABLES</t>
+  </si>
+  <si>
+    <t>column name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>thetasks</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>php artisan generate:migration add_project_id_to_table_thetasks --fields="project_id:integer"</t>
+  </si>
+  <si>
+    <t>PENDING TO AUTOMATE WITH EXCEL CONCATENATIONS</t>
   </si>
 </sst>
 </file>
@@ -2669,7 +2690,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:XFD5"/>
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,91 +2700,91 @@
   <sheetData>
     <row r="1" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>282</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>355</v>
-      </c>
       <c r="C5" s="48" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -2773,7 +2794,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="54" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -2783,17 +2804,17 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -2808,7 +2829,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -2819,7 +2840,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="50" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -2836,7 +2857,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="50" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -2853,7 +2874,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="51" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -2875,25 +2896,25 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>304</v>
@@ -2910,7 +2931,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>303</v>
@@ -2921,10 +2942,10 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="16" t="str">
@@ -2938,7 +2959,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>168</v>
@@ -2949,34 +2970,34 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D42" s="22" t="str">
         <f>F34&amp;"_id"</f>
         <v>project_id</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -3004,7 +3025,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -3032,25 +3053,25 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D58" s="22" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D59" s="22" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -3059,7 +3080,7 @@
         <v>$project=Project::all();</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -3068,7 +3089,7 @@
         <v>foreach ($project as $value){</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -3077,7 +3098,7 @@
         <v xml:space="preserve">     $row=Project::find($value-&gt;id);</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -3086,7 +3107,7 @@
         <v xml:space="preserve">     $owner=$value-&gt;p_owner;</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -3095,22 +3116,22 @@
         <v xml:space="preserve">     $allowed=$row-&gt;projectpermission;</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D65" s="22" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D67" s="22" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -3121,82 +3142,82 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D69" s="10" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D70" s="10" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D71" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D72" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D73" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D74" s="10" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D75" s="22" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D76" s="22" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D77" s="10" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D78" s="10" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D79" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D80" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="10" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="22" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="22" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3206,10 +3227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I49"/>
+  <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,10 +3502,29 @@
       <c r="E48" s="2"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>86</v>
       </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3496,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3604,16 +3644,16 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="str">
         <f>IF('AutoLaravel v1'!C46&lt;&gt;"",'AutoLaravel v1'!C46,"")</f>
-        <v>new_prj_name</v>
+        <v>task</v>
       </c>
       <c r="C17" s="35" t="str">
         <f>IF(B17="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B17)</f>
-        <v>projects_new_prj_name</v>
+        <v>projects_task</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="str">
         <f>IF(B17="","",C17&amp;$A$1)</f>
-        <v>projects_new_prj_name_mssg</v>
+        <v>projects_task_mssg</v>
       </c>
       <c r="F17" s="36"/>
       <c r="H17" s="34" t="str">
@@ -3632,7 +3672,7 @@
       <c r="L17" s="36"/>
       <c r="N17" s="42" t="str">
         <f>B17</f>
-        <v>new_prj_name</v>
+        <v>task</v>
       </c>
       <c r="O17" s="43" t="str">
         <f>IF(H17&lt;&gt;"",",","")&amp;H17</f>
@@ -3642,16 +3682,16 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="str">
         <f>IF('AutoLaravel v1'!C47&lt;&gt;"",'AutoLaravel v1'!C47,"")</f>
-        <v>new_prj_goal</v>
+        <v>project</v>
       </c>
       <c r="C18" s="33" t="str">
         <f>IF(B18="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B18)</f>
-        <v>projects_new_prj_goal</v>
+        <v>projects_project</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33" t="str">
         <f t="shared" ref="E18:E26" si="1">IF(B18="","",C18&amp;$A$1)</f>
-        <v>projects_new_prj_goal_mssg</v>
+        <v>projects_project_mssg</v>
       </c>
       <c r="F18" s="38"/>
       <c r="H18" s="37" t="str">
@@ -3670,7 +3710,7 @@
       <c r="L18" s="38"/>
       <c r="N18" s="44" t="str">
         <f>IF(B18&lt;&gt;"",",","")&amp;B18</f>
-        <v>,new_prj_goal</v>
+        <v>,project</v>
       </c>
       <c r="O18" s="45" t="str">
         <f t="shared" ref="O18:O26" si="2">IF(H18&lt;&gt;"",",","")&amp;H18</f>
@@ -3680,16 +3720,16 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="str">
         <f>IF('AutoLaravel v1'!C48&lt;&gt;"",'AutoLaravel v1'!C48,"")</f>
-        <v>project_score</v>
+        <v>score</v>
       </c>
       <c r="C19" s="33" t="str">
         <f>IF(B19="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B19)</f>
-        <v>projects_project_score</v>
+        <v>projects_score</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>projects_project_score_mssg</v>
+        <v>projects_score_mssg</v>
       </c>
       <c r="F19" s="38"/>
       <c r="H19" s="37" t="str">
@@ -3708,7 +3748,7 @@
       <c r="L19" s="38"/>
       <c r="N19" s="44" t="str">
         <f t="shared" ref="N19:N26" si="3">IF(B19&lt;&gt;"",",","")&amp;B19</f>
-        <v>,project_score</v>
+        <v>,score</v>
       </c>
       <c r="O19" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3983,7 +4023,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="52" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
@@ -3993,7 +4033,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="52" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
@@ -4003,7 +4043,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="52" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
@@ -4013,7 +4053,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="52" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
@@ -4031,11 +4071,11 @@
         <v>275</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="E35" s="16" t="str">
         <f>UPPER(LEFT(D35,1))&amp;RIGHT(D35,LEN(D35)-1)</f>
-        <v>Newproject</v>
+        <v>Addtask</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -4055,7 +4095,7 @@
         <v>301</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>314</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -4064,7 +4104,7 @@
       </c>
       <c r="D38" s="32" t="str">
         <f>D36&amp;"/"&amp;D35</f>
-        <v>logged/newproject</v>
+        <v>logged/addtask</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -4075,13 +4115,13 @@
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="str">
         <f>$A$5&amp;D37&amp;A6</f>
-        <v>$('#add_new_project').click(function() {</v>
+        <v>$('#submit_task').click(function() {</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="32" t="str">
         <f>IF(B17="","",$A$2&amp;B17&amp;$A$3&amp;B17&amp;$A$4)&amp;IF(B18="","",$A$2&amp;B18&amp;$A$3&amp;B18&amp;$A$4)</f>
-        <v>var new_prj_name=$('#new_prj_name').val();var new_prj_goal=$('#new_prj_goal').val();</v>
+        <v>var task=$('#task').val();var project=$('#project').val();</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -4091,7 +4131,7 @@
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="32" t="str">
         <f>IF(B19="","",$A$2&amp;B19&amp;$A$3&amp;B19&amp;$A$4)&amp;IF(B20="","",$A$2&amp;B20&amp;$A$3&amp;B20&amp;$A$4)</f>
-        <v>var project_score=$('#project_score').val();</v>
+        <v>var score=$('#score').val();</v>
       </c>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
@@ -4186,7 +4226,7 @@
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="23" t="str">
         <f>N17&amp;IF(B17&lt;&gt;"",":","")&amp;B17&amp;N18&amp;IF(B18&lt;&gt;"",":","")&amp;B18&amp;N19&amp;IF(B19&lt;&gt;"",":","")&amp;B19&amp;N20&amp;IF(B20&lt;&gt;"",":","")&amp;B20</f>
-        <v>new_prj_name:new_prj_name,new_prj_goal:new_prj_goal,project_score:project_score</v>
+        <v>task:task,project:project,score:score</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -4227,7 +4267,7 @@
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="str">
         <f>B1&amp;D38&amp;B2</f>
-        <v>var route='logged/newproject';</v>
+        <v>var route='logged/addtask';</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -4257,7 +4297,7 @@
       </c>
       <c r="D65" s="32" t="str">
         <f>"public function post"&amp;E35&amp;"() {}"</f>
-        <v>public function postNewproject() {}</v>
+        <v>public function postAddtask() {}</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="32"/>
@@ -4265,19 +4305,19 @@
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="str">
         <f>"$"&amp;B17&amp;"=Input::get('"&amp;B17&amp;"');"</f>
-        <v>$new_prj_name=Input::get('new_prj_name');</v>
+        <v>$task=Input::get('task');</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="str">
         <f t="shared" ref="B67:B68" si="6">"$"&amp;B18&amp;"=Input::get('"&amp;B18&amp;"');"</f>
-        <v>$new_prj_goal=Input::get('new_prj_goal');</v>
+        <v>$project=Input::get('project');</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>$project_score=Input::get('project_score');</v>
+        <v>$score=Input::get('score');</v>
       </c>
     </row>
   </sheetData>
@@ -4288,10 +4328,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4549,7 +4589,7 @@
       </c>
       <c r="M41" s="16" t="str">
         <f>IF(SUM(J46:K55)&gt;0,B2&amp;P55&amp;Q55&amp;B3,"")</f>
-        <v>--fields="new_prj_name:string,new_prj_goal:string"</v>
+        <v>--fields="task:string,project:string,score:string"</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
@@ -4602,7 +4642,7 @@
         <v>103</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>134</v>
@@ -4625,7 +4665,7 @@
       </c>
       <c r="N46" s="16" t="str">
         <f>IF(AND(C46&lt;&gt;"",D46&lt;&gt;""),IF(N45="concatenator1","",",")&amp;C46&amp;":"&amp;D46,"")</f>
-        <v>new_prj_name:string</v>
+        <v>task:string</v>
       </c>
       <c r="O46" s="16" t="str">
         <f>IF(AND(G46&lt;&gt;"",H46&lt;&gt;""),","&amp;G46&amp;":"&amp;H46,"")</f>
@@ -4633,7 +4673,7 @@
       </c>
       <c r="P46" s="16" t="str">
         <f>P45&amp;N46</f>
-        <v>new_prj_name:string</v>
+        <v>task:string</v>
       </c>
       <c r="Q46" s="16" t="str">
         <f>Q45&amp;O46</f>
@@ -4645,7 +4685,7 @@
         <v>104</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>134</v>
@@ -4668,7 +4708,7 @@
       </c>
       <c r="N47" s="16" t="str">
         <f t="shared" ref="N47:N55" si="2">IF(AND(C47&lt;&gt;"",D47&lt;&gt;""),IF(N46="concatenator1","",",")&amp;C47&amp;":"&amp;D47,"")</f>
-        <v>,new_prj_goal:string</v>
+        <v>,project:string</v>
       </c>
       <c r="O47" s="16" t="str">
         <f t="shared" ref="O47:O55" si="3">IF(AND(G47&lt;&gt;"",H47&lt;&gt;""),","&amp;G47&amp;":"&amp;H47,"")</f>
@@ -4676,7 +4716,7 @@
       </c>
       <c r="P47" s="16" t="str">
         <f t="shared" ref="P47:P55" si="4">P46&amp;N47</f>
-        <v>new_prj_name:string,new_prj_goal:string</v>
+        <v>task:string,project:string</v>
       </c>
       <c r="Q47" s="16" t="str">
         <f t="shared" ref="Q47:Q55" si="5">Q46&amp;O47</f>
@@ -4688,9 +4728,11 @@
         <v>105</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D48" s="9"/>
+        <v>391</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="F48" s="10" t="s">
         <v>115</v>
       </c>
@@ -4709,7 +4751,7 @@
       </c>
       <c r="N48" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,score:string</v>
       </c>
       <c r="O48" s="16" t="str">
         <f t="shared" si="3"/>
@@ -4717,7 +4759,7 @@
       </c>
       <c r="P48" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>new_prj_name:string,new_prj_goal:string</v>
+        <v>task:string,project:string,score:string</v>
       </c>
       <c r="Q48" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4756,7 +4798,7 @@
       </c>
       <c r="P49" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>new_prj_name:string,new_prj_goal:string</v>
+        <v>task:string,project:string,score:string</v>
       </c>
       <c r="Q49" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4795,7 +4837,7 @@
       </c>
       <c r="P50" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>new_prj_name:string,new_prj_goal:string</v>
+        <v>task:string,project:string,score:string</v>
       </c>
       <c r="Q50" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4834,7 +4876,7 @@
       </c>
       <c r="P51" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>new_prj_name:string,new_prj_goal:string</v>
+        <v>task:string,project:string,score:string</v>
       </c>
       <c r="Q51" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4873,7 +4915,7 @@
       </c>
       <c r="P52" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>new_prj_name:string,new_prj_goal:string</v>
+        <v>task:string,project:string,score:string</v>
       </c>
       <c r="Q52" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4912,7 +4954,7 @@
       </c>
       <c r="P53" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>new_prj_name:string,new_prj_goal:string</v>
+        <v>task:string,project:string,score:string</v>
       </c>
       <c r="Q53" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4951,7 +4993,7 @@
       </c>
       <c r="P54" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>new_prj_name:string,new_prj_goal:string</v>
+        <v>task:string,project:string,score:string</v>
       </c>
       <c r="Q54" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4990,7 +5032,7 @@
       </c>
       <c r="P55" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>new_prj_name:string,new_prj_goal:string</v>
+        <v>task:string,project:string,score:string</v>
       </c>
       <c r="Q55" s="16" t="str">
         <f t="shared" si="5"/>
@@ -5008,7 +5050,7 @@
       </c>
       <c r="C59" s="23" t="str">
         <f>A4&amp;A5&amp;A6&amp;D44&amp;B1&amp;M41</f>
-        <v>php artisan generate:migration create_projects_table --fields="new_prj_name:string,new_prj_goal:string"</v>
+        <v>php artisan generate:migration create_projects_table --fields="task:string,project:string,score:string"</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
@@ -5154,6 +5196,54 @@
         <f>"Route::get('"&amp;D65&amp;"','"&amp;G67&amp;"@"&amp;D69&amp;"');"</f>
         <v>Route::get('newuser','LoggedController@newuser');</v>
       </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5610,7 +5700,7 @@
   <dimension ref="B3:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5740,7 +5830,7 @@
         <v>283</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5748,7 +5838,7 @@
         <v>274</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5839,7 +5929,7 @@
         <v>alejo/addtask</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/php code libraries/Laravel DRY v1.xlsx
+++ b/php code libraries/Laravel DRY v1.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="LaravelGenerate" sheetId="5" r:id="rId2"/>
+    <sheet name="LaravelGenerate" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="FormGeneratorV1" sheetId="12" r:id="rId3"/>
     <sheet name="AutoLaravel v1" sheetId="6" r:id="rId4"/>
     <sheet name="laravelAuth v1" sheetId="7" r:id="rId5"/>
@@ -22,6 +22,7 @@
     <sheet name="Controller generator" sheetId="11" r:id="rId8"/>
     <sheet name="error ptscreen" sheetId="9" r:id="rId9"/>
     <sheet name="table relations v1" sheetId="13" r:id="rId10"/>
+    <sheet name="Relations2" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="407">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -1240,9 +1241,6 @@
     <t>};</t>
   </si>
   <si>
-    <t>var route='</t>
-  </si>
-  <si>
     <t>';</t>
   </si>
   <si>
@@ -1297,18 +1295,6 @@
     <t xml:space="preserve">    //retrieve any element as object $var-&gt;age</t>
   </si>
   <si>
-    <t>SOMETIMES AJAX DOES NOT WORK WELL INSIDE LARAVEL</t>
-  </si>
-  <si>
-    <t>IF, CHECKING RIGHT SYNTAX, AJAX DOES NOT WORK, USE {{form::open}}</t>
-  </si>
-  <si>
-    <t>WARNING: FOR UNKNOWN REASONS AT THE DATE I WROTE THIS CODE</t>
-  </si>
-  <si>
-    <t>METHOD (30 august 2013)</t>
-  </si>
-  <si>
     <t>{{link_to('</t>
   </si>
   <si>
@@ -1342,9 +1328,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>projectpermissions</t>
-  </si>
-  <si>
     <t>Relational id</t>
   </si>
   <si>
@@ -1486,9 +1469,6 @@
     <t>task</t>
   </si>
   <si>
-    <t>project</t>
-  </si>
-  <si>
     <t>score</t>
   </si>
   <si>
@@ -1514,6 +1494,48 @@
   </si>
   <si>
     <t>PENDING TO AUTOMATE WITH EXCEL CONCATENATIONS</t>
+  </si>
+  <si>
+    <t>var base=$('#base').html();</t>
+  </si>
+  <si>
+    <t>OTHERWISE AJAX WILL NOT WORK</t>
+  </si>
+  <si>
+    <t>CHECK THAT A TAG WITH ID 'base' EXIST WITH URL::to('/') ECHO,</t>
+  </si>
+  <si>
+    <t>&lt;div class='hmdhide'  id='base'&gt;{{URL::to('/')}}&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>var route=base+'/</t>
+  </si>
+  <si>
+    <t>put wherever you want the next codes, this is, using css framework grid system</t>
+  </si>
+  <si>
+    <t>&lt;input type='text' id='</t>
+  </si>
+  <si>
+    <t>'&gt;&lt;spam id='</t>
+  </si>
+  <si>
+    <t>'&gt;&lt;/spam&gt;</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>//saving data</t>
+  </si>
+  <si>
+    <t>METHOD FOR RETRIEVING DATA FROM TABLE WITH PERMISSIONS STABLISHED IN TWO OTHER TABLES</t>
+  </si>
+  <si>
+    <t>Main table name</t>
+  </si>
+  <si>
+    <t>tasks</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +1957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1992,6 +2014,7 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2689,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,91 +2723,91 @@
   <sheetData>
     <row r="1" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>282</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -2794,7 +2817,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="54" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -2804,17 +2827,17 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -2829,7 +2852,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -2840,7 +2863,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -2857,7 +2880,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="50" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -2874,7 +2897,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -2896,25 +2919,25 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>304</v>
@@ -2931,7 +2954,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>303</v>
@@ -2942,24 +2965,24 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="16" t="str">
         <f>LEFT(D36,LEN(D36)-1)</f>
-        <v>projectpermission</v>
+        <v>thetask</v>
       </c>
       <c r="G36" s="16" t="str">
         <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
-        <v>Projectpermission</v>
+        <v>Thetask</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>168</v>
@@ -2970,34 +2993,34 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D42" s="22" t="str">
         <f>F34&amp;"_id"</f>
         <v>project_id</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -3009,13 +3032,13 @@
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D46" s="22" t="str">
         <f>C3&amp;F36&amp;C4</f>
-        <v>public function projectpermission () {</v>
+        <v>public function thetask () {</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D47" s="22" t="str">
         <f>C5&amp;G36&amp;"');"</f>
-        <v>return $this-&gt;hasMany('Projectpermission');</v>
+        <v>return $this-&gt;hasMany('Thetask');</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -3025,13 +3048,13 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="55" t="str">
         <f>C2&amp;G36&amp;".php"</f>
-        <v>//app/models/Projectpermission.php</v>
+        <v>//app/models/Thetask.php</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -3053,25 +3076,25 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D58" s="22" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D59" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -3080,7 +3103,7 @@
         <v>$project=Project::all();</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -3089,7 +3112,7 @@
         <v>foreach ($project as $value){</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -3098,7 +3121,7 @@
         <v xml:space="preserve">     $row=Project::find($value-&gt;id);</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -3107,31 +3130,31 @@
         <v xml:space="preserve">     $owner=$value-&gt;p_owner;</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D64" s="22" t="str">
         <f>"     "&amp;C1&amp;F36&amp;";"</f>
-        <v xml:space="preserve">     $allowed=$row-&gt;projectpermission;</v>
+        <v xml:space="preserve">     $allowed=$row-&gt;thetask;</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D65" s="22" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D67" s="22" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -3142,82 +3165,113 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D69" s="10" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D70" s="10" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D71" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D72" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D73" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D74" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D75" s="22" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D76" s="22" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D77" s="10" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D78" s="10" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D79" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D80" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="22" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="22" t="s">
-        <v>387</v>
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +3283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -3509,7 +3563,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -3534,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3545,41 +3599,47 @@
     <col min="1" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>296</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>297</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="B3" s="19"/>
-    </row>
-    <row r="4" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="B4" s="19"/>
-    </row>
-    <row r="5" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="B5" s="19"/>
-    </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>302</v>
       </c>
@@ -3656,18 +3716,17 @@
         <v>projects_task_mssg</v>
       </c>
       <c r="F17" s="36"/>
-      <c r="H17" s="34" t="str">
-        <f>IF('AutoLaravel v1'!G46&lt;&gt;"",'AutoLaravel v1'!G46,"")</f>
-        <v/>
+      <c r="H17" s="34" t="s">
+        <v>402</v>
       </c>
       <c r="I17" s="35" t="str">
-        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H17</f>
-        <v>projects_</v>
+        <f>IF(H17&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H17,"")</f>
+        <v>projects_s</v>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="35" t="str">
         <f t="shared" ref="K17:K26" si="0">I17&amp;$A$1</f>
-        <v>projects__mssg</v>
+        <v>projects_s_mssg</v>
       </c>
       <c r="L17" s="36"/>
       <c r="N17" s="42" t="str">
@@ -3676,41 +3735,41 @@
       </c>
       <c r="O17" s="43" t="str">
         <f>IF(H17&lt;&gt;"",",","")&amp;H17</f>
-        <v/>
+        <v>,s</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="str">
         <f>IF('AutoLaravel v1'!C47&lt;&gt;"",'AutoLaravel v1'!C47,"")</f>
-        <v>project</v>
+        <v>project_id</v>
       </c>
       <c r="C18" s="33" t="str">
         <f>IF(B18="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B18)</f>
-        <v>projects_project</v>
+        <v>projects_project_id</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33" t="str">
         <f t="shared" ref="E18:E26" si="1">IF(B18="","",C18&amp;$A$1)</f>
-        <v>projects_project_mssg</v>
+        <v>projects_project_id_mssg</v>
       </c>
       <c r="F18" s="38"/>
       <c r="H18" s="37" t="str">
         <f>IF('AutoLaravel v1'!G47&lt;&gt;"",'AutoLaravel v1'!G47,"")</f>
         <v/>
       </c>
-      <c r="I18" s="33" t="str">
-        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H18</f>
-        <v>projects_</v>
+      <c r="I18" s="35" t="str">
+        <f>IF(H18&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H18,"")</f>
+        <v/>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>projects__mssg</v>
+        <v>_mssg</v>
       </c>
       <c r="L18" s="38"/>
       <c r="N18" s="44" t="str">
         <f>IF(B18&lt;&gt;"",",","")&amp;B18</f>
-        <v>,project</v>
+        <v>,project_id</v>
       </c>
       <c r="O18" s="45" t="str">
         <f t="shared" ref="O18:O26" si="2">IF(H18&lt;&gt;"",",","")&amp;H18</f>
@@ -3736,14 +3795,14 @@
         <f>IF('AutoLaravel v1'!G48&lt;&gt;"",'AutoLaravel v1'!G48,"")</f>
         <v/>
       </c>
-      <c r="I19" s="33" t="str">
-        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H19</f>
-        <v>projects_</v>
+      <c r="I19" s="35" t="str">
+        <f>IF(H19&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H19,"")</f>
+        <v/>
       </c>
       <c r="J19" s="33"/>
       <c r="K19" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>projects__mssg</v>
+        <v>_mssg</v>
       </c>
       <c r="L19" s="38"/>
       <c r="N19" s="44" t="str">
@@ -3774,14 +3833,14 @@
         <f>IF('AutoLaravel v1'!G49&lt;&gt;"",'AutoLaravel v1'!G49,"")</f>
         <v/>
       </c>
-      <c r="I20" s="33" t="str">
-        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H20</f>
-        <v>projects_</v>
+      <c r="I20" s="35" t="str">
+        <f>IF(H20&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H20,"")</f>
+        <v/>
       </c>
       <c r="J20" s="33"/>
       <c r="K20" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>projects__mssg</v>
+        <v>_mssg</v>
       </c>
       <c r="L20" s="38"/>
       <c r="N20" s="44" t="str">
@@ -3812,14 +3871,14 @@
         <f>IF('AutoLaravel v1'!G50&lt;&gt;"",'AutoLaravel v1'!G50,"")</f>
         <v/>
       </c>
-      <c r="I21" s="33" t="str">
-        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H21</f>
-        <v>projects_</v>
+      <c r="I21" s="35" t="str">
+        <f>IF(H21&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H21,"")</f>
+        <v/>
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>projects__mssg</v>
+        <v>_mssg</v>
       </c>
       <c r="L21" s="38"/>
       <c r="N21" s="44" t="str">
@@ -3850,14 +3909,14 @@
         <f>IF('AutoLaravel v1'!G51&lt;&gt;"",'AutoLaravel v1'!G51,"")</f>
         <v/>
       </c>
-      <c r="I22" s="33" t="str">
-        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H22</f>
-        <v>projects_</v>
+      <c r="I22" s="35" t="str">
+        <f>IF(H22&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H22,"")</f>
+        <v/>
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>projects__mssg</v>
+        <v>_mssg</v>
       </c>
       <c r="L22" s="38"/>
       <c r="N22" s="44" t="str">
@@ -3888,14 +3947,14 @@
         <f>IF('AutoLaravel v1'!G52&lt;&gt;"",'AutoLaravel v1'!G52,"")</f>
         <v/>
       </c>
-      <c r="I23" s="33" t="str">
-        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H23</f>
-        <v>projects_</v>
+      <c r="I23" s="35" t="str">
+        <f>IF(H23&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H23,"")</f>
+        <v/>
       </c>
       <c r="J23" s="33"/>
       <c r="K23" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>projects__mssg</v>
+        <v>_mssg</v>
       </c>
       <c r="L23" s="38"/>
       <c r="N23" s="44" t="str">
@@ -3926,14 +3985,14 @@
         <f>IF('AutoLaravel v1'!G53&lt;&gt;"",'AutoLaravel v1'!G53,"")</f>
         <v/>
       </c>
-      <c r="I24" s="33" t="str">
-        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H24</f>
-        <v>projects_</v>
+      <c r="I24" s="35" t="str">
+        <f>IF(H24&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H24,"")</f>
+        <v/>
       </c>
       <c r="J24" s="33"/>
       <c r="K24" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>projects__mssg</v>
+        <v>_mssg</v>
       </c>
       <c r="L24" s="38"/>
       <c r="N24" s="44" t="str">
@@ -3964,14 +4023,14 @@
         <f>IF('AutoLaravel v1'!G54&lt;&gt;"",'AutoLaravel v1'!G54,"")</f>
         <v/>
       </c>
-      <c r="I25" s="33" t="str">
-        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H25</f>
-        <v>projects_</v>
+      <c r="I25" s="35" t="str">
+        <f>IF(H25&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H25,"")</f>
+        <v/>
       </c>
       <c r="J25" s="33"/>
       <c r="K25" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>projects__mssg</v>
+        <v>_mssg</v>
       </c>
       <c r="L25" s="38"/>
       <c r="N25" s="44" t="str">
@@ -4002,14 +4061,14 @@
         <f>IF('AutoLaravel v1'!G55&lt;&gt;"",'AutoLaravel v1'!G55,"")</f>
         <v/>
       </c>
-      <c r="I26" s="40" t="str">
-        <f>'AutoLaravel v1'!$D$44&amp;"_"&amp;H26</f>
-        <v>projects_</v>
+      <c r="I26" s="35" t="str">
+        <f>IF(H26&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H26,"")</f>
+        <v/>
       </c>
       <c r="J26" s="40"/>
       <c r="K26" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>projects__mssg</v>
+        <v>_mssg</v>
       </c>
       <c r="L26" s="41"/>
       <c r="N26" s="46" t="str">
@@ -4021,304 +4080,546 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="52" t="s">
-        <v>329</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
+      <c r="B30" s="56" t="str">
+        <f>IF(C17&lt;&gt;"",$B$3&amp;C17&amp;$B$4&amp;E17&amp;$B$5,"")</f>
+        <v>&lt;input type='text' id='projects_task'&gt;&lt;spam id='projects_task_mssg'&gt;&lt;/spam&gt;</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="56" t="str">
+        <f>IF(I17&lt;&gt;"",$B$3&amp;I17&amp;$B$4&amp;K17&amp;$B$5,"")</f>
+        <v>&lt;input type='text' id='projects_s'&gt;&lt;spam id='projects_s_mssg'&gt;&lt;/spam&gt;</v>
+      </c>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
+      <c r="B31" s="56" t="str">
+        <f t="shared" ref="B31:B39" si="4">IF(C18&lt;&gt;"",$B$3&amp;C18&amp;$B$4&amp;E18&amp;$B$5,"")</f>
+        <v>&lt;input type='text' id='projects_project_id'&gt;&lt;spam id='projects_project_id_mssg'&gt;&lt;/spam&gt;</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="56" t="str">
+        <f t="shared" ref="H31:H39" si="5">IF(I18&lt;&gt;"",$B$3&amp;I18&amp;$B$4&amp;K18&amp;$B$5,"")</f>
+        <v/>
+      </c>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="52" t="s">
-        <v>330</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+      <c r="B32" s="56" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;input type='text' id='projects_score'&gt;&lt;spam id='projects_score_mssg'&gt;&lt;/spam&gt;</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="56" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="56" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="56" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="56" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="56" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="56" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="56" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E35" s="16" t="str">
-        <f>UPPER(LEFT(D35,1))&amp;RIGHT(D35,LEN(D35)-1)</f>
+      <c r="E46" s="16" t="str">
+        <f>UPPER(LEFT(D46,1))&amp;RIGHT(D46,LEN(D46)-1)</f>
         <v>Addtask</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D36" s="9" t="s">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E36" s="16" t="str">
-        <f>UPPER(LEFT(D36,1))&amp;RIGHT(D36,LEN(D36)-1)</f>
+      <c r="E47" s="16" t="str">
+        <f>UPPER(LEFT(D47,1))&amp;RIGHT(D47,LEN(D47)-1)</f>
         <v>Logged</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+      <c r="D48" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D38" s="32" t="str">
-        <f>D36&amp;"/"&amp;D35</f>
+      <c r="D49" s="32" t="str">
+        <f>D47&amp;"/"&amp;D46</f>
         <v>logged/addtask</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="str">
-        <f>$A$5&amp;D37&amp;A6</f>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="str">
+        <f>$A$5&amp;D48&amp;A6</f>
         <v>$('#submit_task').click(function() {</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="32" t="str">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="32" t="str">
         <f>IF(B17="","",$A$2&amp;B17&amp;$A$3&amp;B17&amp;$A$4)&amp;IF(B18="","",$A$2&amp;B18&amp;$A$3&amp;B18&amp;$A$4)</f>
-        <v>var task=$('#task').val();var project=$('#project').val();</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="32" t="str">
+        <v>var task=$('#task').val();var project_id=$('#project_id').val();</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="32" t="str">
         <f>IF(B19="","",$A$2&amp;B19&amp;$A$3&amp;B19&amp;$A$4)&amp;IF(B20="","",$A$2&amp;B20&amp;$A$3&amp;B20&amp;$A$4)</f>
         <v>var score=$('#score').val();</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="32" t="str">
-        <f>IF(B21="","",$A$2&amp;B21&amp;$A$3&amp;B21&amp;$A$4)&amp;IF(B22="","",$A$2&amp;B22&amp;$A$3&amp;B22&amp;$A$4)</f>
-        <v/>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="32" t="str">
-        <f>IF(B23="","",$A$2&amp;B23&amp;$A$3&amp;B23&amp;$A$4)&amp;IF(B24="","",$A$2&amp;B24&amp;$A$3&amp;B24&amp;$A$4)</f>
-        <v/>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="32" t="str">
-        <f>IF(B25="","",$A$2&amp;B25&amp;$A$3&amp;B25&amp;$A$4)&amp;IF(B26="","",$A$2&amp;B26&amp;$A$3&amp;B26&amp;$A$4)</f>
-        <v/>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="23" t="str">
-        <f>IF(H17="","",$A$2&amp;H17&amp;$A$3&amp;H17&amp;$A$4)&amp;IF(H18="","",$A$2&amp;H18&amp;$A$3&amp;H18&amp;$A$4)</f>
-        <v/>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="23" t="str">
-        <f>IF(H19="","",$A$2&amp;H19&amp;$A$3&amp;H19&amp;$A$4)&amp;IF(H20="","",$A$2&amp;H20&amp;$A$3&amp;H20&amp;$A$4)</f>
-        <v/>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="23" t="str">
-        <f>IF(H21="","",$A$2&amp;H21&amp;$A$3&amp;H21&amp;$A$4)&amp;IF(H22="","",$A$2&amp;H22&amp;$A$3&amp;H22&amp;$A$4)</f>
-        <v/>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="23" t="str">
-        <f>IF(H23="","",$A$2&amp;H23&amp;$A$3&amp;H23&amp;$A$4)&amp;IF(H24="","",$A$2&amp;H24&amp;$A$3&amp;H24&amp;$A$4)</f>
-        <v/>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="23" t="str">
-        <f>IF(H25="","",$A$2&amp;H25&amp;$A$3&amp;H25&amp;$A$4)&amp;IF(H26="","",$A$2&amp;H26&amp;$A$3&amp;H26&amp;$A$4)</f>
-        <v/>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="23" t="str">
-        <f>N17&amp;IF(B17&lt;&gt;"",":","")&amp;B17&amp;N18&amp;IF(B18&lt;&gt;"",":","")&amp;B18&amp;N19&amp;IF(B19&lt;&gt;"",":","")&amp;B19&amp;N20&amp;IF(B20&lt;&gt;"",":","")&amp;B20</f>
-        <v>task:task,project:project,score:score</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="23" t="str">
-        <f>N21&amp;IF(B21&lt;&gt;"",":","")&amp;B21&amp;N22&amp;IF(B22&lt;&gt;"",":","")&amp;B22&amp;N23&amp;IF(B23&lt;&gt;"",":","")&amp;B23&amp;N24&amp;IF(B24&lt;&gt;"",":","")&amp;B24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="23" t="str">
-        <f t="shared" ref="B54" si="4">N25&amp;IF(B25&lt;&gt;"",":","")&amp;B25&amp;N26&amp;IF(B26&lt;&gt;"",":","")&amp;B26</f>
-        <v/>
-      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="32" t="str">
-        <f>O17&amp;IF(H17&lt;&gt;"",":","")&amp;H17&amp;O18&amp;IF(H18&lt;&gt;"",":","")&amp;H18&amp;O19&amp;IF(H19&lt;&gt;"",":","")&amp;H19&amp;O20&amp;IF(H20&lt;&gt;"",":","")&amp;H20</f>
-        <v/>
-      </c>
+        <f>IF(B21="","",$A$2&amp;B21&amp;$A$3&amp;B21&amp;$A$4)&amp;IF(B22="","",$A$2&amp;B22&amp;$A$3&amp;B22&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="32" t="str">
-        <f>O21&amp;IF(H21&lt;&gt;"",":","")&amp;H21&amp;O22&amp;IF(H22&lt;&gt;"",":","")&amp;H22&amp;O23&amp;IF(H23&lt;&gt;"",":","")&amp;H23&amp;O24&amp;IF(H24&lt;&gt;"",":","")&amp;H24</f>
-        <v/>
-      </c>
+        <f>IF(B23="","",$A$2&amp;B23&amp;$A$3&amp;B23&amp;$A$4)&amp;IF(B24="","",$A$2&amp;B24&amp;$A$3&amp;B24&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="32" t="str">
-        <f t="shared" ref="B57" si="5">O25&amp;IF(H25&lt;&gt;"",":","")&amp;H25&amp;O26&amp;IF(H26&lt;&gt;"",":","")&amp;H26</f>
-        <v/>
-      </c>
+        <f>IF(B25="","",$A$2&amp;B25&amp;$A$3&amp;B25&amp;$A$4)&amp;IF(B26="","",$A$2&amp;B26&amp;$A$3&amp;B26&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="23" t="str">
+        <f>IF(H17="","",$A$2&amp;H17&amp;$A$3&amp;H17&amp;$A$4)&amp;IF(H18="","",$A$2&amp;H18&amp;$A$3&amp;H18&amp;$A$4)</f>
+        <v>var s=$('#s').val();</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="23" t="str">
+        <f>IF(H19="","",$A$2&amp;H19&amp;$A$3&amp;H19&amp;$A$4)&amp;IF(H20="","",$A$2&amp;H20&amp;$A$3&amp;H20&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="23" t="str">
+        <f>IF(H21="","",$A$2&amp;H21&amp;$A$3&amp;H21&amp;$A$4)&amp;IF(H22="","",$A$2&amp;H22&amp;$A$3&amp;H22&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="23" t="str">
+        <f>IF(H23="","",$A$2&amp;H23&amp;$A$3&amp;H23&amp;$A$4)&amp;IF(H24="","",$A$2&amp;H24&amp;$A$3&amp;H24&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="23" t="str">
+        <f>IF(H25="","",$A$2&amp;H25&amp;$A$3&amp;H25&amp;$A$4)&amp;IF(H26="","",$A$2&amp;H26&amp;$A$3&amp;H26&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="23" t="str">
+        <f>N17&amp;IF(B17&lt;&gt;"",":","")&amp;B17&amp;N18&amp;IF(B18&lt;&gt;"",":","")&amp;B18&amp;N19&amp;IF(B19&lt;&gt;"",":","")&amp;B19&amp;N20&amp;IF(B20&lt;&gt;"",":","")&amp;B20</f>
+        <v>task:task,project_id:project_id,score:score</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="23" t="str">
+        <f>N21&amp;IF(B21&lt;&gt;"",":","")&amp;B21&amp;N22&amp;IF(B22&lt;&gt;"",":","")&amp;B22&amp;N23&amp;IF(B23&lt;&gt;"",":","")&amp;B23&amp;N24&amp;IF(B24&lt;&gt;"",":","")&amp;B24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="23" t="str">
+        <f t="shared" ref="B66" si="6">N25&amp;IF(B25&lt;&gt;"",":","")&amp;B25&amp;N26&amp;IF(B26&lt;&gt;"",":","")&amp;B26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="32" t="str">
+        <f>O17&amp;IF(H17&lt;&gt;"",":","")&amp;H17&amp;O18&amp;IF(H18&lt;&gt;"",":","")&amp;H18&amp;O19&amp;IF(H19&lt;&gt;"",":","")&amp;H19&amp;O20&amp;IF(H20&lt;&gt;"",":","")&amp;H20</f>
+        <v>,s:s</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="32" t="str">
+        <f>O21&amp;IF(H21&lt;&gt;"",":","")&amp;H21&amp;O22&amp;IF(H22&lt;&gt;"",":","")&amp;H22&amp;O23&amp;IF(H23&lt;&gt;"",":","")&amp;H23&amp;O24&amp;IF(H24&lt;&gt;"",":","")&amp;H24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="32" t="str">
+        <f t="shared" ref="B69" si="7">O25&amp;IF(H25&lt;&gt;"",":","")&amp;H25&amp;O26&amp;IF(H26&lt;&gt;"",":","")&amp;H26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="10" t="str">
-        <f>B1&amp;D38&amp;B2</f>
-        <v>var route='logged/addtask';</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="str">
+        <f>B1&amp;D49&amp;B2</f>
+        <v>var route=base+'/logged/addtask';</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="10" t="s">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="32" t="str">
-        <f>E36&amp;"Controller"</f>
+      <c r="D76" s="32" t="str">
+        <f>E47&amp;"Controller"</f>
         <v>LoggedController</v>
       </c>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D65" s="32" t="str">
-        <f>"public function post"&amp;E35&amp;"() {}"</f>
-        <v>public function postAddtask() {}</v>
-      </c>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="str">
-        <f>"$"&amp;B17&amp;"=Input::get('"&amp;B17&amp;"');"</f>
-        <v>$task=Input::get('task');</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="str">
-        <f t="shared" ref="B67:B68" si="6">"$"&amp;B18&amp;"=Input::get('"&amp;B18&amp;"');"</f>
-        <v>$project=Input::get('project');</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>$score=Input::get('score');</v>
-      </c>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D77" s="32" t="str">
+        <f>"public function post"&amp;E46&amp;"() {"</f>
+        <v>public function postAddtask() {</v>
+      </c>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="32" t="str">
+        <f>"$"&amp;B17&amp;"=$_POST['"&amp;B17&amp;"'];"</f>
+        <v>$task=$_POST['task'];</v>
+      </c>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="32" t="str">
+        <f>"$"&amp;B18&amp;"=$_POST['"&amp;B18&amp;"'];"</f>
+        <v>$project_id=$_POST['project_id'];</v>
+      </c>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="32" t="str">
+        <f>"$"&amp;B19&amp;"=$_POST['"&amp;B19&amp;"'];"</f>
+        <v>$score=$_POST['score'];</v>
+      </c>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="32" t="str">
+        <f>"$"&amp;'AutoLaravel v1'!F44&amp;"=New "&amp;'AutoLaravel v1'!G44&amp;";"</f>
+        <v>$project=New Project;</v>
+      </c>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4330,8 +4631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,7 +4890,7 @@
       </c>
       <c r="M41" s="16" t="str">
         <f>IF(SUM(J46:K55)&gt;0,B2&amp;P55&amp;Q55&amp;B3,"")</f>
-        <v>--fields="task:string,project:string,score:string"</v>
+        <v>--fields="task:string,project_id:string,score:string"</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
@@ -4642,7 +4943,7 @@
         <v>103</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>134</v>
@@ -4708,7 +5009,7 @@
       </c>
       <c r="N47" s="16" t="str">
         <f t="shared" ref="N47:N55" si="2">IF(AND(C47&lt;&gt;"",D47&lt;&gt;""),IF(N46="concatenator1","",",")&amp;C47&amp;":"&amp;D47,"")</f>
-        <v>,project:string</v>
+        <v>,project_id:string</v>
       </c>
       <c r="O47" s="16" t="str">
         <f t="shared" ref="O47:O55" si="3">IF(AND(G47&lt;&gt;"",H47&lt;&gt;""),","&amp;G47&amp;":"&amp;H47,"")</f>
@@ -4716,7 +5017,7 @@
       </c>
       <c r="P47" s="16" t="str">
         <f t="shared" ref="P47:P55" si="4">P46&amp;N47</f>
-        <v>task:string,project:string</v>
+        <v>task:string,project_id:string</v>
       </c>
       <c r="Q47" s="16" t="str">
         <f t="shared" ref="Q47:Q55" si="5">Q46&amp;O47</f>
@@ -4728,7 +5029,7 @@
         <v>105</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>134</v>
@@ -4759,7 +5060,7 @@
       </c>
       <c r="P48" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,score:string</v>
+        <v>task:string,project_id:string,score:string</v>
       </c>
       <c r="Q48" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4798,7 +5099,7 @@
       </c>
       <c r="P49" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,score:string</v>
+        <v>task:string,project_id:string,score:string</v>
       </c>
       <c r="Q49" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4837,7 +5138,7 @@
       </c>
       <c r="P50" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,score:string</v>
+        <v>task:string,project_id:string,score:string</v>
       </c>
       <c r="Q50" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4876,7 +5177,7 @@
       </c>
       <c r="P51" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,score:string</v>
+        <v>task:string,project_id:string,score:string</v>
       </c>
       <c r="Q51" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4915,7 +5216,7 @@
       </c>
       <c r="P52" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,score:string</v>
+        <v>task:string,project_id:string,score:string</v>
       </c>
       <c r="Q52" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4954,7 +5255,7 @@
       </c>
       <c r="P53" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,score:string</v>
+        <v>task:string,project_id:string,score:string</v>
       </c>
       <c r="Q53" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4993,7 +5294,7 @@
       </c>
       <c r="P54" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,score:string</v>
+        <v>task:string,project_id:string,score:string</v>
       </c>
       <c r="Q54" s="16" t="str">
         <f t="shared" si="5"/>
@@ -5032,7 +5333,7 @@
       </c>
       <c r="P55" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,score:string</v>
+        <v>task:string,project_id:string,score:string</v>
       </c>
       <c r="Q55" s="16" t="str">
         <f t="shared" si="5"/>
@@ -5050,7 +5351,7 @@
       </c>
       <c r="C59" s="23" t="str">
         <f>A4&amp;A5&amp;A6&amp;D44&amp;B1&amp;M41</f>
-        <v>php artisan generate:migration create_projects_table --fields="task:string,project:string,score:string"</v>
+        <v>php artisan generate:migration create_projects_table --fields="task:string,project_id:string,score:string"</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
@@ -5199,7 +5500,7 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
@@ -5207,26 +5508,26 @@
         <v>191</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
@@ -5234,7 +5535,7 @@
         <v>126</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
@@ -5830,7 +6131,7 @@
         <v>283</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5838,7 +6139,7 @@
         <v>274</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5929,7 +6230,7 @@
         <v>alejo/addtask</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/php code libraries/Laravel DRY v1.xlsx
+++ b/php code libraries/Laravel DRY v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="419">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -773,9 +773,6 @@
     <t>When composer be finished, open "app/config/app.php" and add to "providers" array</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -847,9 +844,6 @@
     <t>3.  Modify header and footer files as desired. These are inside templates folder.</t>
   </si>
   <si>
-    <t>newuser</t>
-  </si>
-  <si>
     <t>Filename</t>
   </si>
   <si>
@@ -1073,9 +1067,6 @@
     <t>on this spreadsheet are the basics for starting and resolving main needings.</t>
   </si>
   <si>
-    <t>fsample</t>
-  </si>
-  <si>
     <t>CONFIG LARAVEL EMAIL AS MENTIONED IN NEXT SPREADSHEET</t>
   </si>
   <si>
@@ -1085,12 +1076,6 @@
     <t>5. Copy - paste following folders as indicated</t>
   </si>
   <si>
-    <t>healmy5_tasks2</t>
-  </si>
-  <si>
-    <t>logged</t>
-  </si>
-  <si>
     <t>3. Copy / paste  file inside app/controllers</t>
   </si>
   <si>
@@ -1463,15 +1448,6 @@
     <t>&lt;?php }  ?&gt;</t>
   </si>
   <si>
-    <t>submit_task</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
     <t>4. Add column to table</t>
   </si>
   <si>
@@ -1523,9 +1499,6 @@
     <t>'&gt;&lt;/spam&gt;</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>//saving data</t>
   </si>
   <si>
@@ -1536,6 +1509,69 @@
   </si>
   <si>
     <t>tasks</t>
+  </si>
+  <si>
+    <t>cd ../../wamp/www/practice</t>
+  </si>
+  <si>
+    <t>afields</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>ajax</t>
+  </si>
+  <si>
+    <t>runajax</t>
+  </si>
+  <si>
+    <t>RESTful</t>
+  </si>
+  <si>
+    <t>&lt;button class='btn' id='</t>
+  </si>
+  <si>
+    <t>_submit' &gt;submit&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>// left column not automated yet</t>
+  </si>
+  <si>
+    <t>return 1;</t>
+  </si>
+  <si>
+    <t>Route::controller('</t>
+  </si>
+  <si>
+    <t>DEPRECATED METHOD</t>
+  </si>
+  <si>
+    <t>DEPRECATED</t>
+  </si>
+  <si>
+    <t>periods</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>seconds</t>
   </si>
 </sst>
 </file>
@@ -1694,14 +1730,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1" tint="0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1714,8 +1742,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1755,12 +1790,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3B0731"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1957,7 +1986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2010,11 +2039,13 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2723,126 +2754,126 @@
   <sheetData>
     <row r="1" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>344</v>
-      </c>
       <c r="C5" s="48" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="54" t="s">
-        <v>329</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
+      <c r="B13" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
-        <v>330</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
+      <c r="B14" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="16" t="str">
@@ -2852,18 +2883,18 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C21" s="9"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="50" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -2880,7 +2911,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="50" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -2897,7 +2928,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="51" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -2919,28 +2950,28 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="16" t="str">
@@ -2954,10 +2985,10 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="16"/>
@@ -2965,10 +2996,10 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="16" t="str">
@@ -2982,10 +3013,10 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="16"/>
@@ -2993,38 +3024,38 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D42" s="22" t="str">
         <f>F34&amp;"_id"</f>
         <v>project_id</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="55" t="str">
+      <c r="B45" s="54" t="str">
         <f>C2&amp;G34&amp;".php"</f>
         <v>//app/models/Project.php</v>
       </c>
@@ -3048,11 +3079,11 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="55" t="str">
+      <c r="B51" s="54" t="str">
         <f>C2&amp;G36&amp;".php"</f>
         <v>//app/models/Thetask.php</v>
       </c>
@@ -3076,25 +3107,25 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D58" s="22" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D59" s="22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -3103,7 +3134,7 @@
         <v>$project=Project::all();</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -3112,7 +3143,7 @@
         <v>foreach ($project as $value){</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -3121,7 +3152,7 @@
         <v xml:space="preserve">     $row=Project::find($value-&gt;id);</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -3130,7 +3161,7 @@
         <v xml:space="preserve">     $owner=$value-&gt;p_owner;</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -3139,22 +3170,22 @@
         <v xml:space="preserve">     $allowed=$row-&gt;thetask;</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D65" s="22" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D67" s="22" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -3165,82 +3196,82 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D69" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D70" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D71" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D72" s="10" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D73" s="10" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D74" s="10" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D75" s="22" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D76" s="22" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D77" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D78" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D79" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D80" s="10" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="10" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="10" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="22" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="22" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3252,7 +3283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3263,15 +3294,15 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -3563,7 +3594,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -3588,10 +3619,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3601,164 +3632,173 @@
   <sheetData>
     <row r="1" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>397</v>
+        <v>389</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="B6" s="19"/>
+        <v>297</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="str">
-        <f>IF('AutoLaravel v1'!C46&lt;&gt;"",'AutoLaravel v1'!C46,"")</f>
-        <v>task</v>
+        <f>IF('AutoLaravel v1'!C47&lt;&gt;"",'AutoLaravel v1'!C47,"")</f>
+        <v>hours</v>
       </c>
       <c r="C17" s="35" t="str">
-        <f>IF(B17="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B17)</f>
-        <v>projects_task</v>
+        <f>IF(B17="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B17)</f>
+        <v>periods_hours</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="str">
         <f>IF(B17="","",C17&amp;$A$1)</f>
-        <v>projects_task_mssg</v>
+        <v>periods_hours_mssg</v>
       </c>
       <c r="F17" s="36"/>
-      <c r="H17" s="34" t="s">
-        <v>402</v>
+      <c r="H17" s="37" t="str">
+        <f>IF('AutoLaravel v1'!G47&lt;&gt;"",'AutoLaravel v1'!G47,"")</f>
+        <v/>
       </c>
       <c r="I17" s="35" t="str">
-        <f>IF(H17&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H17,"")</f>
-        <v>projects_s</v>
+        <f>IF(H17&lt;&gt;"",'AutoLaravel v1'!$D$45&amp;"_"&amp;H17,"")</f>
+        <v/>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="35" t="str">
         <f t="shared" ref="K17:K26" si="0">I17&amp;$A$1</f>
-        <v>projects_s_mssg</v>
+        <v>_mssg</v>
       </c>
       <c r="L17" s="36"/>
       <c r="N17" s="42" t="str">
         <f>B17</f>
-        <v>task</v>
+        <v>hours</v>
       </c>
       <c r="O17" s="43" t="str">
         <f>IF(H17&lt;&gt;"",",","")&amp;H17</f>
-        <v>,s</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="str">
-        <f>IF('AutoLaravel v1'!C47&lt;&gt;"",'AutoLaravel v1'!C47,"")</f>
-        <v>project_id</v>
+        <f>IF('AutoLaravel v1'!C48&lt;&gt;"",'AutoLaravel v1'!C48,"")</f>
+        <v>minutes</v>
       </c>
       <c r="C18" s="33" t="str">
-        <f>IF(B18="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B18)</f>
-        <v>projects_project_id</v>
+        <f>IF(B18="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B18)</f>
+        <v>periods_minutes</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33" t="str">
         <f t="shared" ref="E18:E26" si="1">IF(B18="","",C18&amp;$A$1)</f>
-        <v>projects_project_id_mssg</v>
+        <v>periods_minutes_mssg</v>
       </c>
       <c r="F18" s="38"/>
       <c r="H18" s="37" t="str">
-        <f>IF('AutoLaravel v1'!G47&lt;&gt;"",'AutoLaravel v1'!G47,"")</f>
+        <f>IF('AutoLaravel v1'!G48&lt;&gt;"",'AutoLaravel v1'!G48,"")</f>
         <v/>
       </c>
       <c r="I18" s="35" t="str">
-        <f>IF(H18&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H18,"")</f>
+        <f>IF(H18&lt;&gt;"",'AutoLaravel v1'!$D$45&amp;"_"&amp;H18,"")</f>
         <v/>
       </c>
       <c r="J18" s="33"/>
@@ -3769,7 +3809,7 @@
       <c r="L18" s="38"/>
       <c r="N18" s="44" t="str">
         <f>IF(B18&lt;&gt;"",",","")&amp;B18</f>
-        <v>,project_id</v>
+        <v>,minutes</v>
       </c>
       <c r="O18" s="45" t="str">
         <f t="shared" ref="O18:O26" si="2">IF(H18&lt;&gt;"",",","")&amp;H18</f>
@@ -3778,25 +3818,25 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="str">
-        <f>IF('AutoLaravel v1'!C48&lt;&gt;"",'AutoLaravel v1'!C48,"")</f>
-        <v>score</v>
+        <f>IF('AutoLaravel v1'!C49&lt;&gt;"",'AutoLaravel v1'!C49,"")</f>
+        <v>seconds</v>
       </c>
       <c r="C19" s="33" t="str">
-        <f>IF(B19="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B19)</f>
-        <v>projects_score</v>
+        <f>IF(B19="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B19)</f>
+        <v>periods_seconds</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>projects_score_mssg</v>
+        <v>periods_seconds_mssg</v>
       </c>
       <c r="F19" s="38"/>
       <c r="H19" s="37" t="str">
-        <f>IF('AutoLaravel v1'!G48&lt;&gt;"",'AutoLaravel v1'!G48,"")</f>
+        <f>IF('AutoLaravel v1'!G49&lt;&gt;"",'AutoLaravel v1'!G49,"")</f>
         <v/>
       </c>
       <c r="I19" s="35" t="str">
-        <f>IF(H19&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H19,"")</f>
+        <f>IF(H19&lt;&gt;"",'AutoLaravel v1'!$D$45&amp;"_"&amp;H19,"")</f>
         <v/>
       </c>
       <c r="J19" s="33"/>
@@ -3807,7 +3847,7 @@
       <c r="L19" s="38"/>
       <c r="N19" s="44" t="str">
         <f t="shared" ref="N19:N26" si="3">IF(B19&lt;&gt;"",",","")&amp;B19</f>
-        <v>,score</v>
+        <v>,seconds</v>
       </c>
       <c r="O19" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3816,11 +3856,11 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="str">
-        <f>IF('AutoLaravel v1'!C49&lt;&gt;"",'AutoLaravel v1'!C49,"")</f>
+        <f>IF('AutoLaravel v1'!C50&lt;&gt;"",'AutoLaravel v1'!C50,"")</f>
         <v/>
       </c>
       <c r="C20" s="33" t="str">
-        <f>IF(B20="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B20)</f>
+        <f>IF(B20="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B20)</f>
         <v/>
       </c>
       <c r="D20" s="33"/>
@@ -3830,11 +3870,11 @@
       </c>
       <c r="F20" s="38"/>
       <c r="H20" s="37" t="str">
-        <f>IF('AutoLaravel v1'!G49&lt;&gt;"",'AutoLaravel v1'!G49,"")</f>
+        <f>IF('AutoLaravel v1'!G50&lt;&gt;"",'AutoLaravel v1'!G50,"")</f>
         <v/>
       </c>
       <c r="I20" s="35" t="str">
-        <f>IF(H20&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H20,"")</f>
+        <f>IF(H20&lt;&gt;"",'AutoLaravel v1'!$D$45&amp;"_"&amp;H20,"")</f>
         <v/>
       </c>
       <c r="J20" s="33"/>
@@ -3854,11 +3894,11 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="str">
-        <f>IF('AutoLaravel v1'!C50&lt;&gt;"",'AutoLaravel v1'!C50,"")</f>
+        <f>IF('AutoLaravel v1'!C51&lt;&gt;"",'AutoLaravel v1'!C51,"")</f>
         <v/>
       </c>
       <c r="C21" s="33" t="str">
-        <f>IF(B21="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B21)</f>
+        <f>IF(B21="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B21)</f>
         <v/>
       </c>
       <c r="D21" s="33"/>
@@ -3868,11 +3908,11 @@
       </c>
       <c r="F21" s="38"/>
       <c r="H21" s="37" t="str">
-        <f>IF('AutoLaravel v1'!G50&lt;&gt;"",'AutoLaravel v1'!G50,"")</f>
+        <f>IF('AutoLaravel v1'!G51&lt;&gt;"",'AutoLaravel v1'!G51,"")</f>
         <v/>
       </c>
       <c r="I21" s="35" t="str">
-        <f>IF(H21&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H21,"")</f>
+        <f>IF(H21&lt;&gt;"",'AutoLaravel v1'!$D$45&amp;"_"&amp;H21,"")</f>
         <v/>
       </c>
       <c r="J21" s="33"/>
@@ -3892,11 +3932,11 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="str">
-        <f>IF('AutoLaravel v1'!C51&lt;&gt;"",'AutoLaravel v1'!C51,"")</f>
+        <f>IF('AutoLaravel v1'!C52&lt;&gt;"",'AutoLaravel v1'!C52,"")</f>
         <v/>
       </c>
       <c r="C22" s="33" t="str">
-        <f>IF(B22="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B22)</f>
+        <f>IF(B22="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B22)</f>
         <v/>
       </c>
       <c r="D22" s="33"/>
@@ -3906,11 +3946,11 @@
       </c>
       <c r="F22" s="38"/>
       <c r="H22" s="37" t="str">
-        <f>IF('AutoLaravel v1'!G51&lt;&gt;"",'AutoLaravel v1'!G51,"")</f>
+        <f>IF('AutoLaravel v1'!G52&lt;&gt;"",'AutoLaravel v1'!G52,"")</f>
         <v/>
       </c>
       <c r="I22" s="35" t="str">
-        <f>IF(H22&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H22,"")</f>
+        <f>IF(H22&lt;&gt;"",'AutoLaravel v1'!$D$45&amp;"_"&amp;H22,"")</f>
         <v/>
       </c>
       <c r="J22" s="33"/>
@@ -3930,11 +3970,11 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="37" t="str">
-        <f>IF('AutoLaravel v1'!C52&lt;&gt;"",'AutoLaravel v1'!C52,"")</f>
+        <f>IF('AutoLaravel v1'!C53&lt;&gt;"",'AutoLaravel v1'!C53,"")</f>
         <v/>
       </c>
       <c r="C23" s="33" t="str">
-        <f>IF(B23="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B23)</f>
+        <f>IF(B23="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B23)</f>
         <v/>
       </c>
       <c r="D23" s="33"/>
@@ -3944,11 +3984,11 @@
       </c>
       <c r="F23" s="38"/>
       <c r="H23" s="37" t="str">
-        <f>IF('AutoLaravel v1'!G52&lt;&gt;"",'AutoLaravel v1'!G52,"")</f>
+        <f>IF('AutoLaravel v1'!G53&lt;&gt;"",'AutoLaravel v1'!G53,"")</f>
         <v/>
       </c>
       <c r="I23" s="35" t="str">
-        <f>IF(H23&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H23,"")</f>
+        <f>IF(H23&lt;&gt;"",'AutoLaravel v1'!$D$45&amp;"_"&amp;H23,"")</f>
         <v/>
       </c>
       <c r="J23" s="33"/>
@@ -3968,11 +4008,11 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="str">
-        <f>IF('AutoLaravel v1'!C53&lt;&gt;"",'AutoLaravel v1'!C53,"")</f>
+        <f>IF('AutoLaravel v1'!C54&lt;&gt;"",'AutoLaravel v1'!C54,"")</f>
         <v/>
       </c>
       <c r="C24" s="33" t="str">
-        <f>IF(B24="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B24)</f>
+        <f>IF(B24="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B24)</f>
         <v/>
       </c>
       <c r="D24" s="33"/>
@@ -3982,11 +4022,11 @@
       </c>
       <c r="F24" s="38"/>
       <c r="H24" s="37" t="str">
-        <f>IF('AutoLaravel v1'!G53&lt;&gt;"",'AutoLaravel v1'!G53,"")</f>
+        <f>IF('AutoLaravel v1'!G54&lt;&gt;"",'AutoLaravel v1'!G54,"")</f>
         <v/>
       </c>
       <c r="I24" s="35" t="str">
-        <f>IF(H24&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H24,"")</f>
+        <f>IF(H24&lt;&gt;"",'AutoLaravel v1'!$D$45&amp;"_"&amp;H24,"")</f>
         <v/>
       </c>
       <c r="J24" s="33"/>
@@ -4006,11 +4046,11 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="str">
-        <f>IF('AutoLaravel v1'!C54&lt;&gt;"",'AutoLaravel v1'!C54,"")</f>
+        <f>IF('AutoLaravel v1'!C55&lt;&gt;"",'AutoLaravel v1'!C55,"")</f>
         <v/>
       </c>
       <c r="C25" s="33" t="str">
-        <f>IF(B25="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B25)</f>
+        <f>IF(B25="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B25)</f>
         <v/>
       </c>
       <c r="D25" s="33"/>
@@ -4020,11 +4060,11 @@
       </c>
       <c r="F25" s="38"/>
       <c r="H25" s="37" t="str">
-        <f>IF('AutoLaravel v1'!G54&lt;&gt;"",'AutoLaravel v1'!G54,"")</f>
+        <f>IF('AutoLaravel v1'!G55&lt;&gt;"",'AutoLaravel v1'!G55,"")</f>
         <v/>
       </c>
       <c r="I25" s="35" t="str">
-        <f>IF(H25&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H25,"")</f>
+        <f>IF(H25&lt;&gt;"",'AutoLaravel v1'!$D$45&amp;"_"&amp;H25,"")</f>
         <v/>
       </c>
       <c r="J25" s="33"/>
@@ -4044,11 +4084,11 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="str">
-        <f>IF('AutoLaravel v1'!C55&lt;&gt;"",'AutoLaravel v1'!C55,"")</f>
+        <f>IF('AutoLaravel v1'!C56&lt;&gt;"",'AutoLaravel v1'!C56,"")</f>
         <v/>
       </c>
       <c r="C26" s="40" t="str">
-        <f>IF(B26="","",'AutoLaravel v1'!$D$44&amp;"_"&amp;B26)</f>
+        <f>IF(B26="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B26)</f>
         <v/>
       </c>
       <c r="D26" s="40"/>
@@ -4058,11 +4098,11 @@
       </c>
       <c r="F26" s="41"/>
       <c r="H26" s="39" t="str">
-        <f>IF('AutoLaravel v1'!G55&lt;&gt;"",'AutoLaravel v1'!G55,"")</f>
+        <f>IF('AutoLaravel v1'!G56&lt;&gt;"",'AutoLaravel v1'!G56,"")</f>
         <v/>
       </c>
       <c r="I26" s="35" t="str">
-        <f>IF(H26&lt;&gt;"",'AutoLaravel v1'!$D$44&amp;"_"&amp;H26,"")</f>
+        <f>IF(H26&lt;&gt;"",'AutoLaravel v1'!$D$45&amp;"_"&amp;H26,"")</f>
         <v/>
       </c>
       <c r="J26" s="40"/>
@@ -4082,22 +4122,22 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="56" t="str">
+      <c r="B30" s="55" t="str">
         <f>IF(C17&lt;&gt;"",$B$3&amp;C17&amp;$B$4&amp;E17&amp;$B$5,"")</f>
-        <v>&lt;input type='text' id='projects_task'&gt;&lt;spam id='projects_task_mssg'&gt;&lt;/spam&gt;</v>
+        <v>&lt;input type='text' id='periods_hours'&gt;&lt;spam id='periods_hours_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="56" t="str">
+      <c r="H30" s="55" t="str">
         <f>IF(I17&lt;&gt;"",$B$3&amp;I17&amp;$B$4&amp;K17&amp;$B$5,"")</f>
-        <v>&lt;input type='text' id='projects_s'&gt;&lt;spam id='projects_s_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
@@ -4106,16 +4146,16 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="56" t="str">
+      <c r="B31" s="55" t="str">
         <f t="shared" ref="B31:B39" si="4">IF(C18&lt;&gt;"",$B$3&amp;C18&amp;$B$4&amp;E18&amp;$B$5,"")</f>
-        <v>&lt;input type='text' id='projects_project_id'&gt;&lt;spam id='projects_project_id_mssg'&gt;&lt;/spam&gt;</v>
+        <v>&lt;input type='text' id='periods_minutes'&gt;&lt;spam id='periods_minutes_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="56" t="str">
+      <c r="H31" s="55" t="str">
         <f t="shared" ref="H31:H39" si="5">IF(I18&lt;&gt;"",$B$3&amp;I18&amp;$B$4&amp;K18&amp;$B$5,"")</f>
         <v/>
       </c>
@@ -4126,16 +4166,16 @@
       <c r="M31" s="32"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="56" t="str">
+      <c r="B32" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;input type='text' id='projects_score'&gt;&lt;spam id='projects_score_mssg'&gt;&lt;/spam&gt;</v>
+        <v>&lt;input type='text' id='periods_seconds'&gt;&lt;spam id='periods_seconds_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
-      <c r="H32" s="56" t="str">
+      <c r="H32" s="55" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -4146,7 +4186,7 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="56" t="str">
+      <c r="B33" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -4155,7 +4195,7 @@
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
-      <c r="H33" s="56" t="str">
+      <c r="H33" s="55" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -4166,7 +4206,7 @@
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="56" t="str">
+      <c r="B34" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -4175,7 +4215,7 @@
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
-      <c r="H34" s="56" t="str">
+      <c r="H34" s="55" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -4186,7 +4226,7 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="56" t="str">
+      <c r="B35" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -4195,7 +4235,7 @@
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
-      <c r="H35" s="56" t="str">
+      <c r="H35" s="55" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -4206,7 +4246,7 @@
       <c r="M35" s="32"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="56" t="str">
+      <c r="B36" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -4215,7 +4255,7 @@
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
-      <c r="H36" s="56" t="str">
+      <c r="H36" s="55" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -4226,7 +4266,7 @@
       <c r="M36" s="32"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="56" t="str">
+      <c r="B37" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -4235,7 +4275,7 @@
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
-      <c r="H37" s="56" t="str">
+      <c r="H37" s="55" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -4246,7 +4286,7 @@
       <c r="M37" s="32"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="56" t="str">
+      <c r="B38" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -4255,7 +4295,7 @@
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
-      <c r="H38" s="56" t="str">
+      <c r="H38" s="55" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -4266,7 +4306,7 @@
       <c r="M38" s="32"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="56" t="str">
+      <c r="B39" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -4275,7 +4315,7 @@
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
-      <c r="H39" s="56" t="str">
+      <c r="H39" s="55" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -4286,134 +4326,148 @@
       <c r="M39" s="32"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="52" t="s">
-        <v>395</v>
-      </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
+      <c r="B41" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="10" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="52" t="s">
-        <v>394</v>
-      </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
+      <c r="B42" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="52" t="s">
-        <v>396</v>
-      </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
+      <c r="B43" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>281</v>
+        <v>270</v>
+      </c>
+      <c r="D46" s="10" t="str">
+        <f>'AutoLaravel v1'!D67&amp;'AutoLaravel v1'!D66</f>
+        <v>ajaxperiods</v>
       </c>
       <c r="E46" s="16" t="str">
         <f>UPPER(LEFT(D46,1))&amp;RIGHT(D46,LEN(D46)-1)</f>
-        <v>Addtask</v>
+        <v>Ajaxperiods</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E47" s="16" t="str">
-        <f>UPPER(LEFT(D47,1))&amp;RIGHT(D47,LEN(D47)-1)</f>
-        <v>Logged</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="D47" s="10" t="str">
+        <f>'AutoLaravel v1'!D67</f>
+        <v>ajax</v>
+      </c>
+      <c r="E47" s="16"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="D48" s="10" t="str">
+        <f>'AutoLaravel v1'!D68</f>
+        <v>runajax</v>
+      </c>
+      <c r="E48" s="16" t="str">
+        <f>UPPER(LEFT(D48,1))&amp;RIGHT(D48,LEN(D48)-1)</f>
+        <v>Runajax</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D49" s="32" t="str">
+        <v>296</v>
+      </c>
+      <c r="D49" s="10" t="str">
+        <f>D46&amp;"_submit"</f>
+        <v>ajaxperiods_submit</v>
+      </c>
+      <c r="F49" s="55" t="str">
+        <f>B6&amp;D46&amp;C1</f>
+        <v>&lt;button class='btn' id='ajaxperiods_submit' &gt;submit&lt;/button&gt;</v>
+      </c>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="32" t="str">
         <f>D47&amp;"/"&amp;D46</f>
-        <v>logged/addtask</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="str">
-        <f>$A$5&amp;D48&amp;A6</f>
-        <v>$('#submit_task').click(function() {</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="32" t="str">
-        <f>IF(B17="","",$A$2&amp;B17&amp;$A$3&amp;B17&amp;$A$4)&amp;IF(B18="","",$A$2&amp;B18&amp;$A$3&amp;B18&amp;$A$4)</f>
-        <v>var task=$('#task').val();var project_id=$('#project_id').val();</v>
+        <v>ajax/ajaxperiods</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="22" t="str">
+        <f>$A$5&amp;D49&amp;A6</f>
+        <v>$('#ajaxperiods_submit').click(function() {</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="55" t="s">
+        <v>385</v>
       </c>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="32" t="str">
-        <f>IF(B19="","",$A$2&amp;B19&amp;$A$3&amp;B19&amp;$A$4)&amp;IF(B20="","",$A$2&amp;B20&amp;$A$3&amp;B20&amp;$A$4)</f>
-        <v>var score=$('#score').val();</v>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="55" t="str">
+        <f>IF(B17="","",$A$2&amp;B17&amp;$A$3&amp;C17&amp;$A$4)&amp;IF(B18="","",$A$2&amp;B18&amp;$A$3&amp;C18&amp;$A$4)</f>
+        <v>var hours=$('#periods_hours').val();var minutes=$('#periods_minutes').val();</v>
       </c>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="32" t="str">
-        <f>IF(B21="","",$A$2&amp;B21&amp;$A$3&amp;B21&amp;$A$4)&amp;IF(B22="","",$A$2&amp;B22&amp;$A$3&amp;B22&amp;$A$4)</f>
-        <v/>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="55" t="str">
+        <f>IF(B19="","",$A$2&amp;B19&amp;$A$3&amp;C19&amp;$A$4)&amp;IF(B20="","",$A$2&amp;B20&amp;$A$3&amp;C20&amp;$A$4)</f>
+        <v>var seconds=$('#periods_seconds').val();</v>
       </c>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
       <c r="F55" s="32"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="32" t="str">
-        <f>IF(B23="","",$A$2&amp;B23&amp;$A$3&amp;B23&amp;$A$4)&amp;IF(B24="","",$A$2&amp;B24&amp;$A$3&amp;B24&amp;$A$4)</f>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="55" t="str">
+        <f>IF(B21="","",$A$2&amp;B21&amp;$A$3&amp;B21&amp;$A$4)&amp;IF(B22="","",$A$2&amp;B22&amp;$A$3&amp;B22&amp;$A$4)</f>
         <v/>
       </c>
       <c r="C56" s="32"/>
@@ -4421,9 +4475,9 @@
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="32" t="str">
-        <f>IF(B25="","",$A$2&amp;B25&amp;$A$3&amp;B25&amp;$A$4)&amp;IF(B26="","",$A$2&amp;B26&amp;$A$3&amp;B26&amp;$A$4)</f>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="55" t="str">
+        <f>IF(B23="","",$A$2&amp;B23&amp;$A$3&amp;B23&amp;$A$4)&amp;IF(B24="","",$A$2&amp;B24&amp;$A$3&amp;B24&amp;$A$4)</f>
         <v/>
       </c>
       <c r="C57" s="32"/>
@@ -4431,19 +4485,19 @@
       <c r="E57" s="32"/>
       <c r="F57" s="32"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="23" t="str">
-        <f>IF(H17="","",$A$2&amp;H17&amp;$A$3&amp;H17&amp;$A$4)&amp;IF(H18="","",$A$2&amp;H18&amp;$A$3&amp;H18&amp;$A$4)</f>
-        <v>var s=$('#s').val();</v>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="55" t="str">
+        <f>IF(B25="","",$A$2&amp;B25&amp;$A$3&amp;B25&amp;$A$4)&amp;IF(B26="","",$A$2&amp;B26&amp;$A$3&amp;B26&amp;$A$4)</f>
+        <v/>
       </c>
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="23" t="str">
-        <f>IF(H19="","",$A$2&amp;H19&amp;$A$3&amp;H19&amp;$A$4)&amp;IF(H20="","",$A$2&amp;H20&amp;$A$3&amp;H20&amp;$A$4)</f>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="56" t="str">
+        <f>IF(H17="","",$A$2&amp;H17&amp;$A$3&amp;H17&amp;$A$4)&amp;IF(H18="","",$A$2&amp;H18&amp;$A$3&amp;H18&amp;$A$4)</f>
         <v/>
       </c>
       <c r="C59" s="32"/>
@@ -4451,9 +4505,9 @@
       <c r="E59" s="32"/>
       <c r="F59" s="32"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="23" t="str">
-        <f>IF(H21="","",$A$2&amp;H21&amp;$A$3&amp;H21&amp;$A$4)&amp;IF(H22="","",$A$2&amp;H22&amp;$A$3&amp;H22&amp;$A$4)</f>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="56" t="str">
+        <f>IF(H19="","",$A$2&amp;H19&amp;$A$3&amp;H19&amp;$A$4)&amp;IF(H20="","",$A$2&amp;H20&amp;$A$3&amp;H20&amp;$A$4)</f>
         <v/>
       </c>
       <c r="C60" s="32"/>
@@ -4461,9 +4515,9 @@
       <c r="E60" s="32"/>
       <c r="F60" s="32"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="23" t="str">
-        <f>IF(H23="","",$A$2&amp;H23&amp;$A$3&amp;H23&amp;$A$4)&amp;IF(H24="","",$A$2&amp;H24&amp;$A$3&amp;H24&amp;$A$4)</f>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="56" t="str">
+        <f>IF(H21="","",$A$2&amp;H21&amp;$A$3&amp;H21&amp;$A$4)&amp;IF(H22="","",$A$2&amp;H22&amp;$A$3&amp;H22&amp;$A$4)</f>
         <v/>
       </c>
       <c r="C61" s="32"/>
@@ -4471,9 +4525,9 @@
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="23" t="str">
-        <f>IF(H25="","",$A$2&amp;H25&amp;$A$3&amp;H25&amp;$A$4)&amp;IF(H26="","",$A$2&amp;H26&amp;$A$3&amp;H26&amp;$A$4)</f>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="56" t="str">
+        <f>IF(H23="","",$A$2&amp;H23&amp;$A$3&amp;H23&amp;$A$4)&amp;IF(H24="","",$A$2&amp;H24&amp;$A$3&amp;H24&amp;$A$4)</f>
         <v/>
       </c>
       <c r="C62" s="32"/>
@@ -4481,145 +4535,268 @@
       <c r="E62" s="32"/>
       <c r="F62" s="32"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="23" t="str">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="56" t="str">
+        <f>IF(H25="","",$A$2&amp;H25&amp;$A$3&amp;H25&amp;$A$4)&amp;IF(H26="","",$A$2&amp;H26&amp;$A$3&amp;H26&amp;$A$4)</f>
+        <v/>
+      </c>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="56" t="str">
         <f>N17&amp;IF(B17&lt;&gt;"",":","")&amp;B17&amp;N18&amp;IF(B18&lt;&gt;"",":","")&amp;B18&amp;N19&amp;IF(B19&lt;&gt;"",":","")&amp;B19&amp;N20&amp;IF(B20&lt;&gt;"",":","")&amp;B20</f>
-        <v>task:task,project_id:project_id,score:score</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="23" t="str">
+        <v>hours:hours,minutes:minutes,seconds:seconds</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="56" t="str">
         <f>N21&amp;IF(B21&lt;&gt;"",":","")&amp;B21&amp;N22&amp;IF(B22&lt;&gt;"",":","")&amp;B22&amp;N23&amp;IF(B23&lt;&gt;"",":","")&amp;B23&amp;N24&amp;IF(B24&lt;&gt;"",":","")&amp;B24</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="23" t="str">
-        <f t="shared" ref="B66" si="6">N25&amp;IF(B25&lt;&gt;"",":","")&amp;B25&amp;N26&amp;IF(B26&lt;&gt;"",":","")&amp;B26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="32" t="str">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="56" t="str">
+        <f t="shared" ref="B67" si="6">N25&amp;IF(B25&lt;&gt;"",":","")&amp;B25&amp;N26&amp;IF(B26&lt;&gt;"",":","")&amp;B26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="55" t="str">
         <f>O17&amp;IF(H17&lt;&gt;"",":","")&amp;H17&amp;O18&amp;IF(H18&lt;&gt;"",":","")&amp;H18&amp;O19&amp;IF(H19&lt;&gt;"",":","")&amp;H19&amp;O20&amp;IF(H20&lt;&gt;"",":","")&amp;H20</f>
-        <v>,s:s</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="55" t="str">
         <f>O21&amp;IF(H21&lt;&gt;"",":","")&amp;H21&amp;O22&amp;IF(H22&lt;&gt;"",":","")&amp;H22&amp;O23&amp;IF(H23&lt;&gt;"",":","")&amp;H23&amp;O24&amp;IF(H24&lt;&gt;"",":","")&amp;H24</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="32" t="str">
-        <f t="shared" ref="B69" si="7">O25&amp;IF(H25&lt;&gt;"",":","")&amp;H25&amp;O26&amp;IF(H26&lt;&gt;"",":","")&amp;H26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="10" t="str">
-        <f>B1&amp;D49&amp;B2</f>
-        <v>var route=base+'/logged/addtask';</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="55" t="str">
+        <f t="shared" ref="B70" si="7">O25&amp;IF(H25&lt;&gt;"",":","")&amp;H25&amp;O26&amp;IF(H26&lt;&gt;"",":","")&amp;H26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="22" t="str">
+        <f>B1&amp;D50&amp;B2</f>
+        <v>var route=base+'/ajax/ajaxperiods';</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D76" s="32" t="str">
-        <f>E47&amp;"Controller"</f>
-        <v>LoggedController</v>
-      </c>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="10" t="s">
-        <v>311</v>
-      </c>
       <c r="D77" s="32" t="str">
-        <f>"public function post"&amp;E46&amp;"() {"</f>
-        <v>public function postAddtask() {</v>
+        <f>E48&amp;"Controller"</f>
+        <v>RunajaxController</v>
       </c>
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D78" s="32" t="str">
-        <f>"$"&amp;B17&amp;"=$_POST['"&amp;B17&amp;"'];"</f>
-        <v>$task=$_POST['task'];</v>
+      <c r="G77" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="H77" s="16" t="str">
+        <f>'AutoLaravel v1'!D45</f>
+        <v>periods</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D78" s="58" t="str">
+        <f>"public function post"&amp;E46&amp;"() {"</f>
+        <v>public function postAjaxperiods() {</v>
       </c>
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D79" s="32" t="str">
-        <f>"$"&amp;B18&amp;"=$_POST['"&amp;B18&amp;"'];"</f>
-        <v>$project_id=$_POST['project_id'];</v>
+      <c r="G78" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H78" s="16" t="str">
+        <f>'AutoLaravel v1'!G45</f>
+        <v>Period</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D79" s="58" t="str">
+        <f>"$"&amp;B17&amp;"=$_POST['"&amp;B17&amp;"'];"</f>
+        <v>$hours=$_POST['hours'];</v>
       </c>
       <c r="E79" s="32"/>
       <c r="F79" s="32"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="32" t="str">
-        <f>"$"&amp;B19&amp;"=$_POST['"&amp;B19&amp;"'];"</f>
-        <v>$score=$_POST['score'];</v>
+      <c r="G79" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="H79" s="16" t="str">
+        <f>"$"&amp;'AutoLaravel v1'!F45</f>
+        <v>$period</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D80" s="58" t="str">
+        <f>"$"&amp;B18&amp;"=$_POST['"&amp;B18&amp;"'];"</f>
+        <v>$minutes=$_POST['minutes'];</v>
       </c>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="32" t="s">
-        <v>403</v>
+      <c r="D81" s="58" t="str">
+        <f>"$"&amp;B19&amp;"=$_POST['"&amp;B19&amp;"'];"</f>
+        <v>$seconds=$_POST['seconds'];</v>
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D82" s="32" t="str">
-        <f>"$"&amp;'AutoLaravel v1'!F44&amp;"=New "&amp;'AutoLaravel v1'!G44&amp;";"</f>
-        <v>$project=New Project;</v>
+      <c r="D82" s="58" t="s">
+        <v>394</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="32"/>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D83" s="32"/>
+      <c r="D83" s="58" t="str">
+        <f>H79&amp;"=New "&amp;H78&amp;";"</f>
+        <v>$period=New Period;</v>
+      </c>
       <c r="E83" s="32"/>
       <c r="F83" s="32"/>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D84" s="32"/>
+      <c r="D84" s="55" t="str">
+        <f>IF(B17&lt;&gt;"",$H$79&amp;$C$2&amp;B17&amp;"=$"&amp;B17&amp;";","")</f>
+        <v>$period-&gt;hours=$hours;</v>
+      </c>
       <c r="E84" s="32"/>
       <c r="F84" s="32"/>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D85" s="32" t="s">
-        <v>39</v>
+      <c r="D85" s="55" t="str">
+        <f t="shared" ref="D85:D93" si="8">IF(B18&lt;&gt;"",$H$79&amp;$C$2&amp;B18&amp;"=$"&amp;B18&amp;";","")</f>
+        <v>$period-&gt;minutes=$minutes;</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="32"/>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>$period-&gt;seconds=$seconds;</v>
+      </c>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D88" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D89" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D90" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D91" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D92" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D93" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D95" s="58" t="str">
+        <f>H79&amp;C2&amp;"save();"</f>
+        <v>$period-&gt;save();</v>
+      </c>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D96" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4629,10 +4806,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2700" topLeftCell="A69" activePane="bottomLeft"/>
+      <selection activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4642,28 +4821,34 @@
     <col min="8" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>162</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>163</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>146</v>
       </c>
@@ -4671,7 +4856,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>127</v>
       </c>
@@ -4679,9 +4864,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>128</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4707,7 +4895,7 @@
         <v>161</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>252</v>
+        <v>399</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -4715,9 +4903,8 @@
       <c r="B14" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="23" t="str">
-        <f>A1&amp;C13&amp;A2</f>
-        <v>composer create-project laravel/laravel fsample --prefer-dist</v>
+      <c r="C14" s="23" t="s">
+        <v>398</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -4729,8 +4916,8 @@
         <v>126</v>
       </c>
       <c r="C15" s="23" t="str">
-        <f>"cd "&amp;C13</f>
-        <v>cd fsample</v>
+        <f>A1&amp;C13&amp;A2</f>
+        <v>composer create-project laravel/laravel afields --prefer-dist</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -4741,8 +4928,9 @@
       <c r="B16" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>8</v>
+      <c r="C16" s="23" t="str">
+        <f>"cd "&amp;C13</f>
+        <v>cd afields</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -4754,344 +4942,317 @@
         <v>126</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="25" t="s">
-        <v>200</v>
-      </c>
-    </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" s="22"/>
+      <c r="C23" s="25" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
-        <v>54</v>
-      </c>
+      <c r="C24" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C29" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="25"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25" t="s">
-        <v>69</v>
-      </c>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="25"/>
       <c r="C33" s="25" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="25"/>
       <c r="C34" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="25"/>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="25"/>
+      <c r="C36" s="28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="25" t="s">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="25"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="F39" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="C37" s="25"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="F40" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="M40" s="16" t="s">
-        <v>144</v>
+      <c r="F40" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="F41" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="F41" s="10" t="s">
+      <c r="D42" s="9"/>
+      <c r="F42" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M41" s="16" t="str">
-        <f>IF(SUM(J46:K55)&gt;0,B2&amp;P55&amp;Q55&amp;B3,"")</f>
-        <v>--fields="task:string,project_id:string,score:string"</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>101</v>
+      <c r="M42" s="16" t="str">
+        <f>IF(SUM(J47:K56)&gt;0,B2&amp;P56&amp;Q56&amp;B3,"")</f>
+        <v>--fields="hours:string,minutes:string,seconds:integer"</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="F44" s="16" t="str">
-        <f>LEFT(D44,LEN(D44)-1)</f>
-        <v>project</v>
-      </c>
-      <c r="G44" s="16" t="str">
-        <f>UPPER(LEFT(F44,1))&amp;RIGHT(F44,LEN(F44)-1)</f>
-        <v>Project</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="F45" s="16" t="str">
+        <f>LEFT(D45,LEN(D45)-1)</f>
+        <v>period</v>
+      </c>
+      <c r="G45" s="16" t="str">
+        <f>UPPER(LEFT(F45,1))&amp;RIGHT(F45,LEN(F45)-1)</f>
+        <v>Period</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G46" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="J45" s="16" t="s">
+      <c r="J46" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="K45" s="16"/>
-      <c r="M45" s="16" t="s">
+      <c r="K46" s="16"/>
+      <c r="M46" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="N45" s="16" t="s">
+      <c r="N46" s="16" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="J46" s="16">
-        <f>IF(C46="",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K46" s="16">
-        <f>IF(G46="",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="N46" s="16" t="str">
-        <f>IF(AND(C46&lt;&gt;"",D46&lt;&gt;""),IF(N45="concatenator1","",",")&amp;C46&amp;":"&amp;D46,"")</f>
-        <v>task:string</v>
-      </c>
-      <c r="O46" s="16" t="str">
-        <f>IF(AND(G46&lt;&gt;"",H46&lt;&gt;""),","&amp;G46&amp;":"&amp;H46,"")</f>
-        <v/>
-      </c>
-      <c r="P46" s="16" t="str">
-        <f>P45&amp;N46</f>
-        <v>task:string</v>
-      </c>
-      <c r="Q46" s="16" t="str">
-        <f>Q45&amp;O46</f>
-        <v/>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>134</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="J47" s="16">
-        <f t="shared" ref="J47:J55" si="0">IF(C47="",0,1)</f>
+        <f>IF(C47="",0,1)</f>
         <v>1</v>
       </c>
       <c r="K47" s="16">
-        <f t="shared" ref="K47:K55" si="1">IF(G47="",0,1)</f>
+        <f>IF(G47="",0,1)</f>
         <v>0</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N47" s="16" t="str">
-        <f t="shared" ref="N47:N55" si="2">IF(AND(C47&lt;&gt;"",D47&lt;&gt;""),IF(N46="concatenator1","",",")&amp;C47&amp;":"&amp;D47,"")</f>
-        <v>,project_id:string</v>
+        <f>IF(AND(C47&lt;&gt;"",D47&lt;&gt;""),IF(N46="concatenator1","",",")&amp;C47&amp;":"&amp;D47,"")</f>
+        <v>hours:string</v>
       </c>
       <c r="O47" s="16" t="str">
-        <f t="shared" ref="O47:O55" si="3">IF(AND(G47&lt;&gt;"",H47&lt;&gt;""),","&amp;G47&amp;":"&amp;H47,"")</f>
+        <f>IF(AND(G47&lt;&gt;"",H47&lt;&gt;""),","&amp;G47&amp;":"&amp;H47,"")</f>
         <v/>
       </c>
       <c r="P47" s="16" t="str">
-        <f t="shared" ref="P47:P55" si="4">P46&amp;N47</f>
-        <v>task:string,project_id:string</v>
+        <f>P46&amp;N47</f>
+        <v>hours:string</v>
       </c>
       <c r="Q47" s="16" t="str">
-        <f t="shared" ref="Q47:Q55" si="5">Q46&amp;O47</f>
+        <f>Q46&amp;O47</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>134</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="J48" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J48:J56" si="0">IF(C48="",0,1)</f>
         <v>1</v>
       </c>
       <c r="K48" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K48:K56" si="1">IF(G48="",0,1)</f>
         <v>0</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N48" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>,score:string</v>
+        <f t="shared" ref="N48:N56" si="2">IF(AND(C48&lt;&gt;"",D48&lt;&gt;""),IF(N47="concatenator1","",",")&amp;C48&amp;":"&amp;D48,"")</f>
+        <v>,minutes:string</v>
       </c>
       <c r="O48" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O48:O56" si="3">IF(AND(G48&lt;&gt;"",H48&lt;&gt;""),","&amp;G48&amp;":"&amp;H48,"")</f>
         <v/>
       </c>
       <c r="P48" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>task:string,project_id:string,score:string</v>
+        <f t="shared" ref="P48:P56" si="4">P47&amp;N48</f>
+        <v>hours:string,minutes:string</v>
       </c>
       <c r="Q48" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="Q48:Q56" si="5">Q47&amp;O48</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="F49" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="J49" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M49" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N49" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,seconds:integer</v>
       </c>
       <c r="O49" s="16" t="str">
         <f t="shared" si="3"/>
@@ -5099,7 +5260,7 @@
       </c>
       <c r="P49" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project_id:string,score:string</v>
+        <v>hours:string,minutes:string,seconds:integer</v>
       </c>
       <c r="Q49" s="16" t="str">
         <f t="shared" si="5"/>
@@ -5108,12 +5269,12 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="F50" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -5126,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N50" s="16" t="str">
         <f t="shared" si="2"/>
@@ -5138,7 +5299,7 @@
       </c>
       <c r="P50" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project_id:string,score:string</v>
+        <v>hours:string,minutes:string,seconds:integer</v>
       </c>
       <c r="Q50" s="16" t="str">
         <f t="shared" si="5"/>
@@ -5147,12 +5308,12 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="F51" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -5165,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N51" s="16" t="str">
         <f t="shared" si="2"/>
@@ -5177,7 +5338,7 @@
       </c>
       <c r="P51" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project_id:string,score:string</v>
+        <v>hours:string,minutes:string,seconds:integer</v>
       </c>
       <c r="Q51" s="16" t="str">
         <f t="shared" si="5"/>
@@ -5186,12 +5347,12 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="F52" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -5204,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N52" s="16" t="str">
         <f t="shared" si="2"/>
@@ -5216,7 +5377,7 @@
       </c>
       <c r="P52" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project_id:string,score:string</v>
+        <v>hours:string,minutes:string,seconds:integer</v>
       </c>
       <c r="Q52" s="16" t="str">
         <f t="shared" si="5"/>
@@ -5225,12 +5386,12 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="F53" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -5243,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N53" s="16" t="str">
         <f t="shared" si="2"/>
@@ -5255,7 +5416,7 @@
       </c>
       <c r="P53" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project_id:string,score:string</v>
+        <v>hours:string,minutes:string,seconds:integer</v>
       </c>
       <c r="Q53" s="16" t="str">
         <f t="shared" si="5"/>
@@ -5264,12 +5425,12 @@
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="F54" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -5282,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N54" s="16" t="str">
         <f t="shared" si="2"/>
@@ -5294,7 +5455,7 @@
       </c>
       <c r="P54" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project_id:string,score:string</v>
+        <v>hours:string,minutes:string,seconds:integer</v>
       </c>
       <c r="Q54" s="16" t="str">
         <f t="shared" si="5"/>
@@ -5303,12 +5464,12 @@
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="F55" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -5321,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N55" s="16" t="str">
         <f t="shared" si="2"/>
@@ -5333,37 +5494,64 @@
       </c>
       <c r="P55" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project_id:string,score:string</v>
+        <v>hours:string,minutes:string,seconds:integer</v>
       </c>
       <c r="Q55" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="F56" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="J56" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N56" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O56" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P56" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>hours:string,minutes:string,seconds:integer</v>
+      </c>
+      <c r="Q56" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="23" t="str">
-        <f>A4&amp;A5&amp;A6&amp;D44&amp;B1&amp;M41</f>
-        <v>php artisan generate:migration create_projects_table --fields="task:string,project_id:string,score:string"</v>
-      </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="23" t="s">
-        <v>84</v>
+      <c r="C60" s="23" t="str">
+        <f>A4&amp;A5&amp;A6&amp;D45&amp;B1&amp;M42</f>
+        <v>php artisan generate:migration create_periods_table --fields="hours:string,minutes:string,seconds:integer"</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
@@ -5374,182 +5562,223 @@
       <c r="B61" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="23" t="str">
-        <f>A4&amp;B4&amp;G44</f>
-        <v>php artisan generate:model Project</v>
+      <c r="C61" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="21" t="s">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="23" t="str">
+        <f>A4&amp;B4&amp;G45</f>
+        <v>php artisan generate:model Period</v>
+      </c>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="G65" s="22" t="str">
-        <f>"app/views/"&amp;D66</f>
-        <v>app/views/user</v>
-      </c>
-      <c r="H65" s="22"/>
+      <c r="G65" s="10" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>167</v>
+        <v>415</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G66" s="22" t="str">
-        <f>D65&amp;".blade.php"</f>
-        <v>newuser.blade.php</v>
-      </c>
+        <f>"app/views/"&amp;D67</f>
+        <v>app/views/ajax</v>
+      </c>
+      <c r="H66" s="22"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G67" s="22" t="str">
+        <f>D66&amp;".blade.php"</f>
+        <v>periods.blade.php</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="F67" s="24" t="s">
+      <c r="D68" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="F68" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G67" s="16" t="str">
-        <f>UPPER(LEFT(D67,1))&amp;RIGHT(D67,LEN(D67)-1)&amp;"Controller"</f>
-        <v>LoggedController</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="23" t="s">
+      <c r="G68" s="16" t="str">
+        <f>UPPER(LEFT(D68,1))&amp;RIGHT(D68,LEN(D68)-1)&amp;"Controller"</f>
+        <v>RunajaxController</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="23" t="str">
-        <f>A4&amp;B5&amp;G67</f>
-        <v>php artisan generate:controller LoggedController</v>
-      </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
+      <c r="C69" s="23" t="str">
+        <f>A4&amp;B5&amp;G68</f>
+        <v>php artisan generate:controller RunajaxController</v>
+      </c>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C70" s="10" t="s">
+      <c r="D70" s="10" t="str">
+        <f>D66</f>
+        <v>periods</v>
+      </c>
+      <c r="G70" s="16" t="str">
+        <f>UPPER(LEFT(D70,1))&amp;RIGHT(D70,LEN(D70)-1)</f>
+        <v>Periods</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D70" s="10" t="str">
-        <f>" app/Controllers/"&amp;G67&amp;".php"</f>
-        <v xml:space="preserve"> app/Controllers/LoggedController.php</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D71" s="22" t="str">
-        <f>"public function "&amp;D69&amp;"() {"</f>
-        <v>public function newuser() {</v>
+      <c r="D71" s="10" t="str">
+        <f>" app/Controllers/"&amp;G68&amp;".php"</f>
+        <v xml:space="preserve"> app/Controllers/RunajaxController.php</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D72" s="22" t="str">
-        <f>"    Return View::make('"&amp;D66&amp;IF(D66&lt;&gt;"",".","")&amp;D65&amp;"'"&amp;");"</f>
-        <v xml:space="preserve">    Return View::make('user.newuser');</v>
+        <f>"public function get"&amp;G70&amp;"() {"</f>
+        <v>public function getPeriods() {</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="22" t="str">
+        <f>"    Return View::make('"&amp;D67&amp;IF(D67&lt;&gt;"",".","")&amp;D66&amp;"'"&amp;");"</f>
+        <v xml:space="preserve">    Return View::make('ajax.periods');</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D74" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="C75" s="16"/>
+      <c r="D75" s="16" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D75" s="22" t="str">
-        <f>"Route::get('"&amp;D65&amp;"','"&amp;G67&amp;"@"&amp;D69&amp;"');"</f>
-        <v>Route::get('newuser','LoggedController@newuser');</v>
-      </c>
+      <c r="F75" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16" t="str">
+        <f>"Route::get('"&amp;D66&amp;"','"&amp;G68&amp;"@"&amp;D70&amp;"');"</f>
+        <v>Route::get('periods','RunajaxController@periods');</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D77" s="22"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>389</v>
-      </c>
+      <c r="D79" s="22" t="str">
+        <f>B6&amp;D67&amp;C1&amp;G68&amp;C2</f>
+        <v>Route::controller('ajax','RunajaxController');</v>
+      </c>
+      <c r="H79" s="29"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="D81" s="10" t="s">
+      <c r="H80" s="29"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="23" t="s">
+      <c r="E85" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C82" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
+      <c r="C86" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D55 H46:H55">
-      <formula1>$M$46:$M$55</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47:D56 H47:H56">
+      <formula1>$M$47:$M$56</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5561,7 +5790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5572,61 +5801,61 @@
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D9" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D11" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -5654,7 +5883,7 @@
         <v>126</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -5663,83 +5892,83 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="30" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="22" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D23" s="22"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" s="22" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" s="22" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C33" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C34" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -5767,132 +5996,132 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -5903,92 +6132,92 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C38" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C39" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C40" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C41" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C42" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -6001,7 +6230,7 @@
   <dimension ref="B3:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6011,85 +6240,85 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D19" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6114,58 +6343,58 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>268</v>
+        <v>262</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D11" s="22" t="str">
         <f>A1&amp;D7&amp;A2&amp;D9&amp;A3</f>
@@ -6175,31 +6404,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>281</v>
+      <c r="B15" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>276</v>
       </c>
       <c r="D15" s="22" t="str">
         <f>$B$1&amp;B15&amp;UPPER(LEFT(C15,1))&amp;RIGHT(C15,LEN(C15)-1)&amp;$B$2</f>
@@ -6215,11 +6444,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>281</v>
+      <c r="B16" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>276</v>
       </c>
       <c r="D16" s="22" t="str">
         <f>$B$1&amp;B16&amp;UPPER(LEFT(C16,1))&amp;RIGHT(C16,LEN(C16)-1)&amp;$B$2</f>
@@ -6230,7 +6459,7 @@
         <v>alejo/addtask</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -6253,12 +6482,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/php code libraries/Laravel DRY v1.xlsx
+++ b/php code libraries/Laravel DRY v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="FormGeneratorV1" sheetId="12" r:id="rId3"/>
     <sheet name="AutoLaravel v1" sheetId="6" r:id="rId4"/>
     <sheet name="laravelAuth v1" sheetId="7" r:id="rId5"/>
-    <sheet name="Laravel mail v1" sheetId="10" r:id="rId6"/>
-    <sheet name="HTML template v1" sheetId="8" r:id="rId7"/>
+    <sheet name="HTML template v1" sheetId="8" r:id="rId6"/>
+    <sheet name="Laravel mail v1" sheetId="10" r:id="rId7"/>
     <sheet name="Controller generator" sheetId="11" r:id="rId8"/>
-    <sheet name="error ptscreen" sheetId="9" r:id="rId9"/>
-    <sheet name="table relations v1" sheetId="13" r:id="rId10"/>
-    <sheet name="Relations2" sheetId="14" r:id="rId11"/>
+    <sheet name="table relations v1" sheetId="13" r:id="rId9"/>
+    <sheet name="Relations2" sheetId="14" r:id="rId10"/>
+    <sheet name="error ptscreen" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="467">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -1289,9 +1289,6 @@
     <t>'}}</t>
   </si>
   <si>
-    <t>INFO: ONE OF THE EASIEST WAY OF MANIPULATING LARAVEL ORM MODELS</t>
-  </si>
-  <si>
     <t>IS WITH "Model::find($id)". TRY TO USE IT AS STANDARD METHOD.</t>
   </si>
   <si>
@@ -1572,13 +1569,160 @@
   </si>
   <si>
     <t>seconds</t>
+  </si>
+  <si>
+    <t>METHOD FOR COUNTING ITEMS FROM A TABLE WHEN CONDITION IS IN ANOTHER TABLE</t>
+  </si>
+  <si>
+    <t>CONDITIONS</t>
+  </si>
+  <si>
+    <t>First table (items to be counted) must belong to second (condition)</t>
+  </si>
+  <si>
+    <t>Remember to set relations (see table relations v1)</t>
+  </si>
+  <si>
+    <t>Table with items</t>
+  </si>
+  <si>
+    <t>Table with conditions</t>
+  </si>
+  <si>
+    <t>variable prefix</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>Column with condition</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>$logged</t>
+  </si>
+  <si>
+    <t>USE A VARIABLE, PUT INSIDE IT WHOLE CONDITION</t>
+  </si>
+  <si>
+    <t>-&gt;count();</t>
+  </si>
+  <si>
+    <t>INFO: THE EASIEST WAY OF MANIPULATING LARAVEL ORM MODELS</t>
+  </si>
+  <si>
+    <t>METHOD FOR RETRIEVING INFORMATION FROM TABLE CONDITIONED BY TWO OTHER TABLES</t>
+  </si>
+  <si>
+    <t>THAT CONTAIN FILTERS PARAMETERS</t>
+  </si>
+  <si>
+    <t>name of table with information</t>
+  </si>
+  <si>
+    <t>First table with condition</t>
+  </si>
+  <si>
+    <t>Second table with condition</t>
+  </si>
+  <si>
+    <t>projectpermissions</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>Inside controller</t>
+  </si>
+  <si>
+    <t>-&gt;with('</t>
+  </si>
+  <si>
+    <t>::orderBy('</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>Order by column</t>
+  </si>
+  <si>
+    <t>Ascendent or Descendent asc/desc</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>')-&gt;get())</t>
+  </si>
+  <si>
+    <t>Inside the view (filename.blade.php)</t>
+  </si>
+  <si>
+    <t>@foreach($</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;?php</t>
+  </si>
+  <si>
+    <t>$filter</t>
+  </si>
+  <si>
+    <t>=$value-&gt;</t>
+  </si>
+  <si>
+    <t>Column with filter</t>
+  </si>
+  <si>
+    <t>@if(isset(</t>
+  </si>
+  <si>
+    <t>@ else if(isset(</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Auth::user()-&gt;email</t>
+  </si>
+  <si>
+    <t>@if(</t>
+  </si>
+  <si>
+    <t>@endforeach</t>
+  </si>
+  <si>
+    <t>','=',</t>
+  </si>
+  <si>
+    <t>Column linked to first table</t>
+  </si>
+  <si>
+    <t>-&gt;where('</t>
+  </si>
+  <si>
+    <t>)-&gt;first();</t>
+  </si>
+  <si>
+    <t>?&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> as $value) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           iterate html code with double curly brackets for retrieving table value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           example {{$value-&gt;score}} (if "name" is a column of desired main table) &lt;br&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1749,8 +1893,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1802,6 +1954,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,7 +2144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2046,6 +2204,7 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2741,550 +2900,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H85"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="16" t="str">
-        <f>UPPER(LEFT(B19,1))&amp;RIGHT(B19,LEN(B19)-1)</f>
-        <v>Projects</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="50" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="str">
-        <f>A1&amp;D192&amp;A2&amp;B21&amp;A3</f>
-        <v>$id=::where('p_owner','=',$user)-&gt;get(['id']);</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
-        <v>318</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="50" t="str">
-        <f>"$"&amp;LEFT(B19,LEN(B19)-1)&amp;"="&amp;LEFT(D19,LEN(D19)-1)&amp;A4</f>
-        <v>$project=Project::find($id);</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="16" t="str">
-        <f>LEFT(D34,LEN(D34)-1)</f>
-        <v>project</v>
-      </c>
-      <c r="G34" s="16" t="str">
-        <f>UPPER(LEFT(F34,1))&amp;RIGHT(F34,LEN(F34)-1)</f>
-        <v>Project</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="16" t="str">
-        <f>LEFT(D36,LEN(D36)-1)</f>
-        <v>thetask</v>
-      </c>
-      <c r="G36" s="16" t="str">
-        <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
-        <v>Thetask</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="21" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D42" s="22" t="str">
-        <f>F34&amp;"_id"</f>
-        <v>project_id</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="54" t="str">
-        <f>C2&amp;G34&amp;".php"</f>
-        <v>//app/models/Project.php</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D46" s="22" t="str">
-        <f>C3&amp;F36&amp;C4</f>
-        <v>public function thetask () {</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D47" s="22" t="str">
-        <f>C5&amp;G36&amp;"');"</f>
-        <v>return $this-&gt;hasMany('Thetask');</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D48" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="54" t="str">
-        <f>C2&amp;G36&amp;".php"</f>
-        <v>//app/models/Thetask.php</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D52" s="22" t="str">
-        <f>C3&amp;F34&amp;C4</f>
-        <v>public function project () {</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="22" t="str">
-        <f>D1&amp;G34&amp;"');"</f>
-        <v>return $this-&gt;belongsTo('Project');</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D54" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="22" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D60" s="22" t="str">
-        <f>"$"&amp;F34&amp;A5</f>
-        <v>$project=Project::all();</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D61" s="22" t="str">
-        <f>B1&amp;"$"&amp;F34&amp;B2</f>
-        <v>foreach ($project as $value){</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="22" t="str">
-        <f>"     "&amp;B3&amp;G34&amp;B4</f>
-        <v xml:space="preserve">     $row=Project::find($value-&gt;id);</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D63" s="22" t="str">
-        <f>"     "&amp;B5&amp;D35&amp;";"</f>
-        <v xml:space="preserve">     $owner=$value-&gt;p_owner;</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D64" s="22" t="str">
-        <f>"     "&amp;C1&amp;F36&amp;";"</f>
-        <v xml:space="preserve">     $allowed=$row-&gt;thetask;</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="22" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="22" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="22" t="str">
-        <f>"          "&amp;D2&amp;D37&amp;D3</f>
-        <v xml:space="preserve">          @if($allowed[0]['email']==$user)</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="22" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="22" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D77" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D79" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84" s="22" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D85" s="22" t="s">
-        <v>376</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,19 +2913,48 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>396</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>397</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3594,7 +3242,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -3621,7 +3269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
@@ -3635,10 +3283,10 @@
         <v>291</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3649,7 +3297,7 @@
         <v>303</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3657,7 +3305,7 @@
         <v>294</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3665,7 +3313,7 @@
         <v>295</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3673,7 +3321,7 @@
         <v>293</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3681,7 +3329,7 @@
         <v>297</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -4122,7 +3770,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -4327,7 +3975,7 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="57" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
@@ -4335,12 +3983,12 @@
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
       <c r="H41" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C42" s="57"/>
       <c r="D42" s="57"/>
@@ -4350,7 +3998,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="57"/>
@@ -4378,7 +4026,7 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D47" s="10" t="str">
         <f>'AutoLaravel v1'!D67</f>
@@ -4438,7 +4086,7 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
@@ -4618,7 +4266,7 @@
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
       <c r="G77" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H77" s="16" t="str">
         <f>'AutoLaravel v1'!D45</f>
@@ -4636,7 +4284,7 @@
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
       <c r="G78" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H78" s="16" t="str">
         <f>'AutoLaravel v1'!G45</f>
@@ -4651,7 +4299,7 @@
       <c r="E79" s="32"/>
       <c r="F79" s="32"/>
       <c r="G79" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H79" s="16" t="str">
         <f>"$"&amp;'AutoLaravel v1'!F45</f>
@@ -4676,7 +4324,7 @@
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D82" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="32"/>
@@ -4771,7 +4419,7 @@
     </row>
     <row r="94" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D94" s="58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="32"/>
@@ -4786,7 +4434,7 @@
     </row>
     <row r="96" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D96" s="58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="32"/>
@@ -4809,7 +4457,7 @@
   <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2700" topLeftCell="A69" activePane="bottomLeft"/>
+      <pane ySplit="2700" activePane="bottomLeft"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft" activeCell="D72" sqref="D72:D74"/>
     </sheetView>
@@ -4869,7 +4517,7 @@
         <v>128</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4895,7 +4543,7 @@
         <v>161</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -4904,7 +4552,7 @@
         <v>126</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -5055,7 +4703,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D40" s="9"/>
       <c r="F40" s="10" t="s">
@@ -5103,7 +4751,7 @@
         <v>102</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F45" s="16" t="str">
         <f>LEFT(D45,LEN(D45)-1)</f>
@@ -5143,7 +4791,7 @@
         <v>103</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>134</v>
@@ -5186,7 +4834,7 @@
         <v>104</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>134</v>
@@ -5229,7 +4877,7 @@
         <v>105</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>133</v>
@@ -5596,7 +5244,7 @@
         <v>149</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F66" s="20" t="s">
         <v>184</v>
@@ -5612,7 +5260,7 @@
         <v>150</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F67" s="20" t="s">
         <v>183</v>
@@ -5627,7 +5275,7 @@
         <v>155</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F68" s="24" t="s">
         <v>156</v>
@@ -5698,7 +5346,7 @@
         <v>160</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
@@ -5714,7 +5362,7 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
@@ -5729,7 +5377,7 @@
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
@@ -5737,26 +5385,26 @@
         <v>189</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
@@ -5764,7 +5412,7 @@
         <v>126</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
@@ -5790,7 +5438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5984,248 +5632,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="27" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="27" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="27" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="22" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E22"/>
   <sheetViews>
@@ -6319,6 +5725,248 @@
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -6469,29 +6117,979 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A15"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>200</v>
+    <row r="1" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="16" t="str">
+        <f>UPPER(LEFT(B19,1))&amp;RIGHT(B19,LEN(B19)-1)</f>
+        <v>Projects</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="50" t="str">
+        <f>A1&amp;D206&amp;A2&amp;B21&amp;A3</f>
+        <v>$id=::where('p_owner','=',$user)-&gt;get(['id']);</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="50" t="str">
+        <f>"$"&amp;LEFT(B19,LEN(B19)-1)&amp;"="&amp;LEFT(D19,LEN(D19)-1)&amp;A4</f>
+        <v>$project=Project::find($id);</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="16" t="str">
+        <f>LEFT(D34,LEN(D34)-1)</f>
+        <v>project</v>
+      </c>
+      <c r="G34" s="16" t="str">
+        <f>UPPER(LEFT(F34,1))&amp;RIGHT(F34,LEN(F34)-1)</f>
+        <v>Project</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="16" t="str">
+        <f>LEFT(D36,LEN(D36)-1)</f>
+        <v>thetask</v>
+      </c>
+      <c r="G36" s="16" t="str">
+        <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
+        <v>Thetask</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42" s="22" t="str">
+        <f>F34&amp;"_id"</f>
+        <v>project_id</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="54" t="str">
+        <f>C2&amp;G34&amp;".php"</f>
+        <v>//app/models/Project.php</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D46" s="22" t="str">
+        <f>C3&amp;F36&amp;C4</f>
+        <v>public function thetask () {</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D47" s="22" t="str">
+        <f>C5&amp;G36&amp;"');"</f>
+        <v>return $this-&gt;hasMany('Thetask');</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D48" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="54" t="str">
+        <f>C2&amp;G36&amp;".php"</f>
+        <v>//app/models/Thetask.php</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="22" t="str">
+        <f>C3&amp;F34&amp;C4</f>
+        <v>public function project () {</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="22" t="str">
+        <f>D1&amp;G34&amp;"');"</f>
+        <v>return $this-&gt;belongsTo('Project');</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D60" s="22" t="str">
+        <f>"$"&amp;F34&amp;A5</f>
+        <v>$project=Project::all();</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="22" t="str">
+        <f>B1&amp;"$"&amp;F34&amp;B2</f>
+        <v>foreach ($project as $value){</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="22" t="str">
+        <f>"     "&amp;B3&amp;G34&amp;B4</f>
+        <v xml:space="preserve">     $row=Project::find($value-&gt;id);</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="22" t="str">
+        <f>"     "&amp;B5&amp;D35&amp;";"</f>
+        <v xml:space="preserve">     $owner=$value-&gt;p_owner;</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="22" t="str">
+        <f>"     "&amp;C1&amp;F36&amp;";"</f>
+        <v xml:space="preserve">     $allowed=$row-&gt;thetask;</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="22" t="str">
+        <f>"          "&amp;D2&amp;D37&amp;D3</f>
+        <v xml:space="preserve">          @if($allowed[0]['email']==$user)</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D84" s="22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E95" s="16" t="str">
+        <f>LEFT(C95,LEN(C95)-1)</f>
+        <v>thetask</v>
+      </c>
+      <c r="F95" s="16" t="str">
+        <f>UPPER(LEFT(E95,1))&amp;RIGHT(E95,LEN(E95)-1)</f>
+        <v>Thetask</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E96" s="16" t="str">
+        <f>LEFT(C96,LEN(C96)-1)</f>
+        <v>project</v>
+      </c>
+      <c r="F96" s="16" t="str">
+        <f>UPPER(LEFT(E96,1))&amp;RIGHT(E96,LEN(E96)-1)</f>
+        <v>Project</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="22" t="str">
+        <f>"$"&amp;C100&amp;C95&amp;"="&amp;F96&amp;"::has('"&amp;E95&amp;"')"</f>
+        <v>$ownthetasks=Project::has('thetask')</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="22" t="str">
+        <f>"-&gt;where('"&amp;C97&amp;"','=',"&amp;C98&amp;")"</f>
+        <v>-&gt;where('p_owner','=',$logged)</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="27" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="B108" s="59"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="59"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F109" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D110" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="E110" s="52"/>
+      <c r="F110" s="16" t="str">
+        <f>LEFT(D110,LEN(D110)-1)</f>
+        <v>thetask</v>
+      </c>
+      <c r="G110" s="16" t="str">
+        <f>UPPER(LEFT(F110,1))&amp;RIGHT(F110,LEN(F110)-1)</f>
+        <v>Thetask</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D111" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="E111" s="52"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D112" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="E112" s="52"/>
+      <c r="F112" s="16" t="str">
+        <f>LEFT(D112,LEN(D112)-1)</f>
+        <v>project</v>
+      </c>
+      <c r="G112" s="16" t="str">
+        <f>UPPER(LEFT(F112,1))&amp;RIGHT(F112,LEN(F112)-1)</f>
+        <v>Project</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D113" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="E113" s="52"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D114" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="E114" s="52"/>
+      <c r="F114" s="16" t="str">
+        <f>LEFT(D114,LEN(D114)-1)</f>
+        <v>projectpermission</v>
+      </c>
+      <c r="G114" s="16" t="str">
+        <f>UPPER(LEFT(F114,1))&amp;RIGHT(F114,LEN(F114)-1)</f>
+        <v>Projectpermission</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D115" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E115" s="52"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D116" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="E116" s="52"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D117" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="E117" s="52"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D118" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="E118" s="52"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="22" t="str">
+        <f>D4&amp;F110&amp;"',"&amp;G110&amp;D5&amp;D117&amp;E1&amp;D118&amp;E2</f>
+        <v>-&gt;with('thetask',Thetask::orderBy('score','desc')-&gt;get())</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="29"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="22" t="str">
+        <f>E3&amp;F110&amp;E4</f>
+        <v xml:space="preserve">@foreach($thetask as $value) </v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="22" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="22" t="str">
+        <f>"     "&amp;E5&amp;G110&amp;F1</f>
+        <v xml:space="preserve">     $id=Thetask::find($value-&gt;id);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="22" t="str">
+        <f>"     "&amp;F2&amp;F112&amp;F3&amp;F112&amp;";"</f>
+        <v xml:space="preserve">     $filterproject=$value-&gt;project;</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="22" t="str">
+        <f>"     "&amp;F2&amp;F112&amp;"id="&amp;F2&amp;F112&amp;"-&gt;id;"</f>
+        <v xml:space="preserve">     $filterprojectid=$filterproject-&gt;id;</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="22" t="str">
+        <f>"     "&amp;F2&amp;F114&amp;"="&amp;G114&amp;G2&amp;D115&amp;G3&amp;F2&amp;")"</f>
+        <v xml:space="preserve">     $filterprojectpermission=Projectpermission::where('email','=',$filter)</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="22" t="str">
+        <f>"     "&amp;G4&amp;D116&amp;G3&amp;F2&amp;F112&amp;"id"&amp;G5</f>
+        <v xml:space="preserve">     -&gt;where('project_id','=',$filterprojectid)-&gt;first();</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="22"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="22" t="str">
+        <f>"     @if("&amp;F2&amp;F114&amp;"['"&amp;D115&amp;"']=="&amp;F2&amp;")"</f>
+        <v xml:space="preserve">     @if($filterprojectpermission['email']==$filter)</v>
+      </c>
+      <c r="G134" s="29"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="22" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="22" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="22"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="22" t="str">
+        <f>"     @endif"</f>
+        <v xml:space="preserve">     @endif</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="22"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="22" t="str">
+        <f>"        "&amp;F4&amp;F2&amp;F112&amp;"-&gt;"&amp;D113&amp;"))"</f>
+        <v xml:space="preserve">        @if(isset($filterproject-&gt;p_owner))</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="22" t="str">
+        <f>"           "&amp;G1&amp;F2&amp;"=="&amp;F2&amp;F112&amp;"-&gt;"&amp;D113&amp;")"</f>
+        <v xml:space="preserve">           @if($filter==$filterproject-&gt;p_owner)</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="22" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="22" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="22" t="str">
+        <f>"           @endif"</f>
+        <v xml:space="preserve">           @endif</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="22"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="22" t="str">
+        <f>"     @endif"</f>
+        <v xml:space="preserve">     @endif</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="27" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/php code libraries/Laravel DRY v1.xlsx
+++ b/php code libraries/Laravel DRY v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId1"/>
@@ -21,8 +21,7 @@
     <sheet name="Laravel mail v1" sheetId="10" r:id="rId7"/>
     <sheet name="Controller generator" sheetId="11" r:id="rId8"/>
     <sheet name="table relations v1" sheetId="13" r:id="rId9"/>
-    <sheet name="Relations2" sheetId="14" r:id="rId10"/>
-    <sheet name="error ptscreen" sheetId="9" r:id="rId11"/>
+    <sheet name="error ptscreen" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="474">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -973,9 +972,6 @@
     <t>name and subject.</t>
   </si>
   <si>
-    <t>Mail::prepend();</t>
-  </si>
-  <si>
     <t>Put this code above Mail::send to avoid sending from local host (and avoiding error messages).</t>
   </si>
   <si>
@@ -1106,15 +1102,9 @@
     <t>URI prefix</t>
   </si>
   <si>
-    <t>alejo</t>
-  </si>
-  <si>
     <t>Controller name</t>
   </si>
   <si>
-    <t>alex</t>
-  </si>
-  <si>
     <t>Route</t>
   </si>
   <si>
@@ -1463,12 +1453,6 @@
     <t>project_id</t>
   </si>
   <si>
-    <t>php artisan generate:migration add_project_id_to_table_thetasks --fields="project_id:integer"</t>
-  </si>
-  <si>
-    <t>PENDING TO AUTOMATE WITH EXCEL CONCATENATIONS</t>
-  </si>
-  <si>
     <t>var base=$('#base').html();</t>
   </si>
   <si>
@@ -1499,15 +1483,6 @@
     <t>//saving data</t>
   </si>
   <si>
-    <t>METHOD FOR RETRIEVING DATA FROM TABLE WITH PERMISSIONS STABLISHED IN TWO OTHER TABLES</t>
-  </si>
-  <si>
-    <t>Main table name</t>
-  </si>
-  <si>
-    <t>tasks</t>
-  </si>
-  <si>
     <t>cd ../../wamp/www/practice</t>
   </si>
   <si>
@@ -1562,15 +1537,6 @@
     <t>periods</t>
   </si>
   <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>seconds</t>
-  </si>
-  <si>
     <t>METHOD FOR COUNTING ITEMS FROM A TABLE WHEN CONDITION IS IN ANOTHER TABLE</t>
   </si>
   <si>
@@ -1716,6 +1682,60 @@
   </si>
   <si>
     <t xml:space="preserve">           example {{$value-&gt;score}} (if "name" is a column of desired main table) &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>Inside html template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div&gt;Some message {{$User}}, please be careful with...&lt;/div&gt; </t>
+  </si>
+  <si>
+    <t>Mail::pretend();</t>
+  </si>
+  <si>
+    <t>junks</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>adopter</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>php artisan generate:migration add_</t>
+  </si>
+  <si>
+    <t>_to_</t>
+  </si>
+  <si>
+    <t>taskController</t>
   </si>
 </sst>
 </file>
@@ -2900,37 +2920,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3242,7 +3231,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -3269,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3278,167 +3267,167 @@
     <col min="1" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="B3" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B4" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>297</v>
-      </c>
       <c r="B6" s="19" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="str">
         <f>IF('AutoLaravel v1'!C47&lt;&gt;"",'AutoLaravel v1'!C47,"")</f>
-        <v>hours</v>
+        <v>task</v>
       </c>
       <c r="C17" s="35" t="str">
         <f>IF(B17="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B17)</f>
-        <v>periods_hours</v>
+        <v>junks_task</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="str">
         <f>IF(B17="","",C17&amp;$A$1)</f>
-        <v>periods_hours_mssg</v>
+        <v>junks_task_mssg</v>
       </c>
       <c r="F17" s="36"/>
       <c r="H17" s="37" t="str">
         <f>IF('AutoLaravel v1'!G47&lt;&gt;"",'AutoLaravel v1'!G47,"")</f>
-        <v/>
+        <v>comments</v>
       </c>
       <c r="I17" s="35" t="str">
         <f>IF(H17&lt;&gt;"",'AutoLaravel v1'!$D$45&amp;"_"&amp;H17,"")</f>
-        <v/>
+        <v>junks_comments</v>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="35" t="str">
         <f t="shared" ref="K17:K26" si="0">I17&amp;$A$1</f>
-        <v>_mssg</v>
+        <v>junks_comments_mssg</v>
       </c>
       <c r="L17" s="36"/>
       <c r="N17" s="42" t="str">
         <f>B17</f>
-        <v>hours</v>
+        <v>task</v>
       </c>
       <c r="O17" s="43" t="str">
         <f>IF(H17&lt;&gt;"",",","")&amp;H17</f>
-        <v/>
+        <v>,comments</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="str">
         <f>IF('AutoLaravel v1'!C48&lt;&gt;"",'AutoLaravel v1'!C48,"")</f>
-        <v>minutes</v>
+        <v>project</v>
       </c>
       <c r="C18" s="33" t="str">
         <f>IF(B18="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B18)</f>
-        <v>periods_minutes</v>
+        <v>junks_project</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33" t="str">
         <f t="shared" ref="E18:E26" si="1">IF(B18="","",C18&amp;$A$1)</f>
-        <v>periods_minutes_mssg</v>
+        <v>junks_project_mssg</v>
       </c>
       <c r="F18" s="38"/>
       <c r="H18" s="37" t="str">
@@ -3457,7 +3446,7 @@
       <c r="L18" s="38"/>
       <c r="N18" s="44" t="str">
         <f>IF(B18&lt;&gt;"",",","")&amp;B18</f>
-        <v>,minutes</v>
+        <v>,project</v>
       </c>
       <c r="O18" s="45" t="str">
         <f t="shared" ref="O18:O26" si="2">IF(H18&lt;&gt;"",",","")&amp;H18</f>
@@ -3467,16 +3456,16 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="str">
         <f>IF('AutoLaravel v1'!C49&lt;&gt;"",'AutoLaravel v1'!C49,"")</f>
-        <v>seconds</v>
+        <v>stage</v>
       </c>
       <c r="C19" s="33" t="str">
         <f>IF(B19="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B19)</f>
-        <v>periods_seconds</v>
+        <v>junks_stage</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>periods_seconds_mssg</v>
+        <v>junks_stage_mssg</v>
       </c>
       <c r="F19" s="38"/>
       <c r="H19" s="37" t="str">
@@ -3495,7 +3484,7 @@
       <c r="L19" s="38"/>
       <c r="N19" s="44" t="str">
         <f t="shared" ref="N19:N26" si="3">IF(B19&lt;&gt;"",",","")&amp;B19</f>
-        <v>,seconds</v>
+        <v>,stage</v>
       </c>
       <c r="O19" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3505,16 +3494,16 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="str">
         <f>IF('AutoLaravel v1'!C50&lt;&gt;"",'AutoLaravel v1'!C50,"")</f>
-        <v/>
+        <v>parent</v>
       </c>
       <c r="C20" s="33" t="str">
         <f>IF(B20="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B20)</f>
-        <v/>
+        <v>junks_parent</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>junks_parent_mssg</v>
       </c>
       <c r="F20" s="38"/>
       <c r="H20" s="37" t="str">
@@ -3533,7 +3522,7 @@
       <c r="L20" s="38"/>
       <c r="N20" s="44" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>,parent</v>
       </c>
       <c r="O20" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3543,16 +3532,16 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="str">
         <f>IF('AutoLaravel v1'!C51&lt;&gt;"",'AutoLaravel v1'!C51,"")</f>
-        <v/>
+        <v>score</v>
       </c>
       <c r="C21" s="33" t="str">
         <f>IF(B21="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B21)</f>
-        <v/>
+        <v>junks_score</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>junks_score_mssg</v>
       </c>
       <c r="F21" s="38"/>
       <c r="H21" s="37" t="str">
@@ -3571,7 +3560,7 @@
       <c r="L21" s="38"/>
       <c r="N21" s="44" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>,score</v>
       </c>
       <c r="O21" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3581,16 +3570,16 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="str">
         <f>IF('AutoLaravel v1'!C52&lt;&gt;"",'AutoLaravel v1'!C52,"")</f>
-        <v/>
+        <v>creator</v>
       </c>
       <c r="C22" s="33" t="str">
         <f>IF(B22="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B22)</f>
-        <v/>
+        <v>junks_creator</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>junks_creator_mssg</v>
       </c>
       <c r="F22" s="38"/>
       <c r="H22" s="37" t="str">
@@ -3609,7 +3598,7 @@
       <c r="L22" s="38"/>
       <c r="N22" s="44" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>,creator</v>
       </c>
       <c r="O22" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3619,16 +3608,16 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="37" t="str">
         <f>IF('AutoLaravel v1'!C53&lt;&gt;"",'AutoLaravel v1'!C53,"")</f>
-        <v/>
+        <v>adopter</v>
       </c>
       <c r="C23" s="33" t="str">
         <f>IF(B23="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B23)</f>
-        <v/>
+        <v>junks_adopter</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>junks_adopter_mssg</v>
       </c>
       <c r="F23" s="38"/>
       <c r="H23" s="37" t="str">
@@ -3647,7 +3636,7 @@
       <c r="L23" s="38"/>
       <c r="N23" s="44" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>,adopter</v>
       </c>
       <c r="O23" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3657,16 +3646,16 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="str">
         <f>IF('AutoLaravel v1'!C54&lt;&gt;"",'AutoLaravel v1'!C54,"")</f>
-        <v/>
+        <v>evidence</v>
       </c>
       <c r="C24" s="33" t="str">
         <f>IF(B24="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B24)</f>
-        <v/>
+        <v>junks_evidence</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>junks_evidence_mssg</v>
       </c>
       <c r="F24" s="38"/>
       <c r="H24" s="37" t="str">
@@ -3685,7 +3674,7 @@
       <c r="L24" s="38"/>
       <c r="N24" s="44" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>,evidence</v>
       </c>
       <c r="O24" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3695,16 +3684,16 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="str">
         <f>IF('AutoLaravel v1'!C55&lt;&gt;"",'AutoLaravel v1'!C55,"")</f>
-        <v/>
+        <v>reason</v>
       </c>
       <c r="C25" s="33" t="str">
         <f>IF(B25="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B25)</f>
-        <v/>
+        <v>junks_reason</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>junks_reason_mssg</v>
       </c>
       <c r="F25" s="38"/>
       <c r="H25" s="37" t="str">
@@ -3723,7 +3712,7 @@
       <c r="L25" s="38"/>
       <c r="N25" s="44" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>,reason</v>
       </c>
       <c r="O25" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3733,16 +3722,16 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="str">
         <f>IF('AutoLaravel v1'!C56&lt;&gt;"",'AutoLaravel v1'!C56,"")</f>
-        <v/>
+        <v>output</v>
       </c>
       <c r="C26" s="40" t="str">
         <f>IF(B26="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B26)</f>
-        <v/>
+        <v>junks_output</v>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>junks_output_mssg</v>
       </c>
       <c r="F26" s="41"/>
       <c r="H26" s="39" t="str">
@@ -3761,7 +3750,7 @@
       <c r="L26" s="41"/>
       <c r="N26" s="46" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>,output</v>
       </c>
       <c r="O26" s="47" t="str">
         <f t="shared" si="2"/>
@@ -3770,13 +3759,13 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="55" t="str">
         <f>IF(C17&lt;&gt;"",$B$3&amp;C17&amp;$B$4&amp;E17&amp;$B$5,"")</f>
-        <v>&lt;input type='text' id='periods_hours'&gt;&lt;spam id='periods_hours_mssg'&gt;&lt;/spam&gt;</v>
+        <v>&lt;input type='text' id='junks_task'&gt;&lt;spam id='junks_task_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
@@ -3785,7 +3774,7 @@
       <c r="G30" s="32"/>
       <c r="H30" s="55" t="str">
         <f>IF(I17&lt;&gt;"",$B$3&amp;I17&amp;$B$4&amp;K17&amp;$B$5,"")</f>
-        <v/>
+        <v>&lt;input type='text' id='junks_comments'&gt;&lt;spam id='junks_comments_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
@@ -3796,7 +3785,7 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="55" t="str">
         <f t="shared" ref="B31:B39" si="4">IF(C18&lt;&gt;"",$B$3&amp;C18&amp;$B$4&amp;E18&amp;$B$5,"")</f>
-        <v>&lt;input type='text' id='periods_minutes'&gt;&lt;spam id='periods_minutes_mssg'&gt;&lt;/spam&gt;</v>
+        <v>&lt;input type='text' id='junks_project'&gt;&lt;spam id='junks_project_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
@@ -3816,7 +3805,7 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;input type='text' id='periods_seconds'&gt;&lt;spam id='periods_seconds_mssg'&gt;&lt;/spam&gt;</v>
+        <v>&lt;input type='text' id='junks_stage'&gt;&lt;spam id='junks_stage_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
@@ -3836,7 +3825,7 @@
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="55" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>&lt;input type='text' id='junks_parent'&gt;&lt;spam id='junks_parent_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
@@ -3856,7 +3845,7 @@
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="55" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>&lt;input type='text' id='junks_score'&gt;&lt;spam id='junks_score_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
@@ -3876,7 +3865,7 @@
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="55" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>&lt;input type='text' id='junks_creator'&gt;&lt;spam id='junks_creator_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
@@ -3896,7 +3885,7 @@
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="55" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>&lt;input type='text' id='junks_adopter'&gt;&lt;spam id='junks_adopter_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
@@ -3916,7 +3905,7 @@
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="55" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>&lt;input type='text' id='junks_evidence'&gt;&lt;spam id='junks_evidence_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
@@ -3936,7 +3925,7 @@
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="55" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>&lt;input type='text' id='junks_reason'&gt;&lt;spam id='junks_reason_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
@@ -3956,7 +3945,7 @@
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="55" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>&lt;input type='text' id='junks_output'&gt;&lt;spam id='junks_output_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
@@ -3975,7 +3964,7 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="57" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
@@ -3983,12 +3972,12 @@
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
       <c r="H41" s="10" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C42" s="57"/>
       <c r="D42" s="57"/>
@@ -3998,7 +3987,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="57" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="57"/>
@@ -4008,12 +3997,12 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D46" s="10" t="str">
         <f>'AutoLaravel v1'!D67&amp;'AutoLaravel v1'!D66</f>
@@ -4026,7 +4015,7 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D47" s="10" t="str">
         <f>'AutoLaravel v1'!D67</f>
@@ -4036,7 +4025,7 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D48" s="10" t="str">
         <f>'AutoLaravel v1'!D68</f>
@@ -4049,7 +4038,7 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D49" s="10" t="str">
         <f>D46&amp;"_submit"</f>
@@ -4066,7 +4055,7 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D50" s="32" t="str">
         <f>D47&amp;"/"&amp;D46</f>
@@ -4075,7 +4064,7 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -4086,7 +4075,7 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="55" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
@@ -4096,7 +4085,7 @@
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="55" t="str">
         <f>IF(B17="","",$A$2&amp;B17&amp;$A$3&amp;C17&amp;$A$4)&amp;IF(B18="","",$A$2&amp;B18&amp;$A$3&amp;C18&amp;$A$4)</f>
-        <v>var hours=$('#periods_hours').val();var minutes=$('#periods_minutes').val();</v>
+        <v>var task=$('#junks_task').val();var project=$('#junks_project').val();</v>
       </c>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
@@ -4106,7 +4095,7 @@
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="55" t="str">
         <f>IF(B19="","",$A$2&amp;B19&amp;$A$3&amp;C19&amp;$A$4)&amp;IF(B20="","",$A$2&amp;B20&amp;$A$3&amp;C20&amp;$A$4)</f>
-        <v>var seconds=$('#periods_seconds').val();</v>
+        <v>var stage=$('#junks_stage').val();var parent=$('#junks_parent').val();</v>
       </c>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
@@ -4116,7 +4105,7 @@
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="55" t="str">
         <f>IF(B21="","",$A$2&amp;B21&amp;$A$3&amp;B21&amp;$A$4)&amp;IF(B22="","",$A$2&amp;B22&amp;$A$3&amp;B22&amp;$A$4)</f>
-        <v/>
+        <v>var score=$('#score').val();var creator=$('#creator').val();</v>
       </c>
       <c r="C56" s="32"/>
       <c r="D56" s="32"/>
@@ -4126,7 +4115,7 @@
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="55" t="str">
         <f>IF(B23="","",$A$2&amp;B23&amp;$A$3&amp;B23&amp;$A$4)&amp;IF(B24="","",$A$2&amp;B24&amp;$A$3&amp;B24&amp;$A$4)</f>
-        <v/>
+        <v>var adopter=$('#adopter').val();var evidence=$('#evidence').val();</v>
       </c>
       <c r="C57" s="32"/>
       <c r="D57" s="32"/>
@@ -4136,7 +4125,7 @@
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="55" t="str">
         <f>IF(B25="","",$A$2&amp;B25&amp;$A$3&amp;B25&amp;$A$4)&amp;IF(B26="","",$A$2&amp;B26&amp;$A$3&amp;B26&amp;$A$4)</f>
-        <v/>
+        <v>var reason=$('#reason').val();var output=$('#output').val();</v>
       </c>
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
@@ -4146,7 +4135,7 @@
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="56" t="str">
         <f>IF(H17="","",$A$2&amp;H17&amp;$A$3&amp;H17&amp;$A$4)&amp;IF(H18="","",$A$2&amp;H18&amp;$A$3&amp;H18&amp;$A$4)</f>
-        <v/>
+        <v>var comments=$('#comments').val();</v>
       </c>
       <c r="C59" s="32"/>
       <c r="D59" s="32"/>
@@ -4195,31 +4184,31 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="22" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="56" t="str">
         <f>N17&amp;IF(B17&lt;&gt;"",":","")&amp;B17&amp;N18&amp;IF(B18&lt;&gt;"",":","")&amp;B18&amp;N19&amp;IF(B19&lt;&gt;"",":","")&amp;B19&amp;N20&amp;IF(B20&lt;&gt;"",":","")&amp;B20</f>
-        <v>hours:hours,minutes:minutes,seconds:seconds</v>
+        <v>task:task,project:project,stage:stage,parent:parent</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="56" t="str">
         <f>N21&amp;IF(B21&lt;&gt;"",":","")&amp;B21&amp;N22&amp;IF(B22&lt;&gt;"",":","")&amp;B22&amp;N23&amp;IF(B23&lt;&gt;"",":","")&amp;B23&amp;N24&amp;IF(B24&lt;&gt;"",":","")&amp;B24</f>
-        <v/>
+        <v>,score:score,creator:creator,adopter:adopter,evidence:evidence</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="56" t="str">
         <f t="shared" ref="B67" si="6">N25&amp;IF(B25&lt;&gt;"",":","")&amp;B25&amp;N26&amp;IF(B26&lt;&gt;"",":","")&amp;B26</f>
-        <v/>
+        <v>,reason:reason,output:output</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="55" t="str">
         <f>O17&amp;IF(H17&lt;&gt;"",":","")&amp;H17&amp;O18&amp;IF(H18&lt;&gt;"",":","")&amp;H18&amp;O19&amp;IF(H19&lt;&gt;"",":","")&amp;H19&amp;O20&amp;IF(H20&lt;&gt;"",":","")&amp;H20</f>
-        <v/>
+        <v>,comments:comments</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
@@ -4236,7 +4225,7 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
@@ -4247,12 +4236,12 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
@@ -4266,16 +4255,16 @@
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
       <c r="G77" s="16" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H77" s="16" t="str">
         <f>'AutoLaravel v1'!D45</f>
-        <v>periods</v>
+        <v>junks</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D78" s="58" t="str">
         <f>"public function post"&amp;E46&amp;"() {"</f>
@@ -4284,32 +4273,32 @@
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
       <c r="G78" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H78" s="16" t="str">
         <f>'AutoLaravel v1'!G45</f>
-        <v>Period</v>
+        <v>Junk</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D79" s="58" t="str">
         <f>"$"&amp;B17&amp;"=$_POST['"&amp;B17&amp;"'];"</f>
-        <v>$hours=$_POST['hours'];</v>
+        <v>$task=$_POST['task'];</v>
       </c>
       <c r="E79" s="32"/>
       <c r="F79" s="32"/>
       <c r="G79" s="16" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H79" s="16" t="str">
         <f>"$"&amp;'AutoLaravel v1'!F45</f>
-        <v>$period</v>
+        <v>$junk</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D80" s="58" t="str">
         <f>"$"&amp;B18&amp;"=$_POST['"&amp;B18&amp;"'];"</f>
-        <v>$minutes=$_POST['minutes'];</v>
+        <v>$project=$_POST['project'];</v>
       </c>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
@@ -4317,14 +4306,14 @@
     <row r="81" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D81" s="58" t="str">
         <f>"$"&amp;B19&amp;"=$_POST['"&amp;B19&amp;"'];"</f>
-        <v>$seconds=$_POST['seconds'];</v>
+        <v>$stage=$_POST['stage'];</v>
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D82" s="58" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="32"/>
@@ -4332,7 +4321,7 @@
     <row r="83" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D83" s="58" t="str">
         <f>H79&amp;"=New "&amp;H78&amp;";"</f>
-        <v>$period=New Period;</v>
+        <v>$junk=New Junk;</v>
       </c>
       <c r="E83" s="32"/>
       <c r="F83" s="32"/>
@@ -4340,7 +4329,7 @@
     <row r="84" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D84" s="55" t="str">
         <f>IF(B17&lt;&gt;"",$H$79&amp;$C$2&amp;B17&amp;"=$"&amp;B17&amp;";","")</f>
-        <v>$period-&gt;hours=$hours;</v>
+        <v>$junk-&gt;task=$task;</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="32"/>
@@ -4348,7 +4337,7 @@
     <row r="85" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D85" s="55" t="str">
         <f t="shared" ref="D85:D93" si="8">IF(B18&lt;&gt;"",$H$79&amp;$C$2&amp;B18&amp;"=$"&amp;B18&amp;";","")</f>
-        <v>$period-&gt;minutes=$minutes;</v>
+        <v>$junk-&gt;project=$project;</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="32"/>
@@ -4356,7 +4345,7 @@
     <row r="86" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D86" s="55" t="str">
         <f t="shared" si="8"/>
-        <v>$period-&gt;seconds=$seconds;</v>
+        <v>$junk-&gt;stage=$stage;</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="32"/>
@@ -4364,7 +4353,7 @@
     <row r="87" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D87" s="55" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>$junk-&gt;parent=$parent;</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="32"/>
@@ -4372,7 +4361,7 @@
     <row r="88" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D88" s="55" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>$junk-&gt;score=$score;</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="32"/>
@@ -4380,7 +4369,7 @@
     <row r="89" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D89" s="55" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>$junk-&gt;creator=$creator;</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="32"/>
@@ -4388,7 +4377,7 @@
     <row r="90" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D90" s="55" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>$junk-&gt;adopter=$adopter;</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="32"/>
@@ -4396,7 +4385,7 @@
     <row r="91" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D91" s="55" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>$junk-&gt;evidence=$evidence;</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="32"/>
@@ -4404,7 +4393,7 @@
     <row r="92" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D92" s="55" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>$junk-&gt;reason=$reason;</v>
       </c>
       <c r="E92" s="32"/>
       <c r="F92" s="32"/>
@@ -4412,14 +4401,14 @@
     <row r="93" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D93" s="55" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>$junk-&gt;output=$output;</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="32"/>
     </row>
     <row r="94" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D94" s="58" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="32"/>
@@ -4427,14 +4416,14 @@
     <row r="95" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D95" s="58" t="str">
         <f>H79&amp;C2&amp;"save();"</f>
-        <v>$period-&gt;save();</v>
+        <v>$junk-&gt;save();</v>
       </c>
       <c r="E95" s="32"/>
       <c r="F95" s="32"/>
     </row>
     <row r="96" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D96" s="58" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="32"/>
@@ -4456,10 +4445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2700" activePane="bottomLeft"/>
-      <selection activeCell="C3" sqref="C3"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72:D74"/>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4469,55 +4456,68 @@
     <col min="8" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>162</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>163</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="18" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>146</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="18" t="str">
+        <f>"_table --fields="</f>
+        <v>_table --fields=</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>411</v>
+        <v>403</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4543,7 +4543,7 @@
         <v>161</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -4552,7 +4552,7 @@
         <v>126</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -4703,7 +4703,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D40" s="9"/>
       <c r="F40" s="10" t="s">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="M42" s="16" t="str">
         <f>IF(SUM(J47:K56)&gt;0,B2&amp;P56&amp;Q56&amp;B3,"")</f>
-        <v>--fields="hours:string,minutes:string,seconds:integer"</v>
+        <v>--fields="task:string,project:string,stage:string,parent:string,score:integer,creator:string,adopter:string,evidence:string,reason:string,output:string,comments:string"</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
@@ -4751,15 +4751,15 @@
         <v>102</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="F45" s="16" t="str">
         <f>LEFT(D45,LEN(D45)-1)</f>
-        <v>period</v>
+        <v>junk</v>
       </c>
       <c r="G45" s="16" t="str">
         <f>UPPER(LEFT(F45,1))&amp;RIGHT(F45,LEN(F45)-1)</f>
-        <v>Period</v>
+        <v>Junk</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
@@ -4791,7 +4791,7 @@
         <v>103</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>134</v>
@@ -4799,34 +4799,38 @@
       <c r="F47" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="G47" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="J47" s="16">
         <f>IF(C47="",0,1)</f>
         <v>1</v>
       </c>
       <c r="K47" s="16">
         <f>IF(G47="",0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="16" t="s">
         <v>133</v>
       </c>
       <c r="N47" s="16" t="str">
         <f>IF(AND(C47&lt;&gt;"",D47&lt;&gt;""),IF(N46="concatenator1","",",")&amp;C47&amp;":"&amp;D47,"")</f>
-        <v>hours:string</v>
+        <v>task:string</v>
       </c>
       <c r="O47" s="16" t="str">
         <f>IF(AND(G47&lt;&gt;"",H47&lt;&gt;""),","&amp;G47&amp;":"&amp;H47,"")</f>
-        <v/>
+        <v>,comments:string</v>
       </c>
       <c r="P47" s="16" t="str">
         <f>P46&amp;N47</f>
-        <v>hours:string</v>
+        <v>task:string</v>
       </c>
       <c r="Q47" s="16" t="str">
         <f>Q46&amp;O47</f>
-        <v/>
+        <v>,comments:string</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
@@ -4834,7 +4838,7 @@
         <v>104</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>134</v>
@@ -4857,7 +4861,7 @@
       </c>
       <c r="N48" s="16" t="str">
         <f t="shared" ref="N48:N56" si="2">IF(AND(C48&lt;&gt;"",D48&lt;&gt;""),IF(N47="concatenator1","",",")&amp;C48&amp;":"&amp;D48,"")</f>
-        <v>,minutes:string</v>
+        <v>,project:string</v>
       </c>
       <c r="O48" s="16" t="str">
         <f t="shared" ref="O48:O56" si="3">IF(AND(G48&lt;&gt;"",H48&lt;&gt;""),","&amp;G48&amp;":"&amp;H48,"")</f>
@@ -4865,11 +4869,11 @@
       </c>
       <c r="P48" s="16" t="str">
         <f t="shared" ref="P48:P56" si="4">P47&amp;N48</f>
-        <v>hours:string,minutes:string</v>
+        <v>task:string,project:string</v>
       </c>
       <c r="Q48" s="16" t="str">
         <f t="shared" ref="Q48:Q56" si="5">Q47&amp;O48</f>
-        <v/>
+        <v>,comments:string</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
@@ -4877,10 +4881,10 @@
         <v>105</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>115</v>
@@ -4900,7 +4904,7 @@
       </c>
       <c r="N49" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>,seconds:integer</v>
+        <v>,stage:string</v>
       </c>
       <c r="O49" s="16" t="str">
         <f t="shared" si="3"/>
@@ -4908,19 +4912,23 @@
       </c>
       <c r="P49" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>hours:string,minutes:string,seconds:integer</v>
+        <v>task:string,project:string,stage:string</v>
       </c>
       <c r="Q49" s="16" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>,comments:string</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="C50" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="F50" s="10" t="s">
         <v>116</v>
       </c>
@@ -4928,7 +4936,7 @@
       <c r="H50" s="9"/>
       <c r="J50" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="16">
         <f t="shared" si="1"/>
@@ -4939,7 +4947,7 @@
       </c>
       <c r="N50" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,parent:string</v>
       </c>
       <c r="O50" s="16" t="str">
         <f t="shared" si="3"/>
@@ -4947,19 +4955,23 @@
       </c>
       <c r="P50" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>hours:string,minutes:string,seconds:integer</v>
+        <v>task:string,project:string,stage:string,parent:string</v>
       </c>
       <c r="Q50" s="16" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>,comments:string</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="C51" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="F51" s="10" t="s">
         <v>117</v>
       </c>
@@ -4967,7 +4979,7 @@
       <c r="H51" s="9"/>
       <c r="J51" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="16">
         <f t="shared" si="1"/>
@@ -4978,7 +4990,7 @@
       </c>
       <c r="N51" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,score:integer</v>
       </c>
       <c r="O51" s="16" t="str">
         <f t="shared" si="3"/>
@@ -4986,19 +4998,23 @@
       </c>
       <c r="P51" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>hours:string,minutes:string,seconds:integer</v>
+        <v>task:string,project:string,stage:string,parent:string,score:integer</v>
       </c>
       <c r="Q51" s="16" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>,comments:string</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="C52" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="F52" s="10" t="s">
         <v>118</v>
       </c>
@@ -5006,7 +5022,7 @@
       <c r="H52" s="9"/>
       <c r="J52" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="16">
         <f t="shared" si="1"/>
@@ -5017,7 +5033,7 @@
       </c>
       <c r="N52" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,creator:string</v>
       </c>
       <c r="O52" s="16" t="str">
         <f t="shared" si="3"/>
@@ -5025,19 +5041,23 @@
       </c>
       <c r="P52" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>hours:string,minutes:string,seconds:integer</v>
+        <v>task:string,project:string,stage:string,parent:string,score:integer,creator:string</v>
       </c>
       <c r="Q52" s="16" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>,comments:string</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="C53" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="F53" s="10" t="s">
         <v>119</v>
       </c>
@@ -5045,7 +5065,7 @@
       <c r="H53" s="9"/>
       <c r="J53" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="16">
         <f t="shared" si="1"/>
@@ -5056,7 +5076,7 @@
       </c>
       <c r="N53" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,adopter:string</v>
       </c>
       <c r="O53" s="16" t="str">
         <f t="shared" si="3"/>
@@ -5064,19 +5084,23 @@
       </c>
       <c r="P53" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>hours:string,minutes:string,seconds:integer</v>
+        <v>task:string,project:string,stage:string,parent:string,score:integer,creator:string,adopter:string</v>
       </c>
       <c r="Q53" s="16" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>,comments:string</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="C54" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="F54" s="10" t="s">
         <v>120</v>
       </c>
@@ -5084,7 +5108,7 @@
       <c r="H54" s="9"/>
       <c r="J54" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="16">
         <f t="shared" si="1"/>
@@ -5095,7 +5119,7 @@
       </c>
       <c r="N54" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,evidence:string</v>
       </c>
       <c r="O54" s="16" t="str">
         <f t="shared" si="3"/>
@@ -5103,19 +5127,23 @@
       </c>
       <c r="P54" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>hours:string,minutes:string,seconds:integer</v>
+        <v>task:string,project:string,stage:string,parent:string,score:integer,creator:string,adopter:string,evidence:string</v>
       </c>
       <c r="Q54" s="16" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>,comments:string</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="C55" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="F55" s="10" t="s">
         <v>121</v>
       </c>
@@ -5123,7 +5151,7 @@
       <c r="H55" s="9"/>
       <c r="J55" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="16">
         <f t="shared" si="1"/>
@@ -5134,7 +5162,7 @@
       </c>
       <c r="N55" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,reason:string</v>
       </c>
       <c r="O55" s="16" t="str">
         <f t="shared" si="3"/>
@@ -5142,19 +5170,23 @@
       </c>
       <c r="P55" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>hours:string,minutes:string,seconds:integer</v>
+        <v>task:string,project:string,stage:string,parent:string,score:integer,creator:string,adopter:string,evidence:string,reason:string</v>
       </c>
       <c r="Q55" s="16" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>,comments:string</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="C56" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="F56" s="10" t="s">
         <v>122</v>
       </c>
@@ -5162,7 +5194,7 @@
       <c r="H56" s="9"/>
       <c r="J56" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="16">
         <f t="shared" si="1"/>
@@ -5173,7 +5205,7 @@
       </c>
       <c r="N56" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,output:string</v>
       </c>
       <c r="O56" s="16" t="str">
         <f t="shared" si="3"/>
@@ -5181,11 +5213,11 @@
       </c>
       <c r="P56" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>hours:string,minutes:string,seconds:integer</v>
+        <v>task:string,project:string,stage:string,parent:string,score:integer,creator:string,adopter:string,evidence:string,reason:string,output:string</v>
       </c>
       <c r="Q56" s="16" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>,comments:string</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -5199,7 +5231,7 @@
       </c>
       <c r="C60" s="23" t="str">
         <f>A4&amp;A5&amp;A6&amp;D45&amp;B1&amp;M42</f>
-        <v>php artisan generate:migration create_periods_table --fields="hours:string,minutes:string,seconds:integer"</v>
+        <v>php artisan generate:migration create_junks_table --fields="task:string,project:string,stage:string,parent:string,score:integer,creator:string,adopter:string,evidence:string,reason:string,output:string,comments:string"</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
@@ -5224,7 +5256,7 @@
       </c>
       <c r="C62" s="23" t="str">
         <f>A4&amp;B4&amp;G45</f>
-        <v>php artisan generate:model Period</v>
+        <v>php artisan generate:model Junk</v>
       </c>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
@@ -5244,7 +5276,7 @@
         <v>149</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F66" s="20" t="s">
         <v>184</v>
@@ -5260,7 +5292,7 @@
         <v>150</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F67" s="20" t="s">
         <v>183</v>
@@ -5275,7 +5307,7 @@
         <v>155</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F68" s="24" t="s">
         <v>156</v>
@@ -5346,7 +5378,7 @@
         <v>160</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
@@ -5362,7 +5394,7 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
@@ -5377,7 +5409,7 @@
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
@@ -5385,34 +5417,32 @@
         <v>189</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>380</v>
+        <v>460</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>381</v>
+        <v>470</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="23" t="s">
-        <v>382</v>
+      <c r="C86" s="23" t="str">
+        <f>C3&amp;D84&amp;C4&amp;D83&amp;C5&amp;C6&amp;D84&amp;":"&amp;D85&amp;C6</f>
+        <v>php artisan generate:migration add_notice_to_junks_table --fields="notice:integer"</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
@@ -5424,7 +5454,7 @@
       <c r="K86" s="23"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47:D56 H47:H56">
       <formula1>$M$47:$M$56</formula1>
     </dataValidation>
@@ -5438,7 +5468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5540,53 +5572,53 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D23" s="22"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -5596,7 +5628,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -5616,7 +5648,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -5636,7 +5668,7 @@
   <dimension ref="B3:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5734,9 +5766,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I53"/>
+  <dimension ref="B2:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5844,33 +5878,33 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="10" t="s">
-        <v>226</v>
+      <c r="C27" s="22" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -5881,96 +5915,107 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C38" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C39" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C40" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C41" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C42" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>238</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>240</v>
+      <c r="C45" s="22" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5978,8 +6023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5991,92 +6036,92 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>263</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>265</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D11" s="22" t="str">
         <f>A1&amp;D7&amp;A2&amp;D9&amp;A3</f>
-        <v>Route::('alejo','alex');</v>
+        <v>Route::('task','taskController');</v>
       </c>
       <c r="E11" s="22"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D15" s="22" t="str">
         <f>$B$1&amp;B15&amp;UPPER(LEFT(C15,1))&amp;RIGHT(C15,LEN(C15)-1)&amp;$B$2</f>
@@ -6084,19 +6129,19 @@
       </c>
       <c r="G15" s="11" t="str">
         <f>$D$7&amp;"/"&amp;C15</f>
-        <v>alejo/addtask</v>
+        <v>task/addtask</v>
       </c>
       <c r="I15" s="22" t="str">
         <f>$B$3&amp;G15&amp;$C$1&amp;C15&amp;$C$2</f>
-        <v>{{link_to('alejo/addtask','addtask'}}</v>
+        <v>{{link_to('task/addtask','addtask'}}</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D16" s="22" t="str">
         <f>$B$1&amp;B16&amp;UPPER(LEFT(C16,1))&amp;RIGHT(C16,LEN(C16)-1)&amp;$B$2</f>
@@ -6104,10 +6149,10 @@
       </c>
       <c r="G16" s="11" t="str">
         <f>$D$7&amp;"/"&amp;C16</f>
-        <v>alejo/addtask</v>
+        <v>task/addtask</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -6119,8 +6164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6130,142 +6175,142 @@
   <sheetData>
     <row r="1" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E3" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="G3" s="49" t="s">
         <v>448</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>451</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G5" s="48" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="53" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
@@ -6275,7 +6320,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="53" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
@@ -6285,22 +6330,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="16" t="str">
@@ -6310,18 +6355,18 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C21" s="9"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="50" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -6338,7 +6383,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="50" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -6355,7 +6400,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="51" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -6377,28 +6422,28 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="G33" s="16" t="s">
         <v>327</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="16" t="str">
@@ -6412,10 +6457,10 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="16"/>
@@ -6423,10 +6468,10 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="16" t="str">
@@ -6440,7 +6485,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>167</v>
@@ -6451,34 +6496,34 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D42" s="22" t="str">
         <f>F34&amp;"_id"</f>
         <v>project_id</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -6506,7 +6551,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -6534,25 +6579,25 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D58" s="22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D59" s="22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -6561,7 +6606,7 @@
         <v>$project=Project::all();</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -6570,7 +6615,7 @@
         <v>foreach ($project as $value){</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -6579,7 +6624,7 @@
         <v xml:space="preserve">     $row=Project::find($value-&gt;id);</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -6588,7 +6633,7 @@
         <v xml:space="preserve">     $owner=$value-&gt;p_owner;</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -6597,22 +6642,22 @@
         <v xml:space="preserve">     $allowed=$row-&gt;thetask;</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D65" s="22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D67" s="22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -6623,108 +6668,108 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D69" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D70" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D71" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D72" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D73" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D74" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D75" s="22" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D76" s="22" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D77" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D78" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D79" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D80" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D81" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D82" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D84" s="22" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D85" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E95" s="16" t="str">
         <f>LEFT(C95,LEN(C95)-1)</f>
@@ -6737,10 +6782,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E96" s="16" t="str">
         <f>LEFT(C96,LEN(C96)-1)</f>
@@ -6753,33 +6798,33 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -6796,12 +6841,12 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B104" s="27" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="59" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B107" s="59"/>
       <c r="C107" s="59"/>
@@ -6814,7 +6859,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="59" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B108" s="59"/>
       <c r="C108" s="59"/>
@@ -6827,18 +6872,18 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F109" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D110" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E110" s="52"/>
       <c r="F110" s="16" t="str">
@@ -6852,10 +6897,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D111" s="52" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="E111" s="52"/>
       <c r="F111" s="16"/>
@@ -6863,10 +6908,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D112" s="52" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E112" s="52"/>
       <c r="F112" s="16" t="str">
@@ -6880,10 +6925,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D113" s="52" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E113" s="52"/>
       <c r="F113" s="16"/>
@@ -6891,10 +6936,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="D114" s="52" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="E114" s="52"/>
       <c r="F114" s="16" t="str">
@@ -6908,7 +6953,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D115" s="52" t="s">
         <v>167</v>
@@ -6919,10 +6964,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D116" s="52" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E116" s="52"/>
       <c r="F116" s="16"/>
@@ -6930,10 +6975,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D117" s="52" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="E117" s="52"/>
       <c r="F117" s="16"/>
@@ -6941,10 +6986,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D118" s="52" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="E118" s="52"/>
       <c r="F118" s="16"/>
@@ -6952,7 +6997,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -6966,7 +7011,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -6977,7 +7022,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B126" s="22" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -7012,7 +7057,7 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="22" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
@@ -7027,12 +7072,12 @@
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="22" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="22" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
@@ -7061,12 +7106,12 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="22" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="22" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
@@ -7086,7 +7131,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/php code libraries/Laravel DRY v1.xlsx
+++ b/php code libraries/Laravel DRY v1.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="LaravelGenerate" sheetId="5" state="hidden" r:id="rId2"/>
-    <sheet name="FormGeneratorV1" sheetId="12" r:id="rId3"/>
-    <sheet name="AutoLaravel v1" sheetId="6" r:id="rId4"/>
-    <sheet name="laravelAuth v1" sheetId="7" r:id="rId5"/>
-    <sheet name="HTML template v1" sheetId="8" r:id="rId6"/>
-    <sheet name="Laravel mail v1" sheetId="10" r:id="rId7"/>
-    <sheet name="Controller generator" sheetId="11" r:id="rId8"/>
-    <sheet name="table relations v1" sheetId="13" r:id="rId9"/>
-    <sheet name="error ptscreen" sheetId="9" r:id="rId10"/>
+    <sheet name="Index" sheetId="15" r:id="rId3"/>
+    <sheet name="FormGeneratorV1" sheetId="12" r:id="rId4"/>
+    <sheet name="inline ajax edit v1" sheetId="14" r:id="rId5"/>
+    <sheet name="AutoLaravel v1" sheetId="6" r:id="rId6"/>
+    <sheet name="laravelAuth v1" sheetId="7" r:id="rId7"/>
+    <sheet name="HTML template v1" sheetId="8" r:id="rId8"/>
+    <sheet name="Laravel mail v1" sheetId="10" r:id="rId9"/>
+    <sheet name="Controller generator" sheetId="11" r:id="rId10"/>
+    <sheet name="table relations v1" sheetId="13" r:id="rId11"/>
+    <sheet name="Hoja1" sheetId="16" r:id="rId12"/>
+    <sheet name="error ptscreen" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="511">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -1207,15 +1210,9 @@
     <t>projects</t>
   </si>
   <si>
-    <t>var data={</t>
-  </si>
-  <si>
     <t>AJAX object</t>
   </si>
   <si>
-    <t>};</t>
-  </si>
-  <si>
     <t>';</t>
   </si>
   <si>
@@ -1492,12 +1489,6 @@
     <t>test2</t>
   </si>
   <si>
-    <t>ajax</t>
-  </si>
-  <si>
-    <t>runajax</t>
-  </si>
-  <si>
     <t>RESTful</t>
   </si>
   <si>
@@ -1534,9 +1525,6 @@
     <t>DEPRECATED</t>
   </si>
   <si>
-    <t>periods</t>
-  </si>
-  <si>
     <t>METHOD FOR COUNTING ITEMS FROM A TABLE WHEN CONDITION IS IN ANOTHER TABLE</t>
   </si>
   <si>
@@ -1684,9 +1672,6 @@
     <t xml:space="preserve">           example {{$value-&gt;score}} (if "name" is a column of desired main table) &lt;br&gt;</t>
   </si>
   <si>
-    <t>creator</t>
-  </si>
-  <si>
     <t>Inside html template</t>
   </si>
   <si>
@@ -1696,39 +1681,9 @@
     <t>Mail::pretend();</t>
   </si>
   <si>
-    <t>junks</t>
-  </si>
-  <si>
     <t>task</t>
   </si>
   <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>adopter</t>
-  </si>
-  <si>
-    <t>evidence</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>notice</t>
-  </si>
-  <si>
     <t>php artisan generate:migration add_</t>
   </si>
   <si>
@@ -1736,13 +1691,172 @@
   </si>
   <si>
     <t>taskController</t>
+  </si>
+  <si>
+    <t>minitasks</t>
+  </si>
+  <si>
+    <t>thetask_id</t>
+  </si>
+  <si>
+    <t>Inline ajax edit version 1</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Add +</t>
+  </si>
+  <si>
+    <t>tablename</t>
+  </si>
+  <si>
+    <t>ideas</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>$(#'</t>
+  </si>
+  <si>
+    <t>if(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     var base=$('#base').html();</t>
+  </si>
+  <si>
+    <t>$.post(base+'/</t>
+  </si>
+  <si>
+    <t>index route</t>
+  </si>
+  <si>
+    <t>logged</t>
+  </si>
+  <si>
+    <t>},function(d) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            //</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    var data={</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    };</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>confirm_add</t>
+  </si>
+  <si>
+    <t>public function post</t>
+  </si>
+  <si>
+    <t>() {</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>save();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return 1;</t>
+  </si>
+  <si>
+    <t>d==1) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENDING TO </t>
+  </si>
+  <si>
+    <t>* ADD MODEL THAT RETRIEVES ALL DATA IN HTML TABLE</t>
+  </si>
+  <si>
+    <t>* ADD HTML ITERATIVE DATA (FOREACH FUNCTION)</t>
+  </si>
+  <si>
+    <t>* BUILD DIV WITH DIV HIDE INPUT, SHOW HTML VARIABLE, JS CHANGE FROM HTML TO INPUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AND JS SAVE VIA AJAX NEW ENTERED DATA</t>
+  </si>
+  <si>
+    <t>Create new laravel project</t>
+  </si>
+  <si>
+    <t>Create a controller and its view</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>tasking</t>
+  </si>
+  <si>
+    <t>projectactives</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>$books-&gt;load('author', 'publisher');</t>
+  </si>
+  <si>
+    <t>$books = Book::all();</t>
+  </si>
+  <si>
+    <t>}))-&gt;get();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $query-&gt;where('title', 'like', '%first%');</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>$users = User::with(array('posts' =&gt; function($query)</t>
+  </si>
+  <si>
+    <t>$books = Book::with('author.contacts')-&gt;get();</t>
+  </si>
+  <si>
+    <t>$books = Book::with('author', 'publisher')-&gt;get();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    echo $book-&gt;author-&gt;name;</t>
+  </si>
+  <si>
+    <t>foreach (Book::with('author')-&gt;get() as $book)</t>
+  </si>
+  <si>
+    <t>PENDING TO AUTOMATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1921,8 +2035,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1980,6 +2109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2161,10 +2296,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2225,8 +2361,15 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2920,6 +3063,1210 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11.42578125" style="10"/>
+    <col min="4" max="4" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="22" t="str">
+        <f>A1&amp;D7&amp;A2&amp;D9&amp;A3</f>
+        <v>Route::('task','taskController');</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="22" t="str">
+        <f>$B$1&amp;B15&amp;UPPER(LEFT(C15,1))&amp;RIGHT(C15,LEN(C15)-1)&amp;$B$2</f>
+        <v>public function getAddtask() {}</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f>$D$7&amp;"/"&amp;C15</f>
+        <v>task/addtask</v>
+      </c>
+      <c r="I15" s="22" t="str">
+        <f>$B$3&amp;G15&amp;$C$1&amp;C15&amp;$C$2</f>
+        <v>{{link_to('task/addtask','addtask'}}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="22" t="str">
+        <f>$B$1&amp;B16&amp;UPPER(LEFT(C16,1))&amp;RIGHT(C16,LEN(C16)-1)&amp;$B$2</f>
+        <v>public function postAddtask() {}</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f>$D$7&amp;"/"&amp;C16</f>
+        <v>task/addtask</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I147"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="16" t="str">
+        <f>UPPER(LEFT(B19,1))&amp;RIGHT(B19,LEN(B19)-1)</f>
+        <v>Projects</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="50" t="str">
+        <f>A1&amp;D206&amp;A2&amp;B21&amp;A3</f>
+        <v>$id=::where('p_owner','=',$user)-&gt;get(['id']);</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="50" t="str">
+        <f>"$"&amp;LEFT(B19,LEN(B19)-1)&amp;"="&amp;LEFT(D19,LEN(D19)-1)&amp;A4</f>
+        <v>$project=Project::find($id);</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="16" t="str">
+        <f>LEFT(D34,LEN(D34)-1)</f>
+        <v>thetask</v>
+      </c>
+      <c r="G34" s="16" t="str">
+        <f>UPPER(LEFT(F34,1))&amp;RIGHT(F34,LEN(F34)-1)</f>
+        <v>Thetask</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="16" t="str">
+        <f>LEFT(D36,LEN(D36)-1)</f>
+        <v>minitask</v>
+      </c>
+      <c r="G36" s="16" t="str">
+        <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
+        <v>Minitask</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="22" t="str">
+        <f>F34&amp;"_id"</f>
+        <v>thetask_id</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="54" t="str">
+        <f>C2&amp;G34&amp;".php"</f>
+        <v>//app/models/Thetask.php</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D46" s="22" t="str">
+        <f>C3&amp;F36&amp;C4</f>
+        <v>public function minitask () {</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D47" s="22" t="str">
+        <f>C5&amp;G36&amp;"');"</f>
+        <v>return $this-&gt;hasMany('Minitask');</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D48" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="54" t="str">
+        <f>C2&amp;G36&amp;".php"</f>
+        <v>//app/models/Minitask.php</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="22" t="str">
+        <f>C3&amp;F34&amp;C4</f>
+        <v>public function thetask () {</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="22" t="str">
+        <f>D1&amp;G34&amp;"');"</f>
+        <v>return $this-&gt;belongsTo('Thetask');</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D60" s="22" t="str">
+        <f>"$"&amp;F34&amp;A5</f>
+        <v>$thetask=Project::all();</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="22" t="str">
+        <f>B1&amp;"$"&amp;F34&amp;B2</f>
+        <v>foreach ($thetask as $value){</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="22" t="str">
+        <f>"     "&amp;B3&amp;G34&amp;B4</f>
+        <v xml:space="preserve">     $row=Thetask::find($value-&gt;id);</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="22" t="str">
+        <f>"     "&amp;B5&amp;D35&amp;";"</f>
+        <v xml:space="preserve">     $owner=$value-&gt;thetask_id;</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="22" t="str">
+        <f>"     "&amp;C1&amp;F36&amp;";"</f>
+        <v xml:space="preserve">     $allowed=$row-&gt;minitask;</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="22" t="str">
+        <f>"          "&amp;D2&amp;D37&amp;D3</f>
+        <v xml:space="preserve">          @if($allowed[0]['email']==$user)</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D84" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E95" s="16" t="str">
+        <f>LEFT(C95,LEN(C95)-1)</f>
+        <v>thetask</v>
+      </c>
+      <c r="F95" s="16" t="str">
+        <f>UPPER(LEFT(E95,1))&amp;RIGHT(E95,LEN(E95)-1)</f>
+        <v>Thetask</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E96" s="16" t="str">
+        <f>LEFT(C96,LEN(C96)-1)</f>
+        <v>project</v>
+      </c>
+      <c r="F96" s="16" t="str">
+        <f>UPPER(LEFT(E96,1))&amp;RIGHT(E96,LEN(E96)-1)</f>
+        <v>Project</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="22" t="str">
+        <f>"$"&amp;C100&amp;C95&amp;"="&amp;F96&amp;"::has('"&amp;E95&amp;"')"</f>
+        <v>$ownthetasks=Project::has('thetask')</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="22" t="str">
+        <f>"-&gt;where('"&amp;C97&amp;"','=',"&amp;C98&amp;")"</f>
+        <v>-&gt;where('p_owner','=',$logged)</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="27" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="59" t="s">
+        <v>416</v>
+      </c>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="59" t="s">
+        <v>417</v>
+      </c>
+      <c r="B108" s="59"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="59"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F109" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D110" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="E110" s="52"/>
+      <c r="F110" s="16" t="str">
+        <f>LEFT(D110,LEN(D110)-1)</f>
+        <v>thetask</v>
+      </c>
+      <c r="G110" s="16" t="str">
+        <f>UPPER(LEFT(F110,1))&amp;RIGHT(F110,LEN(F110)-1)</f>
+        <v>Thetask</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D111" s="52" t="s">
+        <v>440</v>
+      </c>
+      <c r="E111" s="52"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D112" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="E112" s="52"/>
+      <c r="F112" s="16" t="str">
+        <f>LEFT(D112,LEN(D112)-1)</f>
+        <v>project</v>
+      </c>
+      <c r="G112" s="16" t="str">
+        <f>UPPER(LEFT(F112,1))&amp;RIGHT(F112,LEN(F112)-1)</f>
+        <v>Project</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D113" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="E113" s="52"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D114" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="E114" s="52"/>
+      <c r="F114" s="16" t="str">
+        <f>LEFT(D114,LEN(D114)-1)</f>
+        <v>projectpermission</v>
+      </c>
+      <c r="G114" s="16" t="str">
+        <f>UPPER(LEFT(F114,1))&amp;RIGHT(F114,LEN(F114)-1)</f>
+        <v>Projectpermission</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D115" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E115" s="52"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D116" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="E116" s="52"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D117" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="E117" s="52"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="D118" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="E118" s="52"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="22" t="str">
+        <f>D4&amp;F110&amp;"',"&amp;G110&amp;D5&amp;D117&amp;E1&amp;D118&amp;E2</f>
+        <v>-&gt;with('thetask',Thetask::orderBy('score','desc')-&gt;get())</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="29"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="22" t="str">
+        <f>E3&amp;F110&amp;E4</f>
+        <v xml:space="preserve">@foreach($thetask as $value) </v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="22" t="str">
+        <f>"     "&amp;E5&amp;G110&amp;F1</f>
+        <v xml:space="preserve">     $id=Thetask::find($value-&gt;id);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="22" t="str">
+        <f>"     "&amp;F2&amp;F112&amp;F3&amp;F112&amp;";"</f>
+        <v xml:space="preserve">     $filterproject=$value-&gt;project;</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="22" t="str">
+        <f>"     "&amp;F2&amp;F112&amp;"id="&amp;F2&amp;F112&amp;"-&gt;id;"</f>
+        <v xml:space="preserve">     $filterprojectid=$filterproject-&gt;id;</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="22" t="str">
+        <f>"     "&amp;F2&amp;F114&amp;"="&amp;G114&amp;G2&amp;D115&amp;G3&amp;F2&amp;")"</f>
+        <v xml:space="preserve">     $filterprojectpermission=Projectpermission::where('email','=',$filter)</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="22" t="str">
+        <f>"     "&amp;G4&amp;D116&amp;G3&amp;F2&amp;F112&amp;"id"&amp;G5</f>
+        <v xml:space="preserve">     -&gt;where('project_id','=',$filterprojectid)-&gt;first();</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="22"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="22" t="str">
+        <f>"     @if("&amp;F2&amp;F114&amp;"['"&amp;D115&amp;"']=="&amp;F2&amp;")"</f>
+        <v xml:space="preserve">     @if($filterprojectpermission['email']==$filter)</v>
+      </c>
+      <c r="G134" s="29"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="22" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="22"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="22" t="str">
+        <f>"     @endif"</f>
+        <v xml:space="preserve">     @endif</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="22"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="22" t="str">
+        <f>"        "&amp;F4&amp;F2&amp;F112&amp;"-&gt;"&amp;D113&amp;"))"</f>
+        <v xml:space="preserve">        @if(isset($filterproject-&gt;p_owner))</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="22" t="str">
+        <f>"           "&amp;G1&amp;F2&amp;"=="&amp;F2&amp;F112&amp;"-&gt;"&amp;D113&amp;")"</f>
+        <v xml:space="preserve">           @if($filter==$filterproject-&gt;p_owner)</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="22" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="22" t="str">
+        <f>"           @endif"</f>
+        <v xml:space="preserve">           @endif</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="22"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="22" t="str">
+        <f>"     @endif"</f>
+        <v xml:space="preserve">     @endif</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="27" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3231,7 +4578,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -3256,10 +4603,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="61" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="62" t="s">
+        <v>494</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4:D4" location="'AutoLaravel v1'!C13" display="Create new laravel project"/>
+    <hyperlink ref="B8:D8" location="'AutoLaravel v1'!D66" display="Create a controller and its view"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:XFD6"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,10 +4659,10 @@
         <v>288</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -3283,10 +4670,10 @@
         <v>289</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -3294,7 +4681,7 @@
         <v>291</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -3302,7 +4689,7 @@
         <v>292</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -3310,7 +4697,7 @@
         <v>290</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -3318,7 +4705,7 @@
         <v>294</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3371,63 +4758,63 @@
         <v>285</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="str">
         <f>IF('AutoLaravel v1'!C47&lt;&gt;"",'AutoLaravel v1'!C47,"")</f>
-        <v>task</v>
+        <v>user</v>
       </c>
       <c r="C17" s="35" t="str">
         <f>IF(B17="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B17)</f>
-        <v>junks_task</v>
+        <v>projectactives_user</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="str">
         <f>IF(B17="","",C17&amp;$A$1)</f>
-        <v>junks_task_mssg</v>
+        <v>projectactives_user_mssg</v>
       </c>
       <c r="F17" s="36"/>
       <c r="H17" s="37" t="str">
         <f>IF('AutoLaravel v1'!G47&lt;&gt;"",'AutoLaravel v1'!G47,"")</f>
-        <v>comments</v>
+        <v/>
       </c>
       <c r="I17" s="35" t="str">
         <f>IF(H17&lt;&gt;"",'AutoLaravel v1'!$D$45&amp;"_"&amp;H17,"")</f>
-        <v>junks_comments</v>
+        <v/>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="35" t="str">
         <f t="shared" ref="K17:K26" si="0">I17&amp;$A$1</f>
-        <v>junks_comments_mssg</v>
+        <v>_mssg</v>
       </c>
       <c r="L17" s="36"/>
       <c r="N17" s="42" t="str">
         <f>B17</f>
-        <v>task</v>
+        <v>user</v>
       </c>
       <c r="O17" s="43" t="str">
         <f>IF(H17&lt;&gt;"",",","")&amp;H17</f>
-        <v>,comments</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="str">
         <f>IF('AutoLaravel v1'!C48&lt;&gt;"",'AutoLaravel v1'!C48,"")</f>
-        <v>project</v>
+        <v>project_id</v>
       </c>
       <c r="C18" s="33" t="str">
         <f>IF(B18="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B18)</f>
-        <v>junks_project</v>
+        <v>projectactives_project_id</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33" t="str">
         <f t="shared" ref="E18:E26" si="1">IF(B18="","",C18&amp;$A$1)</f>
-        <v>junks_project_mssg</v>
+        <v>projectactives_project_id_mssg</v>
       </c>
       <c r="F18" s="38"/>
       <c r="H18" s="37" t="str">
@@ -3446,7 +4833,7 @@
       <c r="L18" s="38"/>
       <c r="N18" s="44" t="str">
         <f>IF(B18&lt;&gt;"",",","")&amp;B18</f>
-        <v>,project</v>
+        <v>,project_id</v>
       </c>
       <c r="O18" s="45" t="str">
         <f t="shared" ref="O18:O26" si="2">IF(H18&lt;&gt;"",",","")&amp;H18</f>
@@ -3456,16 +4843,16 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="str">
         <f>IF('AutoLaravel v1'!C49&lt;&gt;"",'AutoLaravel v1'!C49,"")</f>
-        <v>stage</v>
+        <v/>
       </c>
       <c r="C19" s="33" t="str">
         <f>IF(B19="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B19)</f>
-        <v>junks_stage</v>
+        <v/>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>junks_stage_mssg</v>
+        <v/>
       </c>
       <c r="F19" s="38"/>
       <c r="H19" s="37" t="str">
@@ -3484,7 +4871,7 @@
       <c r="L19" s="38"/>
       <c r="N19" s="44" t="str">
         <f t="shared" ref="N19:N26" si="3">IF(B19&lt;&gt;"",",","")&amp;B19</f>
-        <v>,stage</v>
+        <v/>
       </c>
       <c r="O19" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3494,16 +4881,16 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="str">
         <f>IF('AutoLaravel v1'!C50&lt;&gt;"",'AutoLaravel v1'!C50,"")</f>
-        <v>parent</v>
+        <v/>
       </c>
       <c r="C20" s="33" t="str">
         <f>IF(B20="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B20)</f>
-        <v>junks_parent</v>
+        <v/>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>junks_parent_mssg</v>
+        <v/>
       </c>
       <c r="F20" s="38"/>
       <c r="H20" s="37" t="str">
@@ -3522,7 +4909,7 @@
       <c r="L20" s="38"/>
       <c r="N20" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>,parent</v>
+        <v/>
       </c>
       <c r="O20" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3532,16 +4919,16 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="str">
         <f>IF('AutoLaravel v1'!C51&lt;&gt;"",'AutoLaravel v1'!C51,"")</f>
-        <v>score</v>
+        <v/>
       </c>
       <c r="C21" s="33" t="str">
         <f>IF(B21="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B21)</f>
-        <v>junks_score</v>
+        <v/>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>junks_score_mssg</v>
+        <v/>
       </c>
       <c r="F21" s="38"/>
       <c r="H21" s="37" t="str">
@@ -3560,7 +4947,7 @@
       <c r="L21" s="38"/>
       <c r="N21" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>,score</v>
+        <v/>
       </c>
       <c r="O21" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3570,16 +4957,16 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="str">
         <f>IF('AutoLaravel v1'!C52&lt;&gt;"",'AutoLaravel v1'!C52,"")</f>
-        <v>creator</v>
+        <v/>
       </c>
       <c r="C22" s="33" t="str">
         <f>IF(B22="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B22)</f>
-        <v>junks_creator</v>
+        <v/>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>junks_creator_mssg</v>
+        <v/>
       </c>
       <c r="F22" s="38"/>
       <c r="H22" s="37" t="str">
@@ -3598,7 +4985,7 @@
       <c r="L22" s="38"/>
       <c r="N22" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>,creator</v>
+        <v/>
       </c>
       <c r="O22" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3608,16 +4995,16 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="37" t="str">
         <f>IF('AutoLaravel v1'!C53&lt;&gt;"",'AutoLaravel v1'!C53,"")</f>
-        <v>adopter</v>
+        <v/>
       </c>
       <c r="C23" s="33" t="str">
         <f>IF(B23="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B23)</f>
-        <v>junks_adopter</v>
+        <v/>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>junks_adopter_mssg</v>
+        <v/>
       </c>
       <c r="F23" s="38"/>
       <c r="H23" s="37" t="str">
@@ -3636,7 +5023,7 @@
       <c r="L23" s="38"/>
       <c r="N23" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>,adopter</v>
+        <v/>
       </c>
       <c r="O23" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3646,16 +5033,16 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="str">
         <f>IF('AutoLaravel v1'!C54&lt;&gt;"",'AutoLaravel v1'!C54,"")</f>
-        <v>evidence</v>
+        <v/>
       </c>
       <c r="C24" s="33" t="str">
         <f>IF(B24="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B24)</f>
-        <v>junks_evidence</v>
+        <v/>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>junks_evidence_mssg</v>
+        <v/>
       </c>
       <c r="F24" s="38"/>
       <c r="H24" s="37" t="str">
@@ -3674,7 +5061,7 @@
       <c r="L24" s="38"/>
       <c r="N24" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>,evidence</v>
+        <v/>
       </c>
       <c r="O24" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3684,16 +5071,16 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="str">
         <f>IF('AutoLaravel v1'!C55&lt;&gt;"",'AutoLaravel v1'!C55,"")</f>
-        <v>reason</v>
+        <v/>
       </c>
       <c r="C25" s="33" t="str">
         <f>IF(B25="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B25)</f>
-        <v>junks_reason</v>
+        <v/>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>junks_reason_mssg</v>
+        <v/>
       </c>
       <c r="F25" s="38"/>
       <c r="H25" s="37" t="str">
@@ -3712,7 +5099,7 @@
       <c r="L25" s="38"/>
       <c r="N25" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>,reason</v>
+        <v/>
       </c>
       <c r="O25" s="45" t="str">
         <f t="shared" si="2"/>
@@ -3722,16 +5109,16 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="str">
         <f>IF('AutoLaravel v1'!C56&lt;&gt;"",'AutoLaravel v1'!C56,"")</f>
-        <v>output</v>
+        <v/>
       </c>
       <c r="C26" s="40" t="str">
         <f>IF(B26="","",'AutoLaravel v1'!$D$45&amp;"_"&amp;B26)</f>
-        <v>junks_output</v>
+        <v/>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>junks_output_mssg</v>
+        <v/>
       </c>
       <c r="F26" s="41"/>
       <c r="H26" s="39" t="str">
@@ -3750,7 +5137,7 @@
       <c r="L26" s="41"/>
       <c r="N26" s="46" t="str">
         <f t="shared" si="3"/>
-        <v>,output</v>
+        <v/>
       </c>
       <c r="O26" s="47" t="str">
         <f t="shared" si="2"/>
@@ -3759,13 +5146,13 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="55" t="str">
         <f>IF(C17&lt;&gt;"",$B$3&amp;C17&amp;$B$4&amp;E17&amp;$B$5,"")</f>
-        <v>&lt;input type='text' id='junks_task'&gt;&lt;spam id='junks_task_mssg'&gt;&lt;/spam&gt;</v>
+        <v>&lt;input type='text' id='projectactives_user'&gt;&lt;spam id='projectactives_user_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
@@ -3774,7 +5161,7 @@
       <c r="G30" s="32"/>
       <c r="H30" s="55" t="str">
         <f>IF(I17&lt;&gt;"",$B$3&amp;I17&amp;$B$4&amp;K17&amp;$B$5,"")</f>
-        <v>&lt;input type='text' id='junks_comments'&gt;&lt;spam id='junks_comments_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
@@ -3785,7 +5172,7 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="55" t="str">
         <f t="shared" ref="B31:B39" si="4">IF(C18&lt;&gt;"",$B$3&amp;C18&amp;$B$4&amp;E18&amp;$B$5,"")</f>
-        <v>&lt;input type='text' id='junks_project'&gt;&lt;spam id='junks_project_mssg'&gt;&lt;/spam&gt;</v>
+        <v>&lt;input type='text' id='projectactives_project_id'&gt;&lt;spam id='projectactives_project_id_mssg'&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
@@ -3805,7 +5192,7 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;input type='text' id='junks_stage'&gt;&lt;spam id='junks_stage_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
@@ -3825,7 +5212,7 @@
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;input type='text' id='junks_parent'&gt;&lt;spam id='junks_parent_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
@@ -3845,7 +5232,7 @@
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;input type='text' id='junks_score'&gt;&lt;spam id='junks_score_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
@@ -3865,7 +5252,7 @@
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;input type='text' id='junks_creator'&gt;&lt;spam id='junks_creator_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
@@ -3885,7 +5272,7 @@
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;input type='text' id='junks_adopter'&gt;&lt;spam id='junks_adopter_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
@@ -3905,7 +5292,7 @@
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;input type='text' id='junks_evidence'&gt;&lt;spam id='junks_evidence_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
@@ -3925,7 +5312,7 @@
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;input type='text' id='junks_reason'&gt;&lt;spam id='junks_reason_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
@@ -3945,7 +5332,7 @@
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;input type='text' id='junks_output'&gt;&lt;spam id='junks_output_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
@@ -3964,7 +5351,7 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="57" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
@@ -3972,12 +5359,12 @@
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
       <c r="H41" s="10" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C42" s="57"/>
       <c r="D42" s="57"/>
@@ -3987,7 +5374,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="57" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="57"/>
@@ -4006,34 +5393,34 @@
       </c>
       <c r="D46" s="10" t="str">
         <f>'AutoLaravel v1'!D67&amp;'AutoLaravel v1'!D66</f>
-        <v>ajaxperiods</v>
+        <v>compactbase</v>
       </c>
       <c r="E46" s="16" t="str">
         <f>UPPER(LEFT(D46,1))&amp;RIGHT(D46,LEN(D46)-1)</f>
-        <v>Ajaxperiods</v>
+        <v>Compactbase</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D47" s="10" t="str">
         <f>'AutoLaravel v1'!D67</f>
-        <v>ajax</v>
+        <v>compact</v>
       </c>
       <c r="E47" s="16"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D48" s="10" t="str">
         <f>'AutoLaravel v1'!D68</f>
-        <v>runajax</v>
+        <v>tasking</v>
       </c>
       <c r="E48" s="16" t="str">
         <f>UPPER(LEFT(D48,1))&amp;RIGHT(D48,LEN(D48)-1)</f>
-        <v>Runajax</v>
+        <v>Tasking</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -4042,11 +5429,11 @@
       </c>
       <c r="D49" s="10" t="str">
         <f>D46&amp;"_submit"</f>
-        <v>ajaxperiods_submit</v>
+        <v>compactbase_submit</v>
       </c>
       <c r="F49" s="55" t="str">
         <f>B6&amp;D46&amp;C1</f>
-        <v>&lt;button class='btn' id='ajaxperiods_submit' &gt;submit&lt;/button&gt;</v>
+        <v>&lt;button class='btn' id='compactbase_submit' &gt;submit&lt;/button&gt;</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -4059,7 +5446,7 @@
       </c>
       <c r="D50" s="32" t="str">
         <f>D47&amp;"/"&amp;D46</f>
-        <v>ajax/ajaxperiods</v>
+        <v>compact/compactbase</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -4070,12 +5457,12 @@
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="22" t="str">
         <f>$A$5&amp;D49&amp;A6</f>
-        <v>$('#ajaxperiods_submit').click(function() {</v>
+        <v>$('#compactbase_submit').click(function() {</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="55" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
@@ -4085,7 +5472,7 @@
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="55" t="str">
         <f>IF(B17="","",$A$2&amp;B17&amp;$A$3&amp;C17&amp;$A$4)&amp;IF(B18="","",$A$2&amp;B18&amp;$A$3&amp;C18&amp;$A$4)</f>
-        <v>var task=$('#junks_task').val();var project=$('#junks_project').val();</v>
+        <v>var user=$('#projectactives_user').val();var project_id=$('#projectactives_project_id').val();</v>
       </c>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
@@ -4095,7 +5482,7 @@
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="55" t="str">
         <f>IF(B19="","",$A$2&amp;B19&amp;$A$3&amp;C19&amp;$A$4)&amp;IF(B20="","",$A$2&amp;B20&amp;$A$3&amp;C20&amp;$A$4)</f>
-        <v>var stage=$('#junks_stage').val();var parent=$('#junks_parent').val();</v>
+        <v/>
       </c>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
@@ -4105,7 +5492,7 @@
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="55" t="str">
         <f>IF(B21="","",$A$2&amp;B21&amp;$A$3&amp;B21&amp;$A$4)&amp;IF(B22="","",$A$2&amp;B22&amp;$A$3&amp;B22&amp;$A$4)</f>
-        <v>var score=$('#score').val();var creator=$('#creator').val();</v>
+        <v/>
       </c>
       <c r="C56" s="32"/>
       <c r="D56" s="32"/>
@@ -4115,7 +5502,7 @@
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="55" t="str">
         <f>IF(B23="","",$A$2&amp;B23&amp;$A$3&amp;B23&amp;$A$4)&amp;IF(B24="","",$A$2&amp;B24&amp;$A$3&amp;B24&amp;$A$4)</f>
-        <v>var adopter=$('#adopter').val();var evidence=$('#evidence').val();</v>
+        <v/>
       </c>
       <c r="C57" s="32"/>
       <c r="D57" s="32"/>
@@ -4125,7 +5512,7 @@
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="55" t="str">
         <f>IF(B25="","",$A$2&amp;B25&amp;$A$3&amp;B25&amp;$A$4)&amp;IF(B26="","",$A$2&amp;B26&amp;$A$3&amp;B26&amp;$A$4)</f>
-        <v>var reason=$('#reason').val();var output=$('#output').val();</v>
+        <v/>
       </c>
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
@@ -4135,7 +5522,7 @@
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="56" t="str">
         <f>IF(H17="","",$A$2&amp;H17&amp;$A$3&amp;H17&amp;$A$4)&amp;IF(H18="","",$A$2&amp;H18&amp;$A$3&amp;H18&amp;$A$4)</f>
-        <v>var comments=$('#comments').val();</v>
+        <v/>
       </c>
       <c r="C59" s="32"/>
       <c r="D59" s="32"/>
@@ -4184,31 +5571,31 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="22" t="s">
-        <v>297</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="56" t="str">
-        <f>N17&amp;IF(B17&lt;&gt;"",":","")&amp;B17&amp;N18&amp;IF(B18&lt;&gt;"",":","")&amp;B18&amp;N19&amp;IF(B19&lt;&gt;"",":","")&amp;B19&amp;N20&amp;IF(B20&lt;&gt;"",":","")&amp;B20</f>
-        <v>task:task,project:project,stage:stage,parent:parent</v>
+        <f>"    "&amp;N17&amp;IF(B17&lt;&gt;"",":","")&amp;B17&amp;N18&amp;IF(B18&lt;&gt;"",":","")&amp;B18&amp;N19&amp;IF(B19&lt;&gt;"",":","")&amp;B19&amp;N20&amp;IF(B20&lt;&gt;"",":","")&amp;B20</f>
+        <v xml:space="preserve">    user:user,project_id:project_id</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="56" t="str">
         <f>N21&amp;IF(B21&lt;&gt;"",":","")&amp;B21&amp;N22&amp;IF(B22&lt;&gt;"",":","")&amp;B22&amp;N23&amp;IF(B23&lt;&gt;"",":","")&amp;B23&amp;N24&amp;IF(B24&lt;&gt;"",":","")&amp;B24</f>
-        <v>,score:score,creator:creator,adopter:adopter,evidence:evidence</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="56" t="str">
         <f t="shared" ref="B67" si="6">N25&amp;IF(B25&lt;&gt;"",":","")&amp;B25&amp;N26&amp;IF(B26&lt;&gt;"",":","")&amp;B26</f>
-        <v>,reason:reason,output:output</v>
+        <v/>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="55" t="str">
         <f>O17&amp;IF(H17&lt;&gt;"",":","")&amp;H17&amp;O18&amp;IF(H18&lt;&gt;"",":","")&amp;H18&amp;O19&amp;IF(H19&lt;&gt;"",":","")&amp;H19&amp;O20&amp;IF(H20&lt;&gt;"",":","")&amp;H20</f>
-        <v>,comments:comments</v>
+        <v/>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
@@ -4225,18 +5612,18 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="22" t="s">
-        <v>299</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="22" t="str">
         <f>B1&amp;D50&amp;B2</f>
-        <v>var route=base+'/ajax/ajaxperiods';</v>
+        <v>var route=base+'/compact/compactbase';</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
@@ -4250,55 +5637,55 @@
       </c>
       <c r="D77" s="32" t="str">
         <f>E48&amp;"Controller"</f>
-        <v>RunajaxController</v>
+        <v>TaskingController</v>
       </c>
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
       <c r="G77" s="16" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H77" s="16" t="str">
         <f>'AutoLaravel v1'!D45</f>
-        <v>junks</v>
+        <v>projectactives</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D78" s="58" t="str">
         <f>"public function post"&amp;E46&amp;"() {"</f>
-        <v>public function postAjaxperiods() {</v>
+        <v>public function postCompactbase() {</v>
       </c>
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
       <c r="G78" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H78" s="16" t="str">
         <f>'AutoLaravel v1'!G45</f>
-        <v>Junk</v>
+        <v>Projectactive</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D79" s="58" t="str">
         <f>"$"&amp;B17&amp;"=$_POST['"&amp;B17&amp;"'];"</f>
-        <v>$task=$_POST['task'];</v>
+        <v>$user=$_POST['user'];</v>
       </c>
       <c r="E79" s="32"/>
       <c r="F79" s="32"/>
       <c r="G79" s="16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H79" s="16" t="str">
         <f>"$"&amp;'AutoLaravel v1'!F45</f>
-        <v>$junk</v>
+        <v>$projectactive</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D80" s="58" t="str">
         <f>"$"&amp;B18&amp;"=$_POST['"&amp;B18&amp;"'];"</f>
-        <v>$project=$_POST['project'];</v>
+        <v>$project_id=$_POST['project_id'];</v>
       </c>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
@@ -4306,14 +5693,14 @@
     <row r="81" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D81" s="58" t="str">
         <f>"$"&amp;B19&amp;"=$_POST['"&amp;B19&amp;"'];"</f>
-        <v>$stage=$_POST['stage'];</v>
+        <v>$=$_POST[''];</v>
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D82" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="32"/>
@@ -4321,7 +5708,7 @@
     <row r="83" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D83" s="58" t="str">
         <f>H79&amp;"=New "&amp;H78&amp;";"</f>
-        <v>$junk=New Junk;</v>
+        <v>$projectactive=New Projectactive;</v>
       </c>
       <c r="E83" s="32"/>
       <c r="F83" s="32"/>
@@ -4329,7 +5716,7 @@
     <row r="84" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D84" s="55" t="str">
         <f>IF(B17&lt;&gt;"",$H$79&amp;$C$2&amp;B17&amp;"=$"&amp;B17&amp;";","")</f>
-        <v>$junk-&gt;task=$task;</v>
+        <v>$projectactive-&gt;user=$user;</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="32"/>
@@ -4337,7 +5724,7 @@
     <row r="85" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D85" s="55" t="str">
         <f t="shared" ref="D85:D93" si="8">IF(B18&lt;&gt;"",$H$79&amp;$C$2&amp;B18&amp;"=$"&amp;B18&amp;";","")</f>
-        <v>$junk-&gt;project=$project;</v>
+        <v>$projectactive-&gt;project_id=$project_id;</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="32"/>
@@ -4345,7 +5732,7 @@
     <row r="86" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D86" s="55" t="str">
         <f t="shared" si="8"/>
-        <v>$junk-&gt;stage=$stage;</v>
+        <v/>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="32"/>
@@ -4353,7 +5740,7 @@
     <row r="87" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D87" s="55" t="str">
         <f t="shared" si="8"/>
-        <v>$junk-&gt;parent=$parent;</v>
+        <v/>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="32"/>
@@ -4361,7 +5748,7 @@
     <row r="88" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D88" s="55" t="str">
         <f t="shared" si="8"/>
-        <v>$junk-&gt;score=$score;</v>
+        <v/>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="32"/>
@@ -4369,7 +5756,7 @@
     <row r="89" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D89" s="55" t="str">
         <f t="shared" si="8"/>
-        <v>$junk-&gt;creator=$creator;</v>
+        <v/>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="32"/>
@@ -4377,7 +5764,7 @@
     <row r="90" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D90" s="55" t="str">
         <f t="shared" si="8"/>
-        <v>$junk-&gt;adopter=$adopter;</v>
+        <v/>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="32"/>
@@ -4385,7 +5772,7 @@
     <row r="91" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D91" s="55" t="str">
         <f t="shared" si="8"/>
-        <v>$junk-&gt;evidence=$evidence;</v>
+        <v/>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="32"/>
@@ -4393,7 +5780,7 @@
     <row r="92" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D92" s="55" t="str">
         <f t="shared" si="8"/>
-        <v>$junk-&gt;reason=$reason;</v>
+        <v/>
       </c>
       <c r="E92" s="32"/>
       <c r="F92" s="32"/>
@@ -4401,14 +5788,14 @@
     <row r="93" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D93" s="55" t="str">
         <f t="shared" si="8"/>
-        <v>$junk-&gt;output=$output;</v>
+        <v/>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="32"/>
     </row>
     <row r="94" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D94" s="58" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="32"/>
@@ -4416,14 +5803,14 @@
     <row r="95" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D95" s="58" t="str">
         <f>H79&amp;C2&amp;"save();"</f>
-        <v>$junk-&gt;save();</v>
+        <v>$projectactive-&gt;save();</v>
       </c>
       <c r="E95" s="32"/>
       <c r="F95" s="32"/>
     </row>
     <row r="96" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D96" s="58" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="32"/>
@@ -4441,12 +5828,625 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="48" t="str">
+        <f>"').click(function() {"</f>
+        <v>').click(function() {</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="48" t="str">
+        <f>"=$_POST['"</f>
+        <v>=$_POST['</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="str">
+        <f>"' &gt;"</f>
+        <v>' &gt;</v>
+      </c>
+      <c r="B3" s="48" t="str">
+        <f>"!='') {"</f>
+        <v>!='') {</v>
+      </c>
+      <c r="C3" s="48" t="str">
+        <f>"'];"</f>
+        <v>'];</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" s="48" t="str">
+        <f>"=new "</f>
+        <v xml:space="preserve">=new </v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="48" t="str">
+        <f>"' , {"</f>
+        <v>' , {</v>
+      </c>
+      <c r="C5" s="48" t="str">
+        <f>"-&gt;"</f>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="str">
+        <f>"' &gt;Add + &lt;/button&gt;"</f>
+        <v>' &gt;Add + &lt;/button&gt;</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="16" t="str">
+        <f>LEFT(C11,LEN(C11)-1)</f>
+        <v>idea</v>
+      </c>
+      <c r="F11" s="16" t="str">
+        <f>UPPER(LEFT(E11,1))&amp;RIGHT(E11,LEN(E11)-1)</f>
+        <v>Idea</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>473</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f>A1&amp;E11</f>
+        <v>addidea</v>
+      </c>
+      <c r="E14" s="16" t="str">
+        <f>C14&amp;"s"</f>
+        <v>addideas</v>
+      </c>
+      <c r="G14" s="16" t="str">
+        <f>LEFT(E14,LEN(E14)-1)</f>
+        <v>addidea</v>
+      </c>
+      <c r="H14" s="16" t="str">
+        <f>UPPER(LEFT(G14,1))&amp;RIGHT(G14,LEN(G14)-1)</f>
+        <v>Addidea</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="55" t="str">
+        <f>A2&amp;C14&amp;A3</f>
+        <v>&lt;input type='text' id='addidea' &gt;</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="55" t="str">
+        <f>A5&amp;A4&amp;E11&amp;A6</f>
+        <v>&lt;button class='btn' id='confirm_addidea' &gt;Add + &lt;/button&gt;</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="55" t="str">
+        <f>A7&amp;A4&amp;E11&amp;B1</f>
+        <v>$(#'confirm_addidea').click(function() {</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="55" t="str">
+        <f>"     var "&amp;C14&amp;"=$('#"&amp;C14&amp;"').val();"</f>
+        <v xml:space="preserve">     var addidea=$('#addidea').val();</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="55" t="s">
+        <v>470</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="55" t="str">
+        <f>"    "&amp;B2&amp;C14&amp;B3</f>
+        <v xml:space="preserve">    if(addidea!='') {</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="55" t="str">
+        <f>"        "&amp;B4&amp;C13&amp;"/"&amp;C14&amp;B5&amp;C14&amp;";"&amp;C14&amp;B6</f>
+        <v xml:space="preserve">        $.post(base+'/logged/addidea' , {addidea;addidea},function(d) {</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="55" t="str">
+        <f>"          "&amp;B2&amp;C7</f>
+        <v xml:space="preserve">          if(d==1) {</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="55" t="s">
+        <v>475</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="55" t="str">
+        <f>"        }"</f>
+        <v xml:space="preserve">        }</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="55" t="str">
+        <f>"        );"</f>
+        <v xml:space="preserve">        );</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="55" t="str">
+        <f>"    }"</f>
+        <v xml:space="preserve">    }</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="55" t="str">
+        <f>B7&amp;H14&amp;C1</f>
+        <v>public function postAddidea() {</v>
+      </c>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="55" t="str">
+        <f>"    $"&amp;C14&amp;C2&amp;C14&amp;C3</f>
+        <v xml:space="preserve">    $addidea=$_POST['addidea'];</v>
+      </c>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="55" t="str">
+        <f>"    $"&amp;$E$11&amp;C4&amp;F11&amp;";"</f>
+        <v xml:space="preserve">    $idea=new Idea;</v>
+      </c>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="55" t="str">
+        <f>"    $"&amp;$E$11&amp;C5&amp;C12&amp;"=$"&amp;G14&amp;";"</f>
+        <v xml:space="preserve">    $idea-&gt;idea=$addidea;</v>
+      </c>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="55" t="str">
+        <f>"    $"&amp;$E$11&amp;C5&amp;C6</f>
+        <v xml:space="preserve">    $idea-&gt;save();</v>
+      </c>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4483,7 +6483,7 @@
         <v>145</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4494,7 +6494,7 @@
         <v>147</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4514,7 +6514,7 @@
         <v>128</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>145</v>
@@ -4543,7 +6543,7 @@
         <v>161</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -4552,7 +6552,7 @@
         <v>126</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -4703,7 +6703,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D40" s="9"/>
       <c r="F40" s="10" t="s">
@@ -4738,7 +6738,7 @@
       </c>
       <c r="M42" s="16" t="str">
         <f>IF(SUM(J47:K56)&gt;0,B2&amp;P56&amp;Q56&amp;B3,"")</f>
-        <v>--fields="task:string,project:string,stage:string,parent:string,score:integer,creator:string,adopter:string,evidence:string,reason:string,output:string,comments:string"</v>
+        <v>--fields="user:string,project_id:integer"</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
@@ -4751,15 +6751,15 @@
         <v>102</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>460</v>
+        <v>498</v>
       </c>
       <c r="F45" s="16" t="str">
         <f>LEFT(D45,LEN(D45)-1)</f>
-        <v>junk</v>
+        <v>projectactive</v>
       </c>
       <c r="G45" s="16" t="str">
         <f>UPPER(LEFT(F45,1))&amp;RIGHT(F45,LEN(F45)-1)</f>
-        <v>Junk</v>
+        <v>Projectactive</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
@@ -4791,7 +6791,7 @@
         <v>103</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>461</v>
+        <v>499</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>134</v>
@@ -4799,38 +6799,34 @@
       <c r="F47" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
       <c r="J47" s="16">
         <f>IF(C47="",0,1)</f>
         <v>1</v>
       </c>
       <c r="K47" s="16">
         <f>IF(G47="",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="16" t="s">
         <v>133</v>
       </c>
       <c r="N47" s="16" t="str">
         <f>IF(AND(C47&lt;&gt;"",D47&lt;&gt;""),IF(N46="concatenator1","",",")&amp;C47&amp;":"&amp;D47,"")</f>
-        <v>task:string</v>
+        <v>user:string</v>
       </c>
       <c r="O47" s="16" t="str">
         <f>IF(AND(G47&lt;&gt;"",H47&lt;&gt;""),","&amp;G47&amp;":"&amp;H47,"")</f>
-        <v>,comments:string</v>
+        <v/>
       </c>
       <c r="P47" s="16" t="str">
         <f>P46&amp;N47</f>
-        <v>task:string</v>
+        <v>user:string</v>
       </c>
       <c r="Q47" s="16" t="str">
         <f>Q46&amp;O47</f>
-        <v>,comments:string</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
@@ -4838,10 +6834,10 @@
         <v>104</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>462</v>
+        <v>376</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>114</v>
@@ -4861,7 +6857,7 @@
       </c>
       <c r="N48" s="16" t="str">
         <f t="shared" ref="N48:N56" si="2">IF(AND(C48&lt;&gt;"",D48&lt;&gt;""),IF(N47="concatenator1","",",")&amp;C48&amp;":"&amp;D48,"")</f>
-        <v>,project:string</v>
+        <v>,project_id:integer</v>
       </c>
       <c r="O48" s="16" t="str">
         <f t="shared" ref="O48:O56" si="3">IF(AND(G48&lt;&gt;"",H48&lt;&gt;""),","&amp;G48&amp;":"&amp;H48,"")</f>
@@ -4869,23 +6865,19 @@
       </c>
       <c r="P48" s="16" t="str">
         <f t="shared" ref="P48:P56" si="4">P47&amp;N48</f>
-        <v>task:string,project:string</v>
+        <v>user:string,project_id:integer</v>
       </c>
       <c r="Q48" s="16" t="str">
         <f t="shared" ref="Q48:Q56" si="5">Q47&amp;O48</f>
-        <v>,comments:string</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
       <c r="F49" s="10" t="s">
         <v>115</v>
       </c>
@@ -4893,7 +6885,7 @@
       <c r="H49" s="9"/>
       <c r="J49" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="16">
         <f t="shared" si="1"/>
@@ -4904,7 +6896,7 @@
       </c>
       <c r="N49" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>,stage:string</v>
+        <v/>
       </c>
       <c r="O49" s="16" t="str">
         <f t="shared" si="3"/>
@@ -4912,23 +6904,19 @@
       </c>
       <c r="P49" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,stage:string</v>
+        <v>user:string,project_id:integer</v>
       </c>
       <c r="Q49" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>,comments:string</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
       <c r="F50" s="10" t="s">
         <v>116</v>
       </c>
@@ -4936,7 +6924,7 @@
       <c r="H50" s="9"/>
       <c r="J50" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="16">
         <f t="shared" si="1"/>
@@ -4947,7 +6935,7 @@
       </c>
       <c r="N50" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>,parent:string</v>
+        <v/>
       </c>
       <c r="O50" s="16" t="str">
         <f t="shared" si="3"/>
@@ -4955,23 +6943,19 @@
       </c>
       <c r="P50" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,stage:string,parent:string</v>
+        <v>user:string,project_id:integer</v>
       </c>
       <c r="Q50" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>,comments:string</v>
+        <v/>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>133</v>
-      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
       <c r="F51" s="10" t="s">
         <v>117</v>
       </c>
@@ -4979,7 +6963,7 @@
       <c r="H51" s="9"/>
       <c r="J51" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="16">
         <f t="shared" si="1"/>
@@ -4990,7 +6974,7 @@
       </c>
       <c r="N51" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>,score:integer</v>
+        <v/>
       </c>
       <c r="O51" s="16" t="str">
         <f t="shared" si="3"/>
@@ -4998,23 +6982,19 @@
       </c>
       <c r="P51" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,stage:string,parent:string,score:integer</v>
+        <v>user:string,project_id:integer</v>
       </c>
       <c r="Q51" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>,comments:string</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
       <c r="F52" s="10" t="s">
         <v>118</v>
       </c>
@@ -5022,7 +7002,7 @@
       <c r="H52" s="9"/>
       <c r="J52" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="16">
         <f t="shared" si="1"/>
@@ -5033,7 +7013,7 @@
       </c>
       <c r="N52" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>,creator:string</v>
+        <v/>
       </c>
       <c r="O52" s="16" t="str">
         <f t="shared" si="3"/>
@@ -5041,23 +7021,19 @@
       </c>
       <c r="P52" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,stage:string,parent:string,score:integer,creator:string</v>
+        <v>user:string,project_id:integer</v>
       </c>
       <c r="Q52" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>,comments:string</v>
+        <v/>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
       <c r="F53" s="10" t="s">
         <v>119</v>
       </c>
@@ -5065,7 +7041,7 @@
       <c r="H53" s="9"/>
       <c r="J53" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="16">
         <f t="shared" si="1"/>
@@ -5076,7 +7052,7 @@
       </c>
       <c r="N53" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>,adopter:string</v>
+        <v/>
       </c>
       <c r="O53" s="16" t="str">
         <f t="shared" si="3"/>
@@ -5084,23 +7060,19 @@
       </c>
       <c r="P53" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,stage:string,parent:string,score:integer,creator:string,adopter:string</v>
+        <v>user:string,project_id:integer</v>
       </c>
       <c r="Q53" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>,comments:string</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
       <c r="F54" s="10" t="s">
         <v>120</v>
       </c>
@@ -5108,7 +7080,7 @@
       <c r="H54" s="9"/>
       <c r="J54" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="16">
         <f t="shared" si="1"/>
@@ -5119,7 +7091,7 @@
       </c>
       <c r="N54" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>,evidence:string</v>
+        <v/>
       </c>
       <c r="O54" s="16" t="str">
         <f t="shared" si="3"/>
@@ -5127,23 +7099,19 @@
       </c>
       <c r="P54" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,stage:string,parent:string,score:integer,creator:string,adopter:string,evidence:string</v>
+        <v>user:string,project_id:integer</v>
       </c>
       <c r="Q54" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>,comments:string</v>
+        <v/>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
       <c r="F55" s="10" t="s">
         <v>121</v>
       </c>
@@ -5151,7 +7119,7 @@
       <c r="H55" s="9"/>
       <c r="J55" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="16">
         <f t="shared" si="1"/>
@@ -5162,7 +7130,7 @@
       </c>
       <c r="N55" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>,reason:string</v>
+        <v/>
       </c>
       <c r="O55" s="16" t="str">
         <f t="shared" si="3"/>
@@ -5170,23 +7138,19 @@
       </c>
       <c r="P55" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,stage:string,parent:string,score:integer,creator:string,adopter:string,evidence:string,reason:string</v>
+        <v>user:string,project_id:integer</v>
       </c>
       <c r="Q55" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>,comments:string</v>
+        <v/>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
       <c r="F56" s="10" t="s">
         <v>122</v>
       </c>
@@ -5194,7 +7158,7 @@
       <c r="H56" s="9"/>
       <c r="J56" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="16">
         <f t="shared" si="1"/>
@@ -5205,7 +7169,7 @@
       </c>
       <c r="N56" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>,output:string</v>
+        <v/>
       </c>
       <c r="O56" s="16" t="str">
         <f t="shared" si="3"/>
@@ -5213,11 +7177,11 @@
       </c>
       <c r="P56" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>task:string,project:string,stage:string,parent:string,score:integer,creator:string,adopter:string,evidence:string,reason:string,output:string</v>
+        <v>user:string,project_id:integer</v>
       </c>
       <c r="Q56" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>,comments:string</v>
+        <v/>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -5231,7 +7195,7 @@
       </c>
       <c r="C60" s="23" t="str">
         <f>A4&amp;A5&amp;A6&amp;D45&amp;B1&amp;M42</f>
-        <v>php artisan generate:migration create_junks_table --fields="task:string,project:string,stage:string,parent:string,score:integer,creator:string,adopter:string,evidence:string,reason:string,output:string,comments:string"</v>
+        <v>php artisan generate:migration create_projectactives_table --fields="user:string,project_id:integer"</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
@@ -5256,7 +7220,7 @@
       </c>
       <c r="C62" s="23" t="str">
         <f>A4&amp;B4&amp;G45</f>
-        <v>php artisan generate:model Junk</v>
+        <v>php artisan generate:model Projectactive</v>
       </c>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
@@ -5276,14 +7240,14 @@
         <v>149</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="F66" s="20" t="s">
         <v>184</v>
       </c>
       <c r="G66" s="22" t="str">
         <f>"app/views/"&amp;D67</f>
-        <v>app/views/ajax</v>
+        <v>app/views/compact</v>
       </c>
       <c r="H66" s="22"/>
     </row>
@@ -5292,14 +7256,14 @@
         <v>150</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>392</v>
+        <v>496</v>
       </c>
       <c r="F67" s="20" t="s">
         <v>183</v>
       </c>
       <c r="G67" s="22" t="str">
         <f>D66&amp;".blade.php"</f>
-        <v>periods.blade.php</v>
+        <v>base.blade.php</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -5307,14 +7271,14 @@
         <v>155</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="F68" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G68" s="16" t="str">
         <f>UPPER(LEFT(D68,1))&amp;RIGHT(D68,LEN(D68)-1)&amp;"Controller"</f>
-        <v>RunajaxController</v>
+        <v>TaskingController</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
@@ -5323,7 +7287,7 @@
       </c>
       <c r="C69" s="23" t="str">
         <f>A4&amp;B5&amp;G68</f>
-        <v>php artisan generate:controller RunajaxController</v>
+        <v>php artisan generate:controller TaskingController</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
@@ -5336,11 +7300,11 @@
       </c>
       <c r="D70" s="10" t="str">
         <f>D66</f>
-        <v>periods</v>
+        <v>base</v>
       </c>
       <c r="G70" s="16" t="str">
         <f>UPPER(LEFT(D70,1))&amp;RIGHT(D70,LEN(D70)-1)</f>
-        <v>Periods</v>
+        <v>Base</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -5349,19 +7313,19 @@
       </c>
       <c r="D71" s="10" t="str">
         <f>" app/Controllers/"&amp;G68&amp;".php"</f>
-        <v xml:space="preserve"> app/Controllers/RunajaxController.php</v>
+        <v xml:space="preserve"> app/Controllers/TaskingController.php</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D72" s="22" t="str">
         <f>"public function get"&amp;G70&amp;"() {"</f>
-        <v>public function getPeriods() {</v>
+        <v>public function getBase() {</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D73" s="22" t="str">
         <f>"    Return View::make('"&amp;D67&amp;IF(D67&lt;&gt;"",".","")&amp;D66&amp;"'"&amp;");"</f>
-        <v xml:space="preserve">    Return View::make('ajax.periods');</v>
+        <v xml:space="preserve">    Return View::make('compact.base');</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
@@ -5378,7 +7342,7 @@
         <v>160</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
@@ -5386,7 +7350,7 @@
       <c r="C76" s="16"/>
       <c r="D76" s="16" t="str">
         <f>"Route::get('"&amp;D66&amp;"','"&amp;G68&amp;"@"&amp;D70&amp;"');"</f>
-        <v>Route::get('periods','RunajaxController@periods');</v>
+        <v>Route::get('base','TaskingController@base');</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
@@ -5394,13 +7358,13 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D79" s="22" t="str">
         <f>B6&amp;D67&amp;C1&amp;G68&amp;C2</f>
-        <v>Route::controller('ajax','RunajaxController');</v>
+        <v>Route::controller('compact','TaskingController');</v>
       </c>
       <c r="H79" s="29"/>
     </row>
@@ -5409,7 +7373,7 @@
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
@@ -5417,23 +7381,23 @@
         <v>189</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>460</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>470</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
@@ -5442,7 +7406,7 @@
       </c>
       <c r="C86" s="23" t="str">
         <f>C3&amp;D84&amp;C4&amp;D83&amp;C5&amp;C6&amp;D84&amp;":"&amp;D85&amp;C6</f>
-        <v>php artisan generate:migration add_notice_to_junks_table --fields="notice:integer"</v>
+        <v>php artisan generate:migration add_name_to_projects_table --fields="name:string"</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
@@ -5454,7 +7418,7 @@
       <c r="K86" s="23"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47:D56 H47:H56">
       <formula1>$M$47:$M$56</formula1>
     </dataValidation>
@@ -5464,7 +7428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K39"/>
   <sheetViews>
@@ -5663,7 +7627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E22"/>
   <sheetViews>
@@ -5764,11 +7728,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -5879,7 +7843,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="22" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -5960,12 +7924,12 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C45" s="22" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -6017,1124 +7981,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="11.42578125" style="10"/>
-    <col min="4" max="4" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D11" s="22" t="str">
-        <f>A1&amp;D7&amp;A2&amp;D9&amp;A3</f>
-        <v>Route::('task','taskController');</v>
-      </c>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="22" t="str">
-        <f>$B$1&amp;B15&amp;UPPER(LEFT(C15,1))&amp;RIGHT(C15,LEN(C15)-1)&amp;$B$2</f>
-        <v>public function getAddtask() {}</v>
-      </c>
-      <c r="G15" s="11" t="str">
-        <f>$D$7&amp;"/"&amp;C15</f>
-        <v>task/addtask</v>
-      </c>
-      <c r="I15" s="22" t="str">
-        <f>$B$3&amp;G15&amp;$C$1&amp;C15&amp;$C$2</f>
-        <v>{{link_to('task/addtask','addtask'}}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="22" t="str">
-        <f>$B$1&amp;B16&amp;UPPER(LEFT(C16,1))&amp;RIGHT(C16,LEN(C16)-1)&amp;$B$2</f>
-        <v>public function postAddtask() {}</v>
-      </c>
-      <c r="G16" s="11" t="str">
-        <f>$D$7&amp;"/"&amp;C16</f>
-        <v>task/addtask</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I147"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>435</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>360</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>440</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>442</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>343</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>430</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
-        <v>420</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="16" t="str">
-        <f>UPPER(LEFT(B19,1))&amp;RIGHT(B19,LEN(B19)-1)</f>
-        <v>Projects</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="50" t="s">
-        <v>309</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="str">
-        <f>A1&amp;D206&amp;A2&amp;B21&amp;A3</f>
-        <v>$id=::where('p_owner','=',$user)-&gt;get(['id']);</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
-        <v>315</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="50" t="str">
-        <f>"$"&amp;LEFT(B19,LEN(B19)-1)&amp;"="&amp;LEFT(D19,LEN(D19)-1)&amp;A4</f>
-        <v>$project=Project::find($id);</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="16" t="str">
-        <f>LEFT(D34,LEN(D34)-1)</f>
-        <v>project</v>
-      </c>
-      <c r="G34" s="16" t="str">
-        <f>UPPER(LEFT(F34,1))&amp;RIGHT(F34,LEN(F34)-1)</f>
-        <v>Project</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="16" t="str">
-        <f>LEFT(D36,LEN(D36)-1)</f>
-        <v>thetask</v>
-      </c>
-      <c r="G36" s="16" t="str">
-        <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
-        <v>Thetask</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="21" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D42" s="22" t="str">
-        <f>F34&amp;"_id"</f>
-        <v>project_id</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="54" t="str">
-        <f>C2&amp;G34&amp;".php"</f>
-        <v>//app/models/Project.php</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D46" s="22" t="str">
-        <f>C3&amp;F36&amp;C4</f>
-        <v>public function thetask () {</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D47" s="22" t="str">
-        <f>C5&amp;G36&amp;"');"</f>
-        <v>return $this-&gt;hasMany('Thetask');</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D48" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="54" t="str">
-        <f>C2&amp;G36&amp;".php"</f>
-        <v>//app/models/Thetask.php</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D52" s="22" t="str">
-        <f>C3&amp;F34&amp;C4</f>
-        <v>public function project () {</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="22" t="str">
-        <f>D1&amp;G34&amp;"');"</f>
-        <v>return $this-&gt;belongsTo('Project');</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D54" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="22" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D60" s="22" t="str">
-        <f>"$"&amp;F34&amp;A5</f>
-        <v>$project=Project::all();</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D61" s="22" t="str">
-        <f>B1&amp;"$"&amp;F34&amp;B2</f>
-        <v>foreach ($project as $value){</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="22" t="str">
-        <f>"     "&amp;B3&amp;G34&amp;B4</f>
-        <v xml:space="preserve">     $row=Project::find($value-&gt;id);</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D63" s="22" t="str">
-        <f>"     "&amp;B5&amp;D35&amp;";"</f>
-        <v xml:space="preserve">     $owner=$value-&gt;p_owner;</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D64" s="22" t="str">
-        <f>"     "&amp;C1&amp;F36&amp;";"</f>
-        <v xml:space="preserve">     $allowed=$row-&gt;thetask;</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="22" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="22" t="str">
-        <f>"          "&amp;D2&amp;D37&amp;D3</f>
-        <v xml:space="preserve">          @if($allowed[0]['email']==$user)</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="22" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="22" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D77" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D79" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D82" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D84" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D85" s="22" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="E95" s="16" t="str">
-        <f>LEFT(C95,LEN(C95)-1)</f>
-        <v>thetask</v>
-      </c>
-      <c r="F95" s="16" t="str">
-        <f>UPPER(LEFT(E95,1))&amp;RIGHT(E95,LEN(E95)-1)</f>
-        <v>Thetask</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E96" s="16" t="str">
-        <f>LEFT(C96,LEN(C96)-1)</f>
-        <v>project</v>
-      </c>
-      <c r="F96" s="16" t="str">
-        <f>UPPER(LEFT(E96,1))&amp;RIGHT(E96,LEN(E96)-1)</f>
-        <v>Project</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="22" t="str">
-        <f>"$"&amp;C100&amp;C95&amp;"="&amp;F96&amp;"::has('"&amp;E95&amp;"')"</f>
-        <v>$ownthetasks=Project::has('thetask')</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="22" t="str">
-        <f>"-&gt;where('"&amp;C97&amp;"','=',"&amp;C98&amp;")"</f>
-        <v>-&gt;where('p_owner','=',$logged)</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="27" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="59" t="s">
-        <v>421</v>
-      </c>
-      <c r="B107" s="59"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="59"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="59" t="s">
-        <v>422</v>
-      </c>
-      <c r="B108" s="59"/>
-      <c r="C108" s="59"/>
-      <c r="D108" s="59"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="59"/>
-      <c r="I108" s="59"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F109" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="D110" s="52" t="s">
-        <v>377</v>
-      </c>
-      <c r="E110" s="52"/>
-      <c r="F110" s="16" t="str">
-        <f>LEFT(D110,LEN(D110)-1)</f>
-        <v>thetask</v>
-      </c>
-      <c r="G110" s="16" t="str">
-        <f>UPPER(LEFT(F110,1))&amp;RIGHT(F110,LEN(F110)-1)</f>
-        <v>Thetask</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="D111" s="52" t="s">
-        <v>445</v>
-      </c>
-      <c r="E111" s="52"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="D112" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="E112" s="52"/>
-      <c r="F112" s="16" t="str">
-        <f>LEFT(D112,LEN(D112)-1)</f>
-        <v>project</v>
-      </c>
-      <c r="G112" s="16" t="str">
-        <f>UPPER(LEFT(F112,1))&amp;RIGHT(F112,LEN(F112)-1)</f>
-        <v>Project</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="D113" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="E113" s="52"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="D114" s="52" t="s">
-        <v>426</v>
-      </c>
-      <c r="E114" s="52"/>
-      <c r="F114" s="16" t="str">
-        <f>LEFT(D114,LEN(D114)-1)</f>
-        <v>projectpermission</v>
-      </c>
-      <c r="G114" s="16" t="str">
-        <f>UPPER(LEFT(F114,1))&amp;RIGHT(F114,LEN(F114)-1)</f>
-        <v>Projectpermission</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="D115" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="E115" s="52"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="D116" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="E116" s="52"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="D117" s="52" t="s">
-        <v>431</v>
-      </c>
-      <c r="E117" s="52"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="D118" s="52" t="s">
-        <v>434</v>
-      </c>
-      <c r="E118" s="52"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="22" t="str">
-        <f>D4&amp;F110&amp;"',"&amp;G110&amp;D5&amp;D117&amp;E1&amp;D118&amp;E2</f>
-        <v>-&gt;with('thetask',Thetask::orderBy('score','desc')-&gt;get())</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="22" t="str">
-        <f>E3&amp;F110&amp;E4</f>
-        <v xml:space="preserve">@foreach($thetask as $value) </v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="22" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="22" t="str">
-        <f>"     "&amp;E5&amp;G110&amp;F1</f>
-        <v xml:space="preserve">     $id=Thetask::find($value-&gt;id);</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="22" t="str">
-        <f>"     "&amp;F2&amp;F112&amp;F3&amp;F112&amp;";"</f>
-        <v xml:space="preserve">     $filterproject=$value-&gt;project;</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="22" t="str">
-        <f>"     "&amp;F2&amp;F112&amp;"id="&amp;F2&amp;F112&amp;"-&gt;id;"</f>
-        <v xml:space="preserve">     $filterprojectid=$filterproject-&gt;id;</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="22" t="str">
-        <f>"     "&amp;F2&amp;F114&amp;"="&amp;G114&amp;G2&amp;D115&amp;G3&amp;F2&amp;")"</f>
-        <v xml:space="preserve">     $filterprojectpermission=Projectpermission::where('email','=',$filter)</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="22" t="str">
-        <f>"     "&amp;G4&amp;D116&amp;G3&amp;F2&amp;F112&amp;"id"&amp;G5</f>
-        <v xml:space="preserve">     -&gt;where('project_id','=',$filterprojectid)-&gt;first();</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="22" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="22"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="22" t="str">
-        <f>"     @if("&amp;F2&amp;F114&amp;"['"&amp;D115&amp;"']=="&amp;F2&amp;")"</f>
-        <v xml:space="preserve">     @if($filterprojectpermission['email']==$filter)</v>
-      </c>
-      <c r="G134" s="29"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B135" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B136" s="22" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="22"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="22" t="str">
-        <f>"     @endif"</f>
-        <v xml:space="preserve">     @endif</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B139" s="22"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="22" t="str">
-        <f>"        "&amp;F4&amp;F2&amp;F112&amp;"-&gt;"&amp;D113&amp;"))"</f>
-        <v xml:space="preserve">        @if(isset($filterproject-&gt;p_owner))</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B141" s="22" t="str">
-        <f>"           "&amp;G1&amp;F2&amp;"=="&amp;F2&amp;F112&amp;"-&gt;"&amp;D113&amp;")"</f>
-        <v xml:space="preserve">           @if($filter==$filterproject-&gt;p_owner)</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B143" s="22" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="22" t="str">
-        <f>"           @endif"</f>
-        <v xml:space="preserve">           @endif</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="22"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="22" t="str">
-        <f>"     @endif"</f>
-        <v xml:space="preserve">     @endif</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="27" t="s">
-        <v>447</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>